--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,18 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['11', '77', '79', '90+6']</t>
+  </si>
+  <si>
+    <t>['45+7', '51', '90+6']</t>
+  </si>
+  <si>
+    <t>['13', '37', '64']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -716,6 +728,12 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['10', '49', '85']</t>
+  </si>
+  <si>
+    <t>['13', '45+1', '54']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1354,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1414,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ2">
         <v>0.71</v>
@@ -1623,7 +1641,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1748,7 +1766,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2035,7 +2053,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2241,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2444,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2572,7 +2590,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2650,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2856,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ9">
         <v>1.14</v>
@@ -2984,7 +3002,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3268,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ11">
         <v>1.17</v>
@@ -3602,7 +3620,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3683,7 +3701,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3886,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.67</v>
@@ -4095,7 +4113,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4220,7 +4238,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4426,7 +4444,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4504,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.17</v>
@@ -4713,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5044,7 +5062,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5250,7 +5268,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5328,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ21">
         <v>2</v>
@@ -5456,7 +5474,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5534,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -5743,7 +5761,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5868,7 +5886,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5946,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6074,7 +6092,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6152,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6280,7 +6298,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6692,7 +6710,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6773,7 +6791,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ28">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -7185,7 +7203,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7388,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -7594,7 +7612,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.33</v>
@@ -7803,7 +7821,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR33">
         <v>2.15</v>
@@ -8134,7 +8152,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8340,7 +8358,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8418,10 +8436,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8546,7 +8564,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8752,7 +8770,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8830,10 +8848,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8958,7 +8976,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9036,10 +9054,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -9370,7 +9388,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9448,7 +9466,7 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9576,7 +9594,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9782,7 +9800,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9863,7 +9881,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -10066,7 +10084,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>0.17</v>
@@ -10400,7 +10418,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10684,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR47">
         <v>1.49</v>
@@ -11302,7 +11320,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11508,7 +11526,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1.14</v>
@@ -11717,7 +11735,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR52">
         <v>1.34</v>
@@ -11842,7 +11860,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12048,7 +12066,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12126,10 +12144,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>1.19</v>
@@ -12254,7 +12272,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12335,7 +12353,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR55">
         <v>1.98</v>
@@ -12666,7 +12684,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12872,7 +12890,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12950,7 +12968,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13078,7 +13096,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13284,7 +13302,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13365,7 +13383,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13696,7 +13714,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13902,7 +13920,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -13980,10 +13998,10 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14108,7 +14126,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14186,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14392,10 +14410,10 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR65">
         <v>1.6</v>
@@ -14601,7 +14619,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14932,7 +14950,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15013,7 +15031,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15138,7 +15156,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15344,7 +15362,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15422,7 +15440,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
         <v>1.14</v>
@@ -15550,7 +15568,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15628,7 +15646,7 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15756,7 +15774,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15837,7 +15855,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ72">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -15962,7 +15980,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16040,10 +16058,10 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ73">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -16168,7 +16186,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16246,7 +16264,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>0.71</v>
@@ -16374,7 +16392,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16580,7 +16598,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16867,7 +16885,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17198,7 +17216,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17404,7 +17422,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17610,7 +17628,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17688,7 +17706,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81">
         <v>2</v>
@@ -17894,7 +17912,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18103,7 +18121,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.6</v>
@@ -18309,7 +18327,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ84">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18434,7 +18452,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18512,10 +18530,10 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -18640,7 +18658,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18924,7 +18942,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>1.33</v>
@@ -19258,7 +19276,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19336,10 +19354,10 @@
         <v>0.75</v>
       </c>
       <c r="AP89">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR89">
         <v>1.72</v>
@@ -19464,7 +19482,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19542,7 +19560,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19748,7 +19766,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ91">
         <v>0.71</v>
@@ -19876,7 +19894,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20163,7 +20181,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20494,7 +20512,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20700,7 +20718,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20781,7 +20799,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR96">
         <v>1.65</v>
@@ -21112,7 +21130,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21190,7 +21208,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ98">
         <v>0.67</v>
@@ -21396,7 +21414,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>0.17</v>
@@ -21524,7 +21542,7 @@
         <v>165</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>2.25</v>
@@ -21602,10 +21620,10 @@
         <v>1.17</v>
       </c>
       <c r="AP100">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -21808,10 +21826,10 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
@@ -22014,10 +22032,10 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ102">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22142,7 +22160,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22220,7 +22238,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ103">
         <v>1.14</v>
@@ -22429,7 +22447,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR104">
         <v>1.57</v>
@@ -22838,7 +22856,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23044,10 +23062,10 @@
         <v>0.6</v>
       </c>
       <c r="AP107">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ107">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR107">
         <v>1.74</v>
@@ -23172,7 +23190,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23253,7 +23271,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR108">
         <v>1.07</v>
@@ -23996,7 +24014,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24408,7 +24426,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24692,7 +24710,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>2</v>
@@ -24820,7 +24838,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25183,6 +25201,1448 @@
       </c>
       <c r="BP117">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7468990</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F118">
+        <v>14</v>
+      </c>
+      <c r="G118" t="s">
+        <v>82</v>
+      </c>
+      <c r="H118" t="s">
+        <v>87</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>2</v>
+      </c>
+      <c r="L118">
+        <v>4</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118" t="s">
+        <v>177</v>
+      </c>
+      <c r="P118" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q118">
+        <v>2.75</v>
+      </c>
+      <c r="R118">
+        <v>2.2</v>
+      </c>
+      <c r="S118">
+        <v>4</v>
+      </c>
+      <c r="T118">
+        <v>1.4</v>
+      </c>
+      <c r="U118">
+        <v>2.75</v>
+      </c>
+      <c r="V118">
+        <v>2.75</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>8</v>
+      </c>
+      <c r="Y118">
+        <v>1.08</v>
+      </c>
+      <c r="Z118">
+        <v>2</v>
+      </c>
+      <c r="AA118">
+        <v>3.5</v>
+      </c>
+      <c r="AB118">
+        <v>3.5</v>
+      </c>
+      <c r="AC118">
+        <v>1.05</v>
+      </c>
+      <c r="AD118">
+        <v>9</v>
+      </c>
+      <c r="AE118">
+        <v>1.28</v>
+      </c>
+      <c r="AF118">
+        <v>3.5</v>
+      </c>
+      <c r="AG118">
+        <v>1.8</v>
+      </c>
+      <c r="AH118">
+        <v>1.9</v>
+      </c>
+      <c r="AI118">
+        <v>1.73</v>
+      </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
+      <c r="AK118">
+        <v>1.28</v>
+      </c>
+      <c r="AL118">
+        <v>1.25</v>
+      </c>
+      <c r="AM118">
+        <v>1.75</v>
+      </c>
+      <c r="AN118">
+        <v>1.83</v>
+      </c>
+      <c r="AO118">
+        <v>1</v>
+      </c>
+      <c r="AP118">
+        <v>2</v>
+      </c>
+      <c r="AQ118">
+        <v>0.88</v>
+      </c>
+      <c r="AR118">
+        <v>1.44</v>
+      </c>
+      <c r="AS118">
+        <v>1.24</v>
+      </c>
+      <c r="AT118">
+        <v>2.68</v>
+      </c>
+      <c r="AU118">
+        <v>7</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>9</v>
+      </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>24</v>
+      </c>
+      <c r="AZ118">
+        <v>8</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>2</v>
+      </c>
+      <c r="BC118">
+        <v>8</v>
+      </c>
+      <c r="BD118">
+        <v>1.45</v>
+      </c>
+      <c r="BE118">
+        <v>8.5</v>
+      </c>
+      <c r="BF118">
+        <v>3.29</v>
+      </c>
+      <c r="BG118">
+        <v>1.27</v>
+      </c>
+      <c r="BH118">
+        <v>3.55</v>
+      </c>
+      <c r="BI118">
+        <v>1.5</v>
+      </c>
+      <c r="BJ118">
+        <v>2.48</v>
+      </c>
+      <c r="BK118">
+        <v>1.9</v>
+      </c>
+      <c r="BL118">
+        <v>1.9</v>
+      </c>
+      <c r="BM118">
+        <v>2.45</v>
+      </c>
+      <c r="BN118">
+        <v>1.5</v>
+      </c>
+      <c r="BO118">
+        <v>3.4</v>
+      </c>
+      <c r="BP118">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7468991</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" t="s">
+        <v>80</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>90</v>
+      </c>
+      <c r="P119" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q119">
+        <v>4</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>3</v>
+      </c>
+      <c r="T119">
+        <v>1.5</v>
+      </c>
+      <c r="U119">
+        <v>2.5</v>
+      </c>
+      <c r="V119">
+        <v>3.5</v>
+      </c>
+      <c r="W119">
+        <v>1.29</v>
+      </c>
+      <c r="X119">
+        <v>11</v>
+      </c>
+      <c r="Y119">
+        <v>1.05</v>
+      </c>
+      <c r="Z119">
+        <v>3.6</v>
+      </c>
+      <c r="AA119">
+        <v>3.05</v>
+      </c>
+      <c r="AB119">
+        <v>2.15</v>
+      </c>
+      <c r="AC119">
+        <v>1.08</v>
+      </c>
+      <c r="AD119">
+        <v>7.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.42</v>
+      </c>
+      <c r="AF119">
+        <v>2.75</v>
+      </c>
+      <c r="AG119">
+        <v>2.28</v>
+      </c>
+      <c r="AH119">
+        <v>1.58</v>
+      </c>
+      <c r="AI119">
+        <v>2</v>
+      </c>
+      <c r="AJ119">
+        <v>1.73</v>
+      </c>
+      <c r="AK119">
+        <v>1.66</v>
+      </c>
+      <c r="AL119">
+        <v>1.28</v>
+      </c>
+      <c r="AM119">
+        <v>1.3</v>
+      </c>
+      <c r="AN119">
+        <v>0.14</v>
+      </c>
+      <c r="AO119">
+        <v>1.14</v>
+      </c>
+      <c r="AP119">
+        <v>0.13</v>
+      </c>
+      <c r="AQ119">
+        <v>1.38</v>
+      </c>
+      <c r="AR119">
+        <v>0.99</v>
+      </c>
+      <c r="AS119">
+        <v>1.1</v>
+      </c>
+      <c r="AT119">
+        <v>2.09</v>
+      </c>
+      <c r="AU119">
+        <v>4</v>
+      </c>
+      <c r="AV119">
+        <v>10</v>
+      </c>
+      <c r="AW119">
+        <v>4</v>
+      </c>
+      <c r="AX119">
+        <v>4</v>
+      </c>
+      <c r="AY119">
+        <v>11</v>
+      </c>
+      <c r="AZ119">
+        <v>17</v>
+      </c>
+      <c r="BA119">
+        <v>7</v>
+      </c>
+      <c r="BB119">
+        <v>11</v>
+      </c>
+      <c r="BC119">
+        <v>18</v>
+      </c>
+      <c r="BD119">
+        <v>2.62</v>
+      </c>
+      <c r="BE119">
+        <v>8</v>
+      </c>
+      <c r="BF119">
+        <v>1.69</v>
+      </c>
+      <c r="BG119">
+        <v>1.27</v>
+      </c>
+      <c r="BH119">
+        <v>3.55</v>
+      </c>
+      <c r="BI119">
+        <v>1.5</v>
+      </c>
+      <c r="BJ119">
+        <v>2.48</v>
+      </c>
+      <c r="BK119">
+        <v>1.9</v>
+      </c>
+      <c r="BL119">
+        <v>1.9</v>
+      </c>
+      <c r="BM119">
+        <v>2.45</v>
+      </c>
+      <c r="BN119">
+        <v>1.5</v>
+      </c>
+      <c r="BO119">
+        <v>3.4</v>
+      </c>
+      <c r="BP119">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7468986</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>3</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>6</v>
+      </c>
+      <c r="O120" t="s">
+        <v>178</v>
+      </c>
+      <c r="P120" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q120">
+        <v>2.88</v>
+      </c>
+      <c r="R120">
+        <v>2.25</v>
+      </c>
+      <c r="S120">
+        <v>3.5</v>
+      </c>
+      <c r="T120">
+        <v>1.33</v>
+      </c>
+      <c r="U120">
+        <v>3.25</v>
+      </c>
+      <c r="V120">
+        <v>2.63</v>
+      </c>
+      <c r="W120">
+        <v>1.44</v>
+      </c>
+      <c r="X120">
+        <v>6.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.11</v>
+      </c>
+      <c r="Z120">
+        <v>2.2</v>
+      </c>
+      <c r="AA120">
+        <v>3.5</v>
+      </c>
+      <c r="AB120">
+        <v>3</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>9.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.22</v>
+      </c>
+      <c r="AF120">
+        <v>4</v>
+      </c>
+      <c r="AG120">
+        <v>1.68</v>
+      </c>
+      <c r="AH120">
+        <v>2.1</v>
+      </c>
+      <c r="AI120">
+        <v>1.57</v>
+      </c>
+      <c r="AJ120">
+        <v>2.25</v>
+      </c>
+      <c r="AK120">
+        <v>1.4</v>
+      </c>
+      <c r="AL120">
+        <v>1.22</v>
+      </c>
+      <c r="AM120">
+        <v>1.62</v>
+      </c>
+      <c r="AN120">
+        <v>1.43</v>
+      </c>
+      <c r="AO120">
+        <v>1.14</v>
+      </c>
+      <c r="AP120">
+        <v>1.38</v>
+      </c>
+      <c r="AQ120">
+        <v>1.13</v>
+      </c>
+      <c r="AR120">
+        <v>1.35</v>
+      </c>
+      <c r="AS120">
+        <v>1.26</v>
+      </c>
+      <c r="AT120">
+        <v>2.61</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>0</v>
+      </c>
+      <c r="AX120">
+        <v>2</v>
+      </c>
+      <c r="AY120">
+        <v>5</v>
+      </c>
+      <c r="AZ120">
+        <v>7</v>
+      </c>
+      <c r="BA120">
+        <v>2</v>
+      </c>
+      <c r="BB120">
+        <v>2</v>
+      </c>
+      <c r="BC120">
+        <v>4</v>
+      </c>
+      <c r="BD120">
+        <v>1.82</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>2.39</v>
+      </c>
+      <c r="BG120">
+        <v>1.27</v>
+      </c>
+      <c r="BH120">
+        <v>3.55</v>
+      </c>
+      <c r="BI120">
+        <v>1.5</v>
+      </c>
+      <c r="BJ120">
+        <v>2.48</v>
+      </c>
+      <c r="BK120">
+        <v>1.9</v>
+      </c>
+      <c r="BL120">
+        <v>1.9</v>
+      </c>
+      <c r="BM120">
+        <v>2.45</v>
+      </c>
+      <c r="BN120">
+        <v>1.5</v>
+      </c>
+      <c r="BO120">
+        <v>3.4</v>
+      </c>
+      <c r="BP120">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7468987</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>75</v>
+      </c>
+      <c r="H121" t="s">
+        <v>73</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>3</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>179</v>
+      </c>
+      <c r="P121" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q121">
+        <v>2.6</v>
+      </c>
+      <c r="R121">
+        <v>2.1</v>
+      </c>
+      <c r="S121">
+        <v>4.5</v>
+      </c>
+      <c r="T121">
+        <v>1.44</v>
+      </c>
+      <c r="U121">
+        <v>2.63</v>
+      </c>
+      <c r="V121">
+        <v>3</v>
+      </c>
+      <c r="W121">
+        <v>1.36</v>
+      </c>
+      <c r="X121">
+        <v>9</v>
+      </c>
+      <c r="Y121">
+        <v>1.07</v>
+      </c>
+      <c r="Z121">
+        <v>1.9</v>
+      </c>
+      <c r="AA121">
+        <v>3.4</v>
+      </c>
+      <c r="AB121">
+        <v>4</v>
+      </c>
+      <c r="AC121">
+        <v>1.06</v>
+      </c>
+      <c r="AD121">
+        <v>8.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.33</v>
+      </c>
+      <c r="AF121">
+        <v>3.1</v>
+      </c>
+      <c r="AG121">
+        <v>2.05</v>
+      </c>
+      <c r="AH121">
+        <v>1.73</v>
+      </c>
+      <c r="AI121">
+        <v>1.83</v>
+      </c>
+      <c r="AJ121">
+        <v>1.83</v>
+      </c>
+      <c r="AK121">
+        <v>1.2</v>
+      </c>
+      <c r="AL121">
+        <v>1.25</v>
+      </c>
+      <c r="AM121">
+        <v>1.85</v>
+      </c>
+      <c r="AN121">
+        <v>1.86</v>
+      </c>
+      <c r="AO121">
+        <v>0.5</v>
+      </c>
+      <c r="AP121">
+        <v>2</v>
+      </c>
+      <c r="AQ121">
+        <v>0.43</v>
+      </c>
+      <c r="AR121">
+        <v>1.78</v>
+      </c>
+      <c r="AS121">
+        <v>1.24</v>
+      </c>
+      <c r="AT121">
+        <v>3.02</v>
+      </c>
+      <c r="AU121">
+        <v>6</v>
+      </c>
+      <c r="AV121">
+        <v>5</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>8</v>
+      </c>
+      <c r="AY121">
+        <v>15</v>
+      </c>
+      <c r="AZ121">
+        <v>18</v>
+      </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>6</v>
+      </c>
+      <c r="BC121">
+        <v>8</v>
+      </c>
+      <c r="BD121">
+        <v>1.55</v>
+      </c>
+      <c r="BE121">
+        <v>8.5</v>
+      </c>
+      <c r="BF121">
+        <v>3.01</v>
+      </c>
+      <c r="BG121">
+        <v>1.3</v>
+      </c>
+      <c r="BH121">
+        <v>3.3</v>
+      </c>
+      <c r="BI121">
+        <v>1.56</v>
+      </c>
+      <c r="BJ121">
+        <v>2.33</v>
+      </c>
+      <c r="BK121">
+        <v>2</v>
+      </c>
+      <c r="BL121">
+        <v>1.8</v>
+      </c>
+      <c r="BM121">
+        <v>2.63</v>
+      </c>
+      <c r="BN121">
+        <v>1.45</v>
+      </c>
+      <c r="BO121">
+        <v>3.65</v>
+      </c>
+      <c r="BP121">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7468984</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>79</v>
+      </c>
+      <c r="H122" t="s">
+        <v>74</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122" t="s">
+        <v>90</v>
+      </c>
+      <c r="P122" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q122">
+        <v>2.88</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>4</v>
+      </c>
+      <c r="T122">
+        <v>1.44</v>
+      </c>
+      <c r="U122">
+        <v>2.63</v>
+      </c>
+      <c r="V122">
+        <v>3.25</v>
+      </c>
+      <c r="W122">
+        <v>1.33</v>
+      </c>
+      <c r="X122">
+        <v>10</v>
+      </c>
+      <c r="Y122">
+        <v>1.06</v>
+      </c>
+      <c r="Z122">
+        <v>2.1</v>
+      </c>
+      <c r="AA122">
+        <v>3.25</v>
+      </c>
+      <c r="AB122">
+        <v>3.5</v>
+      </c>
+      <c r="AC122">
+        <v>1.07</v>
+      </c>
+      <c r="AD122">
+        <v>8</v>
+      </c>
+      <c r="AE122">
+        <v>1.36</v>
+      </c>
+      <c r="AF122">
+        <v>2.95</v>
+      </c>
+      <c r="AG122">
+        <v>2.1</v>
+      </c>
+      <c r="AH122">
+        <v>1.68</v>
+      </c>
+      <c r="AI122">
+        <v>1.83</v>
+      </c>
+      <c r="AJ122">
+        <v>1.83</v>
+      </c>
+      <c r="AK122">
+        <v>1.3</v>
+      </c>
+      <c r="AL122">
+        <v>1.25</v>
+      </c>
+      <c r="AM122">
+        <v>1.7</v>
+      </c>
+      <c r="AN122">
+        <v>1.17</v>
+      </c>
+      <c r="AO122">
+        <v>0.5</v>
+      </c>
+      <c r="AP122">
+        <v>1.14</v>
+      </c>
+      <c r="AQ122">
+        <v>0.57</v>
+      </c>
+      <c r="AR122">
+        <v>1.46</v>
+      </c>
+      <c r="AS122">
+        <v>1.23</v>
+      </c>
+      <c r="AT122">
+        <v>2.69</v>
+      </c>
+      <c r="AU122">
+        <v>3</v>
+      </c>
+      <c r="AV122">
+        <v>6</v>
+      </c>
+      <c r="AW122">
+        <v>6</v>
+      </c>
+      <c r="AX122">
+        <v>2</v>
+      </c>
+      <c r="AY122">
+        <v>12</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>10</v>
+      </c>
+      <c r="BD122">
+        <v>1.75</v>
+      </c>
+      <c r="BE122">
+        <v>8</v>
+      </c>
+      <c r="BF122">
+        <v>2.42</v>
+      </c>
+      <c r="BG122">
+        <v>1.3</v>
+      </c>
+      <c r="BH122">
+        <v>3.35</v>
+      </c>
+      <c r="BI122">
+        <v>1.55</v>
+      </c>
+      <c r="BJ122">
+        <v>2.38</v>
+      </c>
+      <c r="BK122">
+        <v>1.98</v>
+      </c>
+      <c r="BL122">
+        <v>1.82</v>
+      </c>
+      <c r="BM122">
+        <v>2.6</v>
+      </c>
+      <c r="BN122">
+        <v>1.46</v>
+      </c>
+      <c r="BO122">
+        <v>3.6</v>
+      </c>
+      <c r="BP122">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7468985</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45618.66666666666</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" t="s">
+        <v>78</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>180</v>
+      </c>
+      <c r="P123" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q123">
+        <v>4.33</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>2.88</v>
+      </c>
+      <c r="T123">
+        <v>1.5</v>
+      </c>
+      <c r="U123">
+        <v>2.5</v>
+      </c>
+      <c r="V123">
+        <v>3.4</v>
+      </c>
+      <c r="W123">
+        <v>1.3</v>
+      </c>
+      <c r="X123">
+        <v>10</v>
+      </c>
+      <c r="Y123">
+        <v>1.06</v>
+      </c>
+      <c r="Z123">
+        <v>3.7</v>
+      </c>
+      <c r="AA123">
+        <v>3.2</v>
+      </c>
+      <c r="AB123">
+        <v>2.05</v>
+      </c>
+      <c r="AC123">
+        <v>1.08</v>
+      </c>
+      <c r="AD123">
+        <v>7.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.38</v>
+      </c>
+      <c r="AF123">
+        <v>2.9</v>
+      </c>
+      <c r="AG123">
+        <v>2.23</v>
+      </c>
+      <c r="AH123">
+        <v>1.62</v>
+      </c>
+      <c r="AI123">
+        <v>1.91</v>
+      </c>
+      <c r="AJ123">
+        <v>1.8</v>
+      </c>
+      <c r="AK123">
+        <v>1.7</v>
+      </c>
+      <c r="AL123">
+        <v>1.28</v>
+      </c>
+      <c r="AM123">
+        <v>1.28</v>
+      </c>
+      <c r="AN123">
+        <v>1.14</v>
+      </c>
+      <c r="AO123">
+        <v>1.5</v>
+      </c>
+      <c r="AP123">
+        <v>1.13</v>
+      </c>
+      <c r="AQ123">
+        <v>1.43</v>
+      </c>
+      <c r="AR123">
+        <v>1.24</v>
+      </c>
+      <c r="AS123">
+        <v>1.43</v>
+      </c>
+      <c r="AT123">
+        <v>2.67</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>7</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>15</v>
+      </c>
+      <c r="AZ123">
+        <v>11</v>
+      </c>
+      <c r="BA123">
+        <v>7</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
+        <v>9</v>
+      </c>
+      <c r="BD123">
+        <v>2.33</v>
+      </c>
+      <c r="BE123">
+        <v>8</v>
+      </c>
+      <c r="BF123">
+        <v>1.82</v>
+      </c>
+      <c r="BG123">
+        <v>1.3</v>
+      </c>
+      <c r="BH123">
+        <v>3.35</v>
+      </c>
+      <c r="BI123">
+        <v>1.55</v>
+      </c>
+      <c r="BJ123">
+        <v>2.38</v>
+      </c>
+      <c r="BK123">
+        <v>1.98</v>
+      </c>
+      <c r="BL123">
+        <v>1.82</v>
+      </c>
+      <c r="BM123">
+        <v>2.6</v>
+      </c>
+      <c r="BN123">
+        <v>1.46</v>
+      </c>
+      <c r="BO123">
+        <v>3.6</v>
+      </c>
+      <c r="BP123">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7468988</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45619.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>85</v>
+      </c>
+      <c r="H124" t="s">
+        <v>84</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>90</v>
+      </c>
+      <c r="P124" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q124">
+        <v>2.2</v>
+      </c>
+      <c r="R124">
+        <v>2.25</v>
+      </c>
+      <c r="S124">
+        <v>5.5</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.75</v>
+      </c>
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.53</v>
+      </c>
+      <c r="AA124">
+        <v>3.68</v>
+      </c>
+      <c r="AB124">
+        <v>5.03</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>9.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.25</v>
+      </c>
+      <c r="AF124">
+        <v>3.75</v>
+      </c>
+      <c r="AG124">
+        <v>1.84</v>
+      </c>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>1.83</v>
+      </c>
+      <c r="AJ124">
+        <v>1.83</v>
+      </c>
+      <c r="AK124">
+        <v>1.11</v>
+      </c>
+      <c r="AL124">
+        <v>1.18</v>
+      </c>
+      <c r="AM124">
+        <v>2.3</v>
+      </c>
+      <c r="AN124">
+        <v>2.17</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>2</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.79</v>
+      </c>
+      <c r="AS124">
+        <v>1.31</v>
+      </c>
+      <c r="AT124">
+        <v>3.1</v>
+      </c>
+      <c r="AU124">
+        <v>0</v>
+      </c>
+      <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>3</v>
+      </c>
+      <c r="AX124">
+        <v>8</v>
+      </c>
+      <c r="AY124">
+        <v>4</v>
+      </c>
+      <c r="AZ124">
+        <v>17</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>7</v>
+      </c>
+      <c r="BC124">
+        <v>10</v>
+      </c>
+      <c r="BD124">
+        <v>1.41</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>3.5</v>
+      </c>
+      <c r="BG124">
+        <v>1.32</v>
+      </c>
+      <c r="BH124">
+        <v>3.2</v>
+      </c>
+      <c r="BI124">
+        <v>1.58</v>
+      </c>
+      <c r="BJ124">
+        <v>2.28</v>
+      </c>
+      <c r="BK124">
+        <v>2.02</v>
+      </c>
+      <c r="BL124">
+        <v>1.74</v>
+      </c>
+      <c r="BM124">
+        <v>2.7</v>
+      </c>
+      <c r="BN124">
+        <v>1.43</v>
+      </c>
+      <c r="BO124">
+        <v>3.75</v>
+      </c>
+      <c r="BP124">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -25217,7 +25217,7 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F118">
         <v>14</v>
@@ -25423,7 +25423,7 @@
         <v>69</v>
       </c>
       <c r="E119" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F119">
         <v>14</v>
@@ -25629,7 +25629,7 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F120">
         <v>14</v>
@@ -25755,31 +25755,31 @@
         <v>2.61</v>
       </c>
       <c r="AU120">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV120">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX120">
         <v>2</v>
       </c>
       <c r="AY120">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AZ120">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA120">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC120">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD120">
         <v>1.82</v>
@@ -25835,7 +25835,7 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F121">
         <v>14</v>
@@ -26041,7 +26041,7 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -26247,7 +26247,7 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45618.66666666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F123">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1095,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2877,7 +2877,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15">
         <v>0.43</v>
@@ -6585,7 +6585,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -8024,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -9260,7 +9260,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -10499,7 +10499,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -11529,7 +11529,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -13174,7 +13174,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -15443,7 +15443,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -17088,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ78">
         <v>1.17</v>
@@ -18739,7 +18739,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.88</v>
@@ -20796,7 +20796,7 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ96">
         <v>1.13</v>
@@ -22241,7 +22241,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR103">
         <v>1.26</v>
@@ -26453,7 +26453,7 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45619.41666666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F124">
         <v>14</v>
@@ -26643,6 +26643,212 @@
       </c>
       <c r="BP124">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7468983</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45618.875</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>83</v>
+      </c>
+      <c r="H125" t="s">
+        <v>86</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>90</v>
+      </c>
+      <c r="P125" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q125">
+        <v>3.75</v>
+      </c>
+      <c r="R125">
+        <v>2.1</v>
+      </c>
+      <c r="S125">
+        <v>2.88</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.75</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>8</v>
+      </c>
+      <c r="Y125">
+        <v>1.08</v>
+      </c>
+      <c r="Z125">
+        <v>3.04</v>
+      </c>
+      <c r="AA125">
+        <v>3.19</v>
+      </c>
+      <c r="AB125">
+        <v>2.05</v>
+      </c>
+      <c r="AC125">
+        <v>1.05</v>
+      </c>
+      <c r="AD125">
+        <v>9.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.3</v>
+      </c>
+      <c r="AF125">
+        <v>3.3</v>
+      </c>
+      <c r="AG125">
+        <v>1.88</v>
+      </c>
+      <c r="AH125">
+        <v>1.96</v>
+      </c>
+      <c r="AI125">
+        <v>1.8</v>
+      </c>
+      <c r="AJ125">
+        <v>1.91</v>
+      </c>
+      <c r="AK125">
+        <v>1.66</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.35</v>
+      </c>
+      <c r="AN125">
+        <v>1.67</v>
+      </c>
+      <c r="AO125">
+        <v>1.14</v>
+      </c>
+      <c r="AP125">
+        <v>1.57</v>
+      </c>
+      <c r="AQ125">
+        <v>1.13</v>
+      </c>
+      <c r="AR125">
+        <v>1.66</v>
+      </c>
+      <c r="AS125">
+        <v>1.47</v>
+      </c>
+      <c r="AT125">
+        <v>3.13</v>
+      </c>
+      <c r="AU125">
+        <v>2</v>
+      </c>
+      <c r="AV125">
+        <v>8</v>
+      </c>
+      <c r="AW125">
+        <v>3</v>
+      </c>
+      <c r="AX125">
+        <v>6</v>
+      </c>
+      <c r="AY125">
+        <v>9</v>
+      </c>
+      <c r="AZ125">
+        <v>18</v>
+      </c>
+      <c r="BA125">
+        <v>6</v>
+      </c>
+      <c r="BB125">
+        <v>5</v>
+      </c>
+      <c r="BC125">
+        <v>11</v>
+      </c>
+      <c r="BD125">
+        <v>2.54</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>1.69</v>
+      </c>
+      <c r="BG125">
+        <v>1.31</v>
+      </c>
+      <c r="BH125">
+        <v>3.15</v>
+      </c>
+      <c r="BI125">
+        <v>1.55</v>
+      </c>
+      <c r="BJ125">
+        <v>2.29</v>
+      </c>
+      <c r="BK125">
+        <v>1.92</v>
+      </c>
+      <c r="BL125">
+        <v>1.79</v>
+      </c>
+      <c r="BM125">
+        <v>2.47</v>
+      </c>
+      <c r="BN125">
+        <v>1.48</v>
+      </c>
+      <c r="BO125">
+        <v>3.3</v>
+      </c>
+      <c r="BP125">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,9 +550,6 @@
     <t>['11', '77', '79', '90+6']</t>
   </si>
   <si>
-    <t>['45+7', '51', '90+6']</t>
-  </si>
-  <si>
     <t>['13', '37', '64']</t>
   </si>
   <si>
@@ -731,9 +728,6 @@
   </si>
   <si>
     <t>['10', '49', '85']</t>
-  </si>
-  <si>
-    <t>['13', '45+1', '54']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1348,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1641,7 +1635,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1766,7 +1760,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1844,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2590,7 +2584,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2668,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2877,7 +2871,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3002,7 +2996,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3620,7 +3614,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4110,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>0.43</v>
@@ -4238,7 +4232,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4444,7 +4438,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4937,7 +4931,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5062,7 +5056,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5268,7 +5262,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5474,7 +5468,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5758,10 +5752,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5886,7 +5880,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5964,7 +5958,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6092,7 +6086,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6298,7 +6292,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6585,7 +6579,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6710,7 +6704,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6997,7 +6991,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ29">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR29">
         <v>1.48</v>
@@ -8024,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8152,7 +8146,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8358,7 +8352,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8564,7 +8558,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8770,7 +8764,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8851,7 +8845,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8976,7 +8970,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9260,7 +9254,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9388,7 +9382,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9594,7 +9588,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9672,7 +9666,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ42">
         <v>0.71</v>
@@ -9800,7 +9794,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10084,10 +10078,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10418,7 +10412,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10499,7 +10493,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10702,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AQ47">
         <v>0.43</v>
@@ -11529,7 +11523,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -11860,7 +11854,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11938,7 +11932,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12066,7 +12060,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12272,7 +12266,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12559,7 +12553,7 @@
         <v>3</v>
       </c>
       <c r="AQ56">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR56">
         <v>1.76</v>
@@ -12684,7 +12678,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12890,7 +12884,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13096,7 +13090,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13174,7 +13168,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13302,7 +13296,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13383,7 +13377,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ60">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13714,7 +13708,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13920,7 +13914,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14126,7 +14120,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14822,7 +14816,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14950,7 +14944,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15156,7 +15150,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15362,7 +15356,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15440,10 +15434,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -15568,7 +15562,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15774,7 +15768,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15980,7 +15974,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16061,7 +16055,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ73">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -16186,7 +16180,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16392,7 +16386,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16598,7 +16592,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17088,7 +17082,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>1.17</v>
@@ -17216,7 +17210,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17297,7 +17291,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ79">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR79">
         <v>1.66</v>
@@ -17422,7 +17416,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17628,7 +17622,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18118,7 +18112,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18452,7 +18446,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18658,7 +18652,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18739,7 +18733,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR86">
         <v>1.88</v>
@@ -19276,7 +19270,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19482,7 +19476,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19560,7 +19554,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19894,7 +19888,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20512,7 +20506,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20718,7 +20712,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20796,10 +20790,10 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AQ96">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR96">
         <v>1.65</v>
@@ -21130,7 +21124,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21417,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR99">
         <v>1.8</v>
@@ -21542,7 +21536,7 @@
         <v>165</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>2.25</v>
@@ -21623,7 +21617,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22160,7 +22154,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22241,7 +22235,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR103">
         <v>1.26</v>
@@ -22444,7 +22438,7 @@
         <v>0.6</v>
       </c>
       <c r="AP104">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ104">
         <v>0.43</v>
@@ -22856,7 +22850,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23190,7 +23184,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -24014,7 +24008,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24426,7 +24420,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24838,7 +24832,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25217,7 +25211,7 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45617.875</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F118">
         <v>14</v>
@@ -25250,7 +25244,7 @@
         <v>177</v>
       </c>
       <c r="P118" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q118">
         <v>2.75</v>
@@ -25343,22 +25337,22 @@
         <v>2.68</v>
       </c>
       <c r="AU118">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW118">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX118">
         <v>2</v>
       </c>
       <c r="AY118">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="AZ118">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA118">
         <v>6</v>
@@ -25423,7 +25417,7 @@
         <v>69</v>
       </c>
       <c r="E119" s="2">
-        <v>45617.875</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F119">
         <v>14</v>
@@ -25456,7 +25450,7 @@
         <v>90</v>
       </c>
       <c r="P119" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -25552,19 +25546,19 @@
         <v>4</v>
       </c>
       <c r="AV119">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AW119">
         <v>4</v>
       </c>
       <c r="AX119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY119">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ119">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BA119">
         <v>7</v>
@@ -25620,7 +25614,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7468986</v>
+        <v>7468987</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25629,196 +25623,196 @@
         <v>69</v>
       </c>
       <c r="E120" s="2">
-        <v>45617.875</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F120">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H120" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L120">
         <v>3</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N120">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O120" t="s">
         <v>178</v>
       </c>
       <c r="P120" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="Q120">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R120">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S120">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="T120">
+        <v>1.44</v>
+      </c>
+      <c r="U120">
+        <v>2.63</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>1.36</v>
+      </c>
+      <c r="X120">
+        <v>9</v>
+      </c>
+      <c r="Y120">
+        <v>1.07</v>
+      </c>
+      <c r="Z120">
+        <v>1.9</v>
+      </c>
+      <c r="AA120">
+        <v>3.4</v>
+      </c>
+      <c r="AB120">
+        <v>4</v>
+      </c>
+      <c r="AC120">
+        <v>1.06</v>
+      </c>
+      <c r="AD120">
+        <v>8.5</v>
+      </c>
+      <c r="AE120">
         <v>1.33</v>
       </c>
-      <c r="U120">
-        <v>3.25</v>
-      </c>
-      <c r="V120">
-        <v>2.63</v>
-      </c>
-      <c r="W120">
-        <v>1.44</v>
-      </c>
-      <c r="X120">
-        <v>6.5</v>
-      </c>
-      <c r="Y120">
-        <v>1.11</v>
-      </c>
-      <c r="Z120">
-        <v>2.2</v>
-      </c>
-      <c r="AA120">
-        <v>3.5</v>
-      </c>
-      <c r="AB120">
-        <v>3</v>
-      </c>
-      <c r="AC120">
-        <v>1.05</v>
-      </c>
-      <c r="AD120">
-        <v>9.5</v>
-      </c>
-      <c r="AE120">
-        <v>1.22</v>
-      </c>
       <c r="AF120">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="AG120">
-        <v>1.68</v>
+        <v>2.05</v>
       </c>
       <c r="AH120">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="AI120">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AJ120">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="AK120">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AL120">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM120">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="AN120">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="AO120">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
-        <v>1.13</v>
+        <v>0.43</v>
       </c>
       <c r="AR120">
-        <v>1.35</v>
+        <v>1.78</v>
       </c>
       <c r="AS120">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AT120">
-        <v>2.61</v>
+        <v>3.02</v>
       </c>
       <c r="AU120">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AV120">
         <v>6</v>
       </c>
       <c r="AW120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX120">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY120">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ120">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA120">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB120">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC120">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BD120">
-        <v>1.82</v>
+        <v>1.55</v>
       </c>
       <c r="BE120">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF120">
-        <v>2.39</v>
+        <v>3.01</v>
       </c>
       <c r="BG120">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH120">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI120">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="BJ120">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="BK120">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="BL120">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="BM120">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="BN120">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="BO120">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="BP120">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -25826,7 +25820,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7468987</v>
+        <v>7468984</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25835,49 +25829,49 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45617.875</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F121">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G121" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H121" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121">
         <v>0</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M121">
         <v>0</v>
       </c>
       <c r="N121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="P121" t="s">
         <v>90</v>
       </c>
       <c r="Q121">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R121">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T121">
         <v>1.44</v>
@@ -25886,43 +25880,43 @@
         <v>2.63</v>
       </c>
       <c r="V121">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W121">
+        <v>1.33</v>
+      </c>
+      <c r="X121">
+        <v>10</v>
+      </c>
+      <c r="Y121">
+        <v>1.06</v>
+      </c>
+      <c r="Z121">
+        <v>2.1</v>
+      </c>
+      <c r="AA121">
+        <v>3.25</v>
+      </c>
+      <c r="AB121">
+        <v>3.5</v>
+      </c>
+      <c r="AC121">
+        <v>1.07</v>
+      </c>
+      <c r="AD121">
+        <v>8</v>
+      </c>
+      <c r="AE121">
         <v>1.36</v>
       </c>
-      <c r="X121">
-        <v>9</v>
-      </c>
-      <c r="Y121">
-        <v>1.07</v>
-      </c>
-      <c r="Z121">
-        <v>1.9</v>
-      </c>
-      <c r="AA121">
-        <v>3.4</v>
-      </c>
-      <c r="AB121">
-        <v>4</v>
-      </c>
-      <c r="AC121">
-        <v>1.06</v>
-      </c>
-      <c r="AD121">
-        <v>8.5</v>
-      </c>
-      <c r="AE121">
-        <v>1.33</v>
-      </c>
       <c r="AF121">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="AG121">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AH121">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AI121">
         <v>1.83</v>
@@ -25931,97 +25925,97 @@
         <v>1.83</v>
       </c>
       <c r="AK121">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL121">
         <v>1.25</v>
       </c>
       <c r="AM121">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AN121">
-        <v>1.86</v>
+        <v>1.17</v>
       </c>
       <c r="AO121">
         <v>0.5</v>
       </c>
       <c r="AP121">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121">
-        <v>0.43</v>
+        <v>0.57</v>
       </c>
       <c r="AR121">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="AS121">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AT121">
-        <v>3.02</v>
+        <v>2.69</v>
       </c>
       <c r="AU121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV121">
         <v>5</v>
       </c>
       <c r="AW121">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
         <v>8</v>
       </c>
-      <c r="AY121">
-        <v>15</v>
-      </c>
       <c r="AZ121">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="BA121">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB121">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC121">
+        <v>9</v>
+      </c>
+      <c r="BD121">
+        <v>1.75</v>
+      </c>
+      <c r="BE121">
         <v>8</v>
       </c>
-      <c r="BD121">
-        <v>1.55</v>
-      </c>
-      <c r="BE121">
-        <v>8.5</v>
-      </c>
       <c r="BF121">
-        <v>3.01</v>
+        <v>2.42</v>
       </c>
       <c r="BG121">
         <v>1.3</v>
       </c>
       <c r="BH121">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="BI121">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="BJ121">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="BK121">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BL121">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BM121">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="BN121">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BO121">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="BP121">
         <v>1.26</v>
@@ -26032,7 +26026,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7468984</v>
+        <v>7468985</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26041,61 +26035,61 @@
         <v>69</v>
       </c>
       <c r="E122" s="2">
-        <v>45617.875</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H122" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O122" t="s">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="Q122">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="R122">
         <v>2.05</v>
       </c>
       <c r="S122">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T122">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U122">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V122">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W122">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>10</v>
@@ -26104,103 +26098,103 @@
         <v>1.06</v>
       </c>
       <c r="Z122">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="AA122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AB122">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="AC122">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD122">
+        <v>7.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.38</v>
+      </c>
+      <c r="AF122">
+        <v>2.9</v>
+      </c>
+      <c r="AG122">
+        <v>2.23</v>
+      </c>
+      <c r="AH122">
+        <v>1.62</v>
+      </c>
+      <c r="AI122">
+        <v>1.91</v>
+      </c>
+      <c r="AJ122">
+        <v>1.8</v>
+      </c>
+      <c r="AK122">
+        <v>1.7</v>
+      </c>
+      <c r="AL122">
+        <v>1.28</v>
+      </c>
+      <c r="AM122">
+        <v>1.28</v>
+      </c>
+      <c r="AN122">
+        <v>1.14</v>
+      </c>
+      <c r="AO122">
+        <v>1.5</v>
+      </c>
+      <c r="AP122">
+        <v>1.13</v>
+      </c>
+      <c r="AQ122">
+        <v>1.43</v>
+      </c>
+      <c r="AR122">
+        <v>1.24</v>
+      </c>
+      <c r="AS122">
+        <v>1.43</v>
+      </c>
+      <c r="AT122">
+        <v>2.67</v>
+      </c>
+      <c r="AU122">
+        <v>3</v>
+      </c>
+      <c r="AV122">
+        <v>4</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>5</v>
+      </c>
+      <c r="AY122">
         <v>8</v>
       </c>
-      <c r="AE122">
-        <v>1.36</v>
-      </c>
-      <c r="AF122">
-        <v>2.95</v>
-      </c>
-      <c r="AG122">
-        <v>2.1</v>
-      </c>
-      <c r="AH122">
-        <v>1.68</v>
-      </c>
-      <c r="AI122">
-        <v>1.83</v>
-      </c>
-      <c r="AJ122">
-        <v>1.83</v>
-      </c>
-      <c r="AK122">
-        <v>1.3</v>
-      </c>
-      <c r="AL122">
-        <v>1.25</v>
-      </c>
-      <c r="AM122">
-        <v>1.7</v>
-      </c>
-      <c r="AN122">
-        <v>1.17</v>
-      </c>
-      <c r="AO122">
-        <v>0.5</v>
-      </c>
-      <c r="AP122">
-        <v>1.14</v>
-      </c>
-      <c r="AQ122">
-        <v>0.57</v>
-      </c>
-      <c r="AR122">
-        <v>1.46</v>
-      </c>
-      <c r="AS122">
-        <v>1.23</v>
-      </c>
-      <c r="AT122">
-        <v>2.69</v>
-      </c>
-      <c r="AU122">
-        <v>3</v>
-      </c>
-      <c r="AV122">
-        <v>6</v>
-      </c>
-      <c r="AW122">
-        <v>6</v>
-      </c>
-      <c r="AX122">
-        <v>2</v>
-      </c>
-      <c r="AY122">
-        <v>12</v>
-      </c>
       <c r="AZ122">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA122">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC122">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD122">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="BE122">
         <v>8</v>
       </c>
       <c r="BF122">
-        <v>2.42</v>
+        <v>1.82</v>
       </c>
       <c r="BG122">
         <v>1.3</v>
@@ -26238,7 +26232,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7468985</v>
+        <v>7468988</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26247,196 +26241,196 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45617.875</v>
+        <v>45619.41666666666</v>
       </c>
       <c r="F123">
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H123" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O123" t="s">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="P123" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="Q123">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S123">
-        <v>2.88</v>
+        <v>5.5</v>
       </c>
       <c r="T123">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="U123">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V123">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W123">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X123">
+        <v>7</v>
+      </c>
+      <c r="Y123">
+        <v>1.1</v>
+      </c>
+      <c r="Z123">
+        <v>1.53</v>
+      </c>
+      <c r="AA123">
+        <v>3.68</v>
+      </c>
+      <c r="AB123">
+        <v>5.03</v>
+      </c>
+      <c r="AC123">
+        <v>1.05</v>
+      </c>
+      <c r="AD123">
+        <v>9.5</v>
+      </c>
+      <c r="AE123">
+        <v>1.25</v>
+      </c>
+      <c r="AF123">
+        <v>3.75</v>
+      </c>
+      <c r="AG123">
+        <v>1.84</v>
+      </c>
+      <c r="AH123">
+        <v>2</v>
+      </c>
+      <c r="AI123">
+        <v>1.83</v>
+      </c>
+      <c r="AJ123">
+        <v>1.83</v>
+      </c>
+      <c r="AK123">
+        <v>1.11</v>
+      </c>
+      <c r="AL123">
+        <v>1.18</v>
+      </c>
+      <c r="AM123">
+        <v>2.3</v>
+      </c>
+      <c r="AN123">
+        <v>2.17</v>
+      </c>
+      <c r="AO123">
+        <v>1</v>
+      </c>
+      <c r="AP123">
+        <v>2</v>
+      </c>
+      <c r="AQ123">
+        <v>1</v>
+      </c>
+      <c r="AR123">
+        <v>1.79</v>
+      </c>
+      <c r="AS123">
+        <v>1.31</v>
+      </c>
+      <c r="AT123">
+        <v>3.1</v>
+      </c>
+      <c r="AU123">
+        <v>2</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>1</v>
+      </c>
+      <c r="AX123">
+        <v>5</v>
+      </c>
+      <c r="AY123">
+        <v>3</v>
+      </c>
+      <c r="AZ123">
+        <v>8</v>
+      </c>
+      <c r="BA123">
+        <v>3</v>
+      </c>
+      <c r="BB123">
+        <v>7</v>
+      </c>
+      <c r="BC123">
         <v>10</v>
       </c>
-      <c r="Y123">
-        <v>1.06</v>
-      </c>
-      <c r="Z123">
-        <v>3.7</v>
-      </c>
-      <c r="AA123">
+      <c r="BD123">
+        <v>1.41</v>
+      </c>
+      <c r="BE123">
+        <v>8.5</v>
+      </c>
+      <c r="BF123">
+        <v>3.5</v>
+      </c>
+      <c r="BG123">
+        <v>1.32</v>
+      </c>
+      <c r="BH123">
         <v>3.2</v>
       </c>
-      <c r="AB123">
-        <v>2.05</v>
-      </c>
-      <c r="AC123">
-        <v>1.08</v>
-      </c>
-      <c r="AD123">
-        <v>7.5</v>
-      </c>
-      <c r="AE123">
-        <v>1.38</v>
-      </c>
-      <c r="AF123">
-        <v>2.9</v>
-      </c>
-      <c r="AG123">
-        <v>2.23</v>
-      </c>
-      <c r="AH123">
-        <v>1.62</v>
-      </c>
-      <c r="AI123">
-        <v>1.91</v>
-      </c>
-      <c r="AJ123">
-        <v>1.8</v>
-      </c>
-      <c r="AK123">
-        <v>1.7</v>
-      </c>
-      <c r="AL123">
-        <v>1.28</v>
-      </c>
-      <c r="AM123">
-        <v>1.28</v>
-      </c>
-      <c r="AN123">
-        <v>1.14</v>
-      </c>
-      <c r="AO123">
-        <v>1.5</v>
-      </c>
-      <c r="AP123">
-        <v>1.13</v>
-      </c>
-      <c r="AQ123">
+      <c r="BI123">
+        <v>1.58</v>
+      </c>
+      <c r="BJ123">
+        <v>2.28</v>
+      </c>
+      <c r="BK123">
+        <v>2.02</v>
+      </c>
+      <c r="BL123">
+        <v>1.74</v>
+      </c>
+      <c r="BM123">
+        <v>2.7</v>
+      </c>
+      <c r="BN123">
         <v>1.43</v>
       </c>
-      <c r="AR123">
+      <c r="BO123">
+        <v>3.75</v>
+      </c>
+      <c r="BP123">
         <v>1.24</v>
-      </c>
-      <c r="AS123">
-        <v>1.43</v>
-      </c>
-      <c r="AT123">
-        <v>2.67</v>
-      </c>
-      <c r="AU123">
-        <v>5</v>
-      </c>
-      <c r="AV123">
-        <v>5</v>
-      </c>
-      <c r="AW123">
-        <v>7</v>
-      </c>
-      <c r="AX123">
-        <v>4</v>
-      </c>
-      <c r="AY123">
-        <v>15</v>
-      </c>
-      <c r="AZ123">
-        <v>11</v>
-      </c>
-      <c r="BA123">
-        <v>7</v>
-      </c>
-      <c r="BB123">
-        <v>2</v>
-      </c>
-      <c r="BC123">
-        <v>9</v>
-      </c>
-      <c r="BD123">
-        <v>2.33</v>
-      </c>
-      <c r="BE123">
-        <v>8</v>
-      </c>
-      <c r="BF123">
-        <v>1.82</v>
-      </c>
-      <c r="BG123">
-        <v>1.3</v>
-      </c>
-      <c r="BH123">
-        <v>3.35</v>
-      </c>
-      <c r="BI123">
-        <v>1.55</v>
-      </c>
-      <c r="BJ123">
-        <v>2.38</v>
-      </c>
-      <c r="BK123">
-        <v>1.98</v>
-      </c>
-      <c r="BL123">
-        <v>1.82</v>
-      </c>
-      <c r="BM123">
-        <v>2.6</v>
-      </c>
-      <c r="BN123">
-        <v>1.46</v>
-      </c>
-      <c r="BO123">
-        <v>3.6</v>
-      </c>
-      <c r="BP123">
-        <v>1.26</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26444,7 +26438,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7468988</v>
+        <v>7468989</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26453,402 +26447,196 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45618.875</v>
+        <v>45620.875</v>
       </c>
       <c r="F124">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G124" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H124" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
       <c r="N124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="P124" t="s">
         <v>90</v>
       </c>
       <c r="Q124">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>4.75</v>
+      </c>
+      <c r="T124">
+        <v>1.53</v>
+      </c>
+      <c r="U124">
+        <v>2.38</v>
+      </c>
+      <c r="V124">
+        <v>3.5</v>
+      </c>
+      <c r="W124">
+        <v>1.29</v>
+      </c>
+      <c r="X124">
+        <v>11</v>
+      </c>
+      <c r="Y124">
+        <v>1.05</v>
+      </c>
+      <c r="Z124">
+        <v>1.85</v>
+      </c>
+      <c r="AA124">
+        <v>3.1</v>
+      </c>
+      <c r="AB124">
+        <v>3.85</v>
+      </c>
+      <c r="AC124">
+        <v>1.09</v>
+      </c>
+      <c r="AD124">
+        <v>7</v>
+      </c>
+      <c r="AE124">
+        <v>1.44</v>
+      </c>
+      <c r="AF124">
+        <v>2.65</v>
+      </c>
+      <c r="AG124">
         <v>2.25</v>
       </c>
-      <c r="S124">
-        <v>5.5</v>
-      </c>
-      <c r="T124">
-        <v>1.36</v>
-      </c>
-      <c r="U124">
-        <v>3</v>
-      </c>
-      <c r="V124">
-        <v>2.75</v>
-      </c>
-      <c r="W124">
-        <v>1.4</v>
-      </c>
-      <c r="X124">
+      <c r="AH124">
+        <v>1.57</v>
+      </c>
+      <c r="AI124">
+        <v>2.1</v>
+      </c>
+      <c r="AJ124">
+        <v>1.67</v>
+      </c>
+      <c r="AK124">
+        <v>1.25</v>
+      </c>
+      <c r="AL124">
+        <v>1.28</v>
+      </c>
+      <c r="AM124">
+        <v>1.78</v>
+      </c>
+      <c r="AN124">
+        <v>2.57</v>
+      </c>
+      <c r="AO124">
+        <v>0.17</v>
+      </c>
+      <c r="AP124">
+        <v>2.63</v>
+      </c>
+      <c r="AQ124">
+        <v>0.14</v>
+      </c>
+      <c r="AR124">
+        <v>1.58</v>
+      </c>
+      <c r="AS124">
+        <v>1.1</v>
+      </c>
+      <c r="AT124">
+        <v>2.68</v>
+      </c>
+      <c r="AU124">
         <v>7</v>
       </c>
-      <c r="Y124">
-        <v>1.1</v>
-      </c>
-      <c r="Z124">
-        <v>1.53</v>
-      </c>
-      <c r="AA124">
-        <v>3.68</v>
-      </c>
-      <c r="AB124">
-        <v>5.03</v>
-      </c>
-      <c r="AC124">
-        <v>1.05</v>
-      </c>
-      <c r="AD124">
-        <v>9.5</v>
-      </c>
-      <c r="AE124">
-        <v>1.25</v>
-      </c>
-      <c r="AF124">
-        <v>3.75</v>
-      </c>
-      <c r="AG124">
-        <v>1.84</v>
-      </c>
-      <c r="AH124">
-        <v>2</v>
-      </c>
-      <c r="AI124">
-        <v>1.83</v>
-      </c>
-      <c r="AJ124">
-        <v>1.83</v>
-      </c>
-      <c r="AK124">
-        <v>1.11</v>
-      </c>
-      <c r="AL124">
-        <v>1.18</v>
-      </c>
-      <c r="AM124">
-        <v>2.3</v>
-      </c>
-      <c r="AN124">
-        <v>2.17</v>
-      </c>
-      <c r="AO124">
-        <v>1</v>
-      </c>
-      <c r="AP124">
-        <v>2</v>
-      </c>
-      <c r="AQ124">
-        <v>1</v>
-      </c>
-      <c r="AR124">
-        <v>1.79</v>
-      </c>
-      <c r="AS124">
-        <v>1.31</v>
-      </c>
-      <c r="AT124">
-        <v>3.1</v>
-      </c>
-      <c r="AU124">
-        <v>0</v>
-      </c>
       <c r="AV124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW124">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX124">
+        <v>1</v>
+      </c>
+      <c r="AY124">
+        <v>21</v>
+      </c>
+      <c r="AZ124">
+        <v>3</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
         <v>8</v>
       </c>
-      <c r="AY124">
-        <v>4</v>
-      </c>
-      <c r="AZ124">
-        <v>17</v>
-      </c>
-      <c r="BA124">
-        <v>3</v>
-      </c>
-      <c r="BB124">
-        <v>7</v>
-      </c>
-      <c r="BC124">
-        <v>10</v>
-      </c>
       <c r="BD124">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="BE124">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF124">
-        <v>3.5</v>
+        <v>2.67</v>
       </c>
       <c r="BG124">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="BH124">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="BI124">
+        <v>1.75</v>
+      </c>
+      <c r="BJ124">
+        <v>1.96</v>
+      </c>
+      <c r="BK124">
+        <v>2.24</v>
+      </c>
+      <c r="BL124">
         <v>1.58</v>
       </c>
-      <c r="BJ124">
-        <v>2.28</v>
-      </c>
-      <c r="BK124">
-        <v>2.02</v>
-      </c>
-      <c r="BL124">
-        <v>1.74</v>
-      </c>
       <c r="BM124">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="BN124">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="BO124">
-        <v>3.75</v>
+        <v>3.88</v>
       </c>
       <c r="BP124">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:68">
-      <c r="A125" s="1">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>7468983</v>
-      </c>
-      <c r="C125" t="s">
-        <v>68</v>
-      </c>
-      <c r="D125" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" s="2">
-        <v>45618.875</v>
-      </c>
-      <c r="F125">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>83</v>
-      </c>
-      <c r="H125" t="s">
-        <v>86</v>
-      </c>
-      <c r="I125">
-        <v>0</v>
-      </c>
-      <c r="J125">
-        <v>0</v>
-      </c>
-      <c r="K125">
-        <v>0</v>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>0</v>
-      </c>
-      <c r="O125" t="s">
-        <v>90</v>
-      </c>
-      <c r="P125" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q125">
-        <v>3.75</v>
-      </c>
-      <c r="R125">
-        <v>2.1</v>
-      </c>
-      <c r="S125">
-        <v>2.88</v>
-      </c>
-      <c r="T125">
-        <v>1.4</v>
-      </c>
-      <c r="U125">
-        <v>2.75</v>
-      </c>
-      <c r="V125">
-        <v>3</v>
-      </c>
-      <c r="W125">
-        <v>1.36</v>
-      </c>
-      <c r="X125">
-        <v>8</v>
-      </c>
-      <c r="Y125">
-        <v>1.08</v>
-      </c>
-      <c r="Z125">
-        <v>3.04</v>
-      </c>
-      <c r="AA125">
-        <v>3.19</v>
-      </c>
-      <c r="AB125">
-        <v>2.05</v>
-      </c>
-      <c r="AC125">
-        <v>1.05</v>
-      </c>
-      <c r="AD125">
-        <v>9.5</v>
-      </c>
-      <c r="AE125">
-        <v>1.3</v>
-      </c>
-      <c r="AF125">
-        <v>3.3</v>
-      </c>
-      <c r="AG125">
-        <v>1.88</v>
-      </c>
-      <c r="AH125">
-        <v>1.96</v>
-      </c>
-      <c r="AI125">
-        <v>1.8</v>
-      </c>
-      <c r="AJ125">
-        <v>1.91</v>
-      </c>
-      <c r="AK125">
-        <v>1.66</v>
-      </c>
-      <c r="AL125">
-        <v>1.25</v>
-      </c>
-      <c r="AM125">
-        <v>1.35</v>
-      </c>
-      <c r="AN125">
-        <v>1.67</v>
-      </c>
-      <c r="AO125">
-        <v>1.14</v>
-      </c>
-      <c r="AP125">
-        <v>1.57</v>
-      </c>
-      <c r="AQ125">
-        <v>1.13</v>
-      </c>
-      <c r="AR125">
-        <v>1.66</v>
-      </c>
-      <c r="AS125">
-        <v>1.47</v>
-      </c>
-      <c r="AT125">
-        <v>3.13</v>
-      </c>
-      <c r="AU125">
-        <v>2</v>
-      </c>
-      <c r="AV125">
-        <v>8</v>
-      </c>
-      <c r="AW125">
-        <v>3</v>
-      </c>
-      <c r="AX125">
-        <v>6</v>
-      </c>
-      <c r="AY125">
-        <v>9</v>
-      </c>
-      <c r="AZ125">
-        <v>18</v>
-      </c>
-      <c r="BA125">
-        <v>6</v>
-      </c>
-      <c r="BB125">
-        <v>5</v>
-      </c>
-      <c r="BC125">
-        <v>11</v>
-      </c>
-      <c r="BD125">
-        <v>2.54</v>
-      </c>
-      <c r="BE125">
-        <v>8</v>
-      </c>
-      <c r="BF125">
-        <v>1.69</v>
-      </c>
-      <c r="BG125">
-        <v>1.31</v>
-      </c>
-      <c r="BH125">
-        <v>3.15</v>
-      </c>
-      <c r="BI125">
-        <v>1.55</v>
-      </c>
-      <c r="BJ125">
-        <v>2.29</v>
-      </c>
-      <c r="BK125">
-        <v>1.92</v>
-      </c>
-      <c r="BL125">
-        <v>1.79</v>
-      </c>
-      <c r="BM125">
-        <v>2.47</v>
-      </c>
-      <c r="BN125">
-        <v>1.48</v>
-      </c>
-      <c r="BO125">
-        <v>3.3</v>
-      </c>
-      <c r="BP125">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,13 +511,13 @@
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['34', '53', '67']</t>
+    <t>['20', '45+2', '85']</t>
   </si>
   <si>
     <t>['45', '76']</t>
   </si>
   <si>
-    <t>['20', '45+2', '85']</t>
+    <t>['34', '53', '67']</t>
   </si>
   <si>
     <t>['5', '89']</t>
@@ -547,13 +547,16 @@
     <t>['26']</t>
   </si>
   <si>
-    <t>['11', '77', '79', '90+6']</t>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['45+4', '51', '90+6']</t>
   </si>
   <si>
     <t>['13', '37', '64']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['11', '77', '79', '90+6']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -712,10 +715,10 @@
     <t>['69', '90+1', '90+5']</t>
   </si>
   <si>
-    <t>['10', '37', '48']</t>
+    <t>['81']</t>
   </si>
   <si>
-    <t>['81']</t>
+    <t>['10', '37', '48']</t>
   </si>
   <si>
     <t>['14', '90+4']</t>
@@ -728,6 +731,9 @@
   </si>
   <si>
     <t>['10', '49', '85']</t>
+  </si>
+  <si>
+    <t>['13', '45+1', '54']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1354,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1635,7 +1641,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1760,7 +1766,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2584,7 +2590,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2662,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2871,7 +2877,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ9">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2996,7 +3002,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3614,7 +3620,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4104,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15">
         <v>0.43</v>
@@ -4232,7 +4238,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4438,7 +4444,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5056,7 +5062,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5262,7 +5268,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5468,7 +5474,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5755,7 +5761,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ23">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5880,7 +5886,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -5958,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6086,7 +6092,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6292,7 +6298,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6579,7 +6585,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6704,7 +6710,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -8018,7 +8024,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8146,7 +8152,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8352,7 +8358,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8558,7 +8564,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8764,7 +8770,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8845,7 +8851,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8970,7 +8976,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9254,7 +9260,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9382,7 +9388,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9588,7 +9594,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9794,7 +9800,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10078,7 +10084,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
         <v>0.14</v>
@@ -10412,7 +10418,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10493,7 +10499,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ46">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10696,7 +10702,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>0.43</v>
@@ -11523,7 +11529,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -11854,7 +11860,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12060,7 +12066,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12266,7 +12272,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12678,7 +12684,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12884,7 +12890,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13090,7 +13096,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13168,7 +13174,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13296,7 +13302,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13377,7 +13383,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ60">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13708,7 +13714,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13914,7 +13920,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14120,7 +14126,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14944,7 +14950,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15150,7 +15156,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15356,7 +15362,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15434,10 +15440,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -15562,7 +15568,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15768,7 +15774,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15974,7 +15980,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16055,7 +16061,7 @@
         <v>0.13</v>
       </c>
       <c r="AQ73">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -16180,7 +16186,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16386,7 +16392,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16592,7 +16598,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17082,7 +17088,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ78">
         <v>1.17</v>
@@ -17210,7 +17216,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17416,7 +17422,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17622,7 +17628,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18446,7 +18452,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18652,7 +18658,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18733,7 +18739,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.88</v>
@@ -19270,7 +19276,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19476,7 +19482,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19554,7 +19560,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19888,7 +19894,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20506,7 +20512,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20712,7 +20718,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20790,10 +20796,10 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ96">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR96">
         <v>1.65</v>
@@ -21124,7 +21130,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21494,7 +21500,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7468969</v>
+        <v>7468972</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21506,193 +21512,193 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G100" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H100" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L100">
         <v>3</v>
       </c>
       <c r="M100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O100" t="s">
         <v>165</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>95</v>
       </c>
       <c r="Q100">
+        <v>2.75</v>
+      </c>
+      <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
+        <v>3.95</v>
+      </c>
+      <c r="T100">
+        <v>1.45</v>
+      </c>
+      <c r="U100">
+        <v>2.55</v>
+      </c>
+      <c r="V100">
+        <v>3.1</v>
+      </c>
+      <c r="W100">
+        <v>1.33</v>
+      </c>
+      <c r="X100">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y100">
+        <v>1.03</v>
+      </c>
+      <c r="Z100">
         <v>2.25</v>
       </c>
-      <c r="R100">
-        <v>2.2</v>
-      </c>
-      <c r="S100">
-        <v>4.5</v>
-      </c>
-      <c r="T100">
+      <c r="AA100">
+        <v>3</v>
+      </c>
+      <c r="AB100">
+        <v>2.9</v>
+      </c>
+      <c r="AC100">
+        <v>1.07</v>
+      </c>
+      <c r="AD100">
+        <v>8</v>
+      </c>
+      <c r="AE100">
         <v>1.36</v>
       </c>
-      <c r="U100">
-        <v>2.9</v>
-      </c>
-      <c r="V100">
-        <v>2.62</v>
-      </c>
-      <c r="W100">
-        <v>1.42</v>
-      </c>
-      <c r="X100">
-        <v>6.8</v>
-      </c>
-      <c r="Y100">
-        <v>1.07</v>
-      </c>
-      <c r="Z100">
-        <v>1.75</v>
-      </c>
-      <c r="AA100">
-        <v>3.5</v>
-      </c>
-      <c r="AB100">
-        <v>3.8</v>
-      </c>
-      <c r="AC100">
-        <v>1.05</v>
-      </c>
-      <c r="AD100">
-        <v>9.5</v>
-      </c>
-      <c r="AE100">
+      <c r="AF100">
+        <v>3.1</v>
+      </c>
+      <c r="AG100">
+        <v>2.1</v>
+      </c>
+      <c r="AH100">
+        <v>1.61</v>
+      </c>
+      <c r="AI100">
+        <v>1.83</v>
+      </c>
+      <c r="AJ100">
+        <v>1.83</v>
+      </c>
+      <c r="AK100">
         <v>1.28</v>
       </c>
-      <c r="AF100">
-        <v>3.65</v>
-      </c>
-      <c r="AG100">
-        <v>1.75</v>
-      </c>
-      <c r="AH100">
-        <v>1.85</v>
-      </c>
-      <c r="AI100">
-        <v>1.73</v>
-      </c>
-      <c r="AJ100">
-        <v>1.95</v>
-      </c>
-      <c r="AK100">
+      <c r="AL100">
+        <v>1.28</v>
+      </c>
+      <c r="AM100">
+        <v>1.7</v>
+      </c>
+      <c r="AN100">
+        <v>2.5</v>
+      </c>
+      <c r="AO100">
+        <v>0.6</v>
+      </c>
+      <c r="AP100">
+        <v>2.63</v>
+      </c>
+      <c r="AQ100">
+        <v>0.43</v>
+      </c>
+      <c r="AR100">
+        <v>1.57</v>
+      </c>
+      <c r="AS100">
         <v>1.18</v>
       </c>
-      <c r="AL100">
-        <v>1.22</v>
-      </c>
-      <c r="AM100">
-        <v>2.05</v>
-      </c>
-      <c r="AN100">
-        <v>2.4</v>
-      </c>
-      <c r="AO100">
-        <v>1.17</v>
-      </c>
-      <c r="AP100">
-        <v>2</v>
-      </c>
-      <c r="AQ100">
-        <v>1.14</v>
-      </c>
-      <c r="AR100">
-        <v>1.78</v>
-      </c>
-      <c r="AS100">
-        <v>1.19</v>
-      </c>
       <c r="AT100">
-        <v>2.97</v>
+        <v>2.75</v>
       </c>
       <c r="AU100">
         <v>8</v>
       </c>
       <c r="AV100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX100">
         <v>4</v>
       </c>
       <c r="AY100">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ100">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA100">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BB100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC100">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BD100">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="BE100">
-        <v>7.5</v>
+        <v>6.65</v>
       </c>
       <c r="BF100">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="BG100">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH100">
-        <v>3.66</v>
+        <v>3.14</v>
       </c>
       <c r="BI100">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BJ100">
-        <v>2.64</v>
+        <v>2.35</v>
       </c>
       <c r="BK100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="BL100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="BM100">
-        <v>2.17</v>
+        <v>2.42</v>
       </c>
       <c r="BN100">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="BO100">
-        <v>2.82</v>
+        <v>3.22</v>
       </c>
       <c r="BP100">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -22235,7 +22241,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR103">
         <v>1.26</v>
@@ -22318,7 +22324,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7468972</v>
+        <v>7468969</v>
       </c>
       <c r="C104" t="s">
         <v>68</v>
@@ -22330,193 +22336,193 @@
         <v>45597.66666666666</v>
       </c>
       <c r="F104">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H104" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L104">
         <v>3</v>
       </c>
       <c r="M104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O104" t="s">
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>95</v>
+        <v>234</v>
       </c>
       <c r="Q104">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S104">
-        <v>3.95</v>
+        <v>4.5</v>
       </c>
       <c r="T104">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="U104">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="V104">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="W104">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="X104">
-        <v>8.699999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="Y104">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="Z104">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="AA104">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="AB104">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AC104">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD104">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE104">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AF104">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="AG104">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AH104">
-        <v>1.61</v>
+        <v>1.85</v>
       </c>
       <c r="AI104">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="AJ104">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AK104">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AL104">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM104">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AN104">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO104">
-        <v>0.6</v>
+        <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AQ104">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="AR104">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AS104">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AT104">
-        <v>2.75</v>
+        <v>2.97</v>
       </c>
       <c r="AU104">
         <v>8</v>
       </c>
       <c r="AV104">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX104">
         <v>4</v>
       </c>
       <c r="AY104">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ104">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA104">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC104">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD104">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="BE104">
-        <v>6.65</v>
+        <v>7.5</v>
       </c>
       <c r="BF104">
-        <v>2.88</v>
+        <v>3.9</v>
       </c>
       <c r="BG104">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="BH104">
-        <v>3.14</v>
+        <v>3.66</v>
       </c>
       <c r="BI104">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="BJ104">
-        <v>2.35</v>
+        <v>2.64</v>
       </c>
       <c r="BK104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="BL104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="BM104">
-        <v>2.42</v>
+        <v>2.17</v>
       </c>
       <c r="BN104">
-        <v>1.47</v>
+        <v>1.58</v>
       </c>
       <c r="BO104">
-        <v>3.22</v>
+        <v>2.82</v>
       </c>
       <c r="BP104">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="105" spans="1:68">
@@ -22850,7 +22856,7 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ106">
         <v>1</v>
@@ -23184,7 +23190,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -24008,7 +24014,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24420,7 +24426,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24832,7 +24838,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25202,7 +25208,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>7468990</v>
+        <v>7468991</v>
       </c>
       <c r="C118" t="s">
         <v>68</v>
@@ -25217,160 +25223,160 @@
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H118" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118">
         <v>1</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>90</v>
+      </c>
+      <c r="P118" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q118">
         <v>4</v>
       </c>
-      <c r="M118">
-        <v>1</v>
-      </c>
-      <c r="N118">
-        <v>5</v>
-      </c>
-      <c r="O118" t="s">
-        <v>177</v>
-      </c>
-      <c r="P118" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q118">
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>3</v>
+      </c>
+      <c r="T118">
+        <v>1.5</v>
+      </c>
+      <c r="U118">
+        <v>2.5</v>
+      </c>
+      <c r="V118">
+        <v>3.5</v>
+      </c>
+      <c r="W118">
+        <v>1.29</v>
+      </c>
+      <c r="X118">
+        <v>11</v>
+      </c>
+      <c r="Y118">
+        <v>1.05</v>
+      </c>
+      <c r="Z118">
+        <v>3.6</v>
+      </c>
+      <c r="AA118">
+        <v>3.05</v>
+      </c>
+      <c r="AB118">
+        <v>2.15</v>
+      </c>
+      <c r="AC118">
+        <v>1.08</v>
+      </c>
+      <c r="AD118">
+        <v>7.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.42</v>
+      </c>
+      <c r="AF118">
         <v>2.75</v>
       </c>
-      <c r="R118">
-        <v>2.2</v>
-      </c>
-      <c r="S118">
+      <c r="AG118">
+        <v>2.28</v>
+      </c>
+      <c r="AH118">
+        <v>1.58</v>
+      </c>
+      <c r="AI118">
+        <v>2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.73</v>
+      </c>
+      <c r="AK118">
+        <v>1.66</v>
+      </c>
+      <c r="AL118">
+        <v>1.28</v>
+      </c>
+      <c r="AM118">
+        <v>1.3</v>
+      </c>
+      <c r="AN118">
+        <v>0.14</v>
+      </c>
+      <c r="AO118">
+        <v>1.14</v>
+      </c>
+      <c r="AP118">
+        <v>0.13</v>
+      </c>
+      <c r="AQ118">
+        <v>1.38</v>
+      </c>
+      <c r="AR118">
+        <v>0.99</v>
+      </c>
+      <c r="AS118">
+        <v>1.1</v>
+      </c>
+      <c r="AT118">
+        <v>2.09</v>
+      </c>
+      <c r="AU118">
         <v>4</v>
       </c>
-      <c r="T118">
-        <v>1.4</v>
-      </c>
-      <c r="U118">
-        <v>2.75</v>
-      </c>
-      <c r="V118">
-        <v>2.75</v>
-      </c>
-      <c r="W118">
-        <v>1.4</v>
-      </c>
-      <c r="X118">
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>4</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
         <v>8</v>
       </c>
-      <c r="Y118">
-        <v>1.08</v>
-      </c>
-      <c r="Z118">
-        <v>2</v>
-      </c>
-      <c r="AA118">
-        <v>3.5</v>
-      </c>
-      <c r="AB118">
-        <v>3.5</v>
-      </c>
-      <c r="AC118">
-        <v>1.05</v>
-      </c>
-      <c r="AD118">
-        <v>9</v>
-      </c>
-      <c r="AE118">
-        <v>1.28</v>
-      </c>
-      <c r="AF118">
-        <v>3.5</v>
-      </c>
-      <c r="AG118">
-        <v>1.8</v>
-      </c>
-      <c r="AH118">
-        <v>1.9</v>
-      </c>
-      <c r="AI118">
-        <v>1.73</v>
-      </c>
-      <c r="AJ118">
-        <v>2</v>
-      </c>
-      <c r="AK118">
-        <v>1.28</v>
-      </c>
-      <c r="AL118">
-        <v>1.25</v>
-      </c>
-      <c r="AM118">
-        <v>1.75</v>
-      </c>
-      <c r="AN118">
-        <v>1.83</v>
-      </c>
-      <c r="AO118">
-        <v>1</v>
-      </c>
-      <c r="AP118">
-        <v>2</v>
-      </c>
-      <c r="AQ118">
-        <v>0.88</v>
-      </c>
-      <c r="AR118">
-        <v>1.44</v>
-      </c>
-      <c r="AS118">
-        <v>1.24</v>
-      </c>
-      <c r="AT118">
-        <v>2.68</v>
-      </c>
-      <c r="AU118">
-        <v>3</v>
-      </c>
-      <c r="AV118">
-        <v>3</v>
-      </c>
-      <c r="AW118">
+      <c r="AZ118">
+        <v>7</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>11</v>
+      </c>
+      <c r="BC118">
+        <v>18</v>
+      </c>
+      <c r="BD118">
+        <v>2.62</v>
+      </c>
+      <c r="BE118">
         <v>8</v>
       </c>
-      <c r="AX118">
-        <v>2</v>
-      </c>
-      <c r="AY118">
-        <v>11</v>
-      </c>
-      <c r="AZ118">
-        <v>5</v>
-      </c>
-      <c r="BA118">
-        <v>6</v>
-      </c>
-      <c r="BB118">
-        <v>2</v>
-      </c>
-      <c r="BC118">
-        <v>8</v>
-      </c>
-      <c r="BD118">
-        <v>1.45</v>
-      </c>
-      <c r="BE118">
-        <v>8.5</v>
-      </c>
       <c r="BF118">
-        <v>3.29</v>
+        <v>1.69</v>
       </c>
       <c r="BG118">
         <v>1.27</v>
@@ -25408,7 +25414,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7468991</v>
+        <v>7468984</v>
       </c>
       <c r="C119" t="s">
         <v>68</v>
@@ -25420,139 +25426,139 @@
         <v>45618.66666666666</v>
       </c>
       <c r="F119">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G119" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H119" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I119">
         <v>0</v>
       </c>
       <c r="J119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L119">
         <v>0</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O119" t="s">
         <v>90</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="Q119">
+        <v>2.88</v>
+      </c>
+      <c r="R119">
+        <v>2.05</v>
+      </c>
+      <c r="S119">
         <v>4</v>
       </c>
-      <c r="R119">
-        <v>2</v>
-      </c>
-      <c r="S119">
-        <v>3</v>
-      </c>
       <c r="T119">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U119">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V119">
+        <v>3.25</v>
+      </c>
+      <c r="W119">
+        <v>1.33</v>
+      </c>
+      <c r="X119">
+        <v>10</v>
+      </c>
+      <c r="Y119">
+        <v>1.06</v>
+      </c>
+      <c r="Z119">
+        <v>2.1</v>
+      </c>
+      <c r="AA119">
+        <v>3.25</v>
+      </c>
+      <c r="AB119">
         <v>3.5</v>
       </c>
-      <c r="W119">
-        <v>1.29</v>
-      </c>
-      <c r="X119">
-        <v>11</v>
-      </c>
-      <c r="Y119">
-        <v>1.05</v>
-      </c>
-      <c r="Z119">
-        <v>3.6</v>
-      </c>
-      <c r="AA119">
-        <v>3.05</v>
-      </c>
-      <c r="AB119">
-        <v>2.15</v>
-      </c>
       <c r="AC119">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD119">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE119">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AF119">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG119">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="AH119">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="AI119">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AJ119">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AK119">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="AL119">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM119">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="AN119">
-        <v>0.14</v>
+        <v>1.17</v>
       </c>
       <c r="AO119">
+        <v>0.5</v>
+      </c>
+      <c r="AP119">
         <v>1.14</v>
       </c>
-      <c r="AP119">
-        <v>0.13</v>
-      </c>
       <c r="AQ119">
-        <v>1.38</v>
+        <v>0.57</v>
       </c>
       <c r="AR119">
-        <v>0.99</v>
+        <v>1.46</v>
       </c>
       <c r="AS119">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AT119">
-        <v>2.09</v>
+        <v>2.69</v>
       </c>
       <c r="AU119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW119">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY119">
         <v>8</v>
@@ -25561,52 +25567,52 @@
         <v>7</v>
       </c>
       <c r="BA119">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB119">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BC119">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BD119">
-        <v>2.62</v>
+        <v>1.75</v>
       </c>
       <c r="BE119">
         <v>8</v>
       </c>
       <c r="BF119">
-        <v>1.69</v>
+        <v>2.42</v>
       </c>
       <c r="BG119">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH119">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="BI119">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BJ119">
-        <v>2.48</v>
+        <v>2.38</v>
       </c>
       <c r="BK119">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="BL119">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="BM119">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BN119">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BO119">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="BP119">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="120" spans="1:68">
@@ -25614,7 +25620,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7468987</v>
+        <v>7468985</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25626,190 +25632,190 @@
         <v>45618.66666666666</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H120" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K120">
         <v>2</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O120" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P120" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="Q120">
-        <v>2.6</v>
+        <v>4.33</v>
       </c>
       <c r="R120">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>4.5</v>
+        <v>2.88</v>
       </c>
       <c r="T120">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U120">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V120">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W120">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X120">
+        <v>10</v>
+      </c>
+      <c r="Y120">
+        <v>1.06</v>
+      </c>
+      <c r="Z120">
+        <v>3.7</v>
+      </c>
+      <c r="AA120">
+        <v>3.2</v>
+      </c>
+      <c r="AB120">
+        <v>2.05</v>
+      </c>
+      <c r="AC120">
+        <v>1.08</v>
+      </c>
+      <c r="AD120">
+        <v>7.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.38</v>
+      </c>
+      <c r="AF120">
+        <v>2.9</v>
+      </c>
+      <c r="AG120">
+        <v>2.23</v>
+      </c>
+      <c r="AH120">
+        <v>1.62</v>
+      </c>
+      <c r="AI120">
+        <v>1.91</v>
+      </c>
+      <c r="AJ120">
+        <v>1.8</v>
+      </c>
+      <c r="AK120">
+        <v>1.7</v>
+      </c>
+      <c r="AL120">
+        <v>1.28</v>
+      </c>
+      <c r="AM120">
+        <v>1.28</v>
+      </c>
+      <c r="AN120">
+        <v>1.14</v>
+      </c>
+      <c r="AO120">
+        <v>1.5</v>
+      </c>
+      <c r="AP120">
+        <v>1.13</v>
+      </c>
+      <c r="AQ120">
+        <v>1.43</v>
+      </c>
+      <c r="AR120">
+        <v>1.24</v>
+      </c>
+      <c r="AS120">
+        <v>1.43</v>
+      </c>
+      <c r="AT120">
+        <v>2.67</v>
+      </c>
+      <c r="AU120">
+        <v>3</v>
+      </c>
+      <c r="AV120">
+        <v>4</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>5</v>
+      </c>
+      <c r="AY120">
+        <v>8</v>
+      </c>
+      <c r="AZ120">
         <v>9</v>
       </c>
-      <c r="Y120">
-        <v>1.07</v>
-      </c>
-      <c r="Z120">
-        <v>1.9</v>
-      </c>
-      <c r="AA120">
-        <v>3.4</v>
-      </c>
-      <c r="AB120">
-        <v>4</v>
-      </c>
-      <c r="AC120">
-        <v>1.06</v>
-      </c>
-      <c r="AD120">
-        <v>8.5</v>
-      </c>
-      <c r="AE120">
-        <v>1.33</v>
-      </c>
-      <c r="AF120">
-        <v>3.1</v>
-      </c>
-      <c r="AG120">
-        <v>2.05</v>
-      </c>
-      <c r="AH120">
-        <v>1.73</v>
-      </c>
-      <c r="AI120">
-        <v>1.83</v>
-      </c>
-      <c r="AJ120">
-        <v>1.83</v>
-      </c>
-      <c r="AK120">
-        <v>1.2</v>
-      </c>
-      <c r="AL120">
-        <v>1.25</v>
-      </c>
-      <c r="AM120">
-        <v>1.85</v>
-      </c>
-      <c r="AN120">
-        <v>1.86</v>
-      </c>
-      <c r="AO120">
-        <v>0.5</v>
-      </c>
-      <c r="AP120">
-        <v>2</v>
-      </c>
-      <c r="AQ120">
-        <v>0.43</v>
-      </c>
-      <c r="AR120">
-        <v>1.78</v>
-      </c>
-      <c r="AS120">
-        <v>1.24</v>
-      </c>
-      <c r="AT120">
-        <v>3.02</v>
-      </c>
-      <c r="AU120">
-        <v>3</v>
-      </c>
-      <c r="AV120">
-        <v>6</v>
-      </c>
-      <c r="AW120">
-        <v>6</v>
-      </c>
-      <c r="AX120">
+      <c r="BA120">
         <v>7</v>
       </c>
-      <c r="AY120">
+      <c r="BB120">
+        <v>2</v>
+      </c>
+      <c r="BC120">
         <v>9</v>
       </c>
-      <c r="AZ120">
-        <v>13</v>
-      </c>
-      <c r="BA120">
-        <v>2</v>
-      </c>
-      <c r="BB120">
-        <v>6</v>
-      </c>
-      <c r="BC120">
+      <c r="BD120">
+        <v>2.33</v>
+      </c>
+      <c r="BE120">
         <v>8</v>
       </c>
-      <c r="BD120">
-        <v>1.55</v>
-      </c>
-      <c r="BE120">
-        <v>8.5</v>
-      </c>
       <c r="BF120">
-        <v>3.01</v>
+        <v>1.82</v>
       </c>
       <c r="BG120">
         <v>1.3</v>
       </c>
       <c r="BH120">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="BI120">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="BJ120">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="BK120">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BL120">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BM120">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="BN120">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="BO120">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="BP120">
         <v>1.26</v>
@@ -25820,7 +25826,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7468984</v>
+        <v>7468986</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25832,193 +25838,193 @@
         <v>45618.66666666666</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H121" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O121" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="S121">
+        <v>3.5</v>
+      </c>
+      <c r="T121">
+        <v>1.33</v>
+      </c>
+      <c r="U121">
+        <v>3.25</v>
+      </c>
+      <c r="V121">
+        <v>2.63</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>6.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.11</v>
+      </c>
+      <c r="Z121">
+        <v>2.2</v>
+      </c>
+      <c r="AA121">
+        <v>3.5</v>
+      </c>
+      <c r="AB121">
+        <v>3</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>9.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.22</v>
+      </c>
+      <c r="AF121">
         <v>4</v>
       </c>
-      <c r="T121">
-        <v>1.44</v>
-      </c>
-      <c r="U121">
-        <v>2.63</v>
-      </c>
-      <c r="V121">
-        <v>3.25</v>
-      </c>
-      <c r="W121">
-        <v>1.33</v>
-      </c>
-      <c r="X121">
+      <c r="AG121">
+        <v>1.68</v>
+      </c>
+      <c r="AH121">
+        <v>2.1</v>
+      </c>
+      <c r="AI121">
+        <v>1.57</v>
+      </c>
+      <c r="AJ121">
+        <v>2.25</v>
+      </c>
+      <c r="AK121">
+        <v>1.4</v>
+      </c>
+      <c r="AL121">
+        <v>1.22</v>
+      </c>
+      <c r="AM121">
+        <v>1.62</v>
+      </c>
+      <c r="AN121">
+        <v>1.43</v>
+      </c>
+      <c r="AO121">
+        <v>1.14</v>
+      </c>
+      <c r="AP121">
+        <v>1.38</v>
+      </c>
+      <c r="AQ121">
+        <v>1.13</v>
+      </c>
+      <c r="AR121">
+        <v>1.35</v>
+      </c>
+      <c r="AS121">
+        <v>1.26</v>
+      </c>
+      <c r="AT121">
+        <v>2.61</v>
+      </c>
+      <c r="AU121">
+        <v>-1</v>
+      </c>
+      <c r="AV121">
+        <v>-1</v>
+      </c>
+      <c r="AW121">
+        <v>-1</v>
+      </c>
+      <c r="AX121">
+        <v>-1</v>
+      </c>
+      <c r="AY121">
+        <v>-1</v>
+      </c>
+      <c r="AZ121">
+        <v>-1</v>
+      </c>
+      <c r="BA121">
         <v>10</v>
       </c>
-      <c r="Y121">
-        <v>1.06</v>
-      </c>
-      <c r="Z121">
-        <v>2.1</v>
-      </c>
-      <c r="AA121">
-        <v>3.25</v>
-      </c>
-      <c r="AB121">
-        <v>3.5</v>
-      </c>
-      <c r="AC121">
-        <v>1.07</v>
-      </c>
-      <c r="AD121">
+      <c r="BB121">
         <v>8</v>
       </c>
-      <c r="AE121">
-        <v>1.36</v>
-      </c>
-      <c r="AF121">
-        <v>2.95</v>
-      </c>
-      <c r="AG121">
-        <v>2.1</v>
-      </c>
-      <c r="AH121">
-        <v>1.68</v>
-      </c>
-      <c r="AI121">
-        <v>1.83</v>
-      </c>
-      <c r="AJ121">
-        <v>1.83</v>
-      </c>
-      <c r="AK121">
-        <v>1.3</v>
-      </c>
-      <c r="AL121">
-        <v>1.25</v>
-      </c>
-      <c r="AM121">
-        <v>1.7</v>
-      </c>
-      <c r="AN121">
-        <v>1.17</v>
-      </c>
-      <c r="AO121">
-        <v>0.5</v>
-      </c>
-      <c r="AP121">
-        <v>1.14</v>
-      </c>
-      <c r="AQ121">
-        <v>0.57</v>
-      </c>
-      <c r="AR121">
-        <v>1.46</v>
-      </c>
-      <c r="AS121">
-        <v>1.23</v>
-      </c>
-      <c r="AT121">
-        <v>2.69</v>
-      </c>
-      <c r="AU121">
-        <v>3</v>
-      </c>
-      <c r="AV121">
-        <v>5</v>
-      </c>
-      <c r="AW121">
-        <v>5</v>
-      </c>
-      <c r="AX121">
-        <v>2</v>
-      </c>
-      <c r="AY121">
-        <v>8</v>
-      </c>
-      <c r="AZ121">
-        <v>7</v>
-      </c>
-      <c r="BA121">
-        <v>5</v>
-      </c>
-      <c r="BB121">
-        <v>4</v>
-      </c>
       <c r="BC121">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BD121">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="BE121">
         <v>8</v>
       </c>
       <c r="BF121">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="BG121">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH121">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="BI121">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="BJ121">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="BK121">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="BL121">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="BM121">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="BN121">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BO121">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="BP121">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -26026,7 +26032,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7468985</v>
+        <v>7468987</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26038,190 +26044,190 @@
         <v>45618.66666666666</v>
       </c>
       <c r="F122">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H122" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
         <v>2</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O122" t="s">
         <v>179</v>
       </c>
       <c r="P122" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="Q122">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>4.5</v>
+      </c>
+      <c r="T122">
+        <v>1.44</v>
+      </c>
+      <c r="U122">
+        <v>2.63</v>
+      </c>
+      <c r="V122">
+        <v>3</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>9</v>
+      </c>
+      <c r="Y122">
+        <v>1.07</v>
+      </c>
+      <c r="Z122">
+        <v>1.9</v>
+      </c>
+      <c r="AA122">
+        <v>3.4</v>
+      </c>
+      <c r="AB122">
+        <v>4</v>
+      </c>
+      <c r="AC122">
+        <v>1.06</v>
+      </c>
+      <c r="AD122">
+        <v>8.5</v>
+      </c>
+      <c r="AE122">
+        <v>1.33</v>
+      </c>
+      <c r="AF122">
+        <v>3.1</v>
+      </c>
+      <c r="AG122">
         <v>2.05</v>
       </c>
-      <c r="S122">
-        <v>2.88</v>
-      </c>
-      <c r="T122">
-        <v>1.5</v>
-      </c>
-      <c r="U122">
-        <v>2.5</v>
-      </c>
-      <c r="V122">
-        <v>3.4</v>
-      </c>
-      <c r="W122">
-        <v>1.3</v>
-      </c>
-      <c r="X122">
-        <v>10</v>
-      </c>
-      <c r="Y122">
-        <v>1.06</v>
-      </c>
-      <c r="Z122">
-        <v>3.7</v>
-      </c>
-      <c r="AA122">
-        <v>3.2</v>
-      </c>
-      <c r="AB122">
-        <v>2.05</v>
-      </c>
-      <c r="AC122">
-        <v>1.08</v>
-      </c>
-      <c r="AD122">
-        <v>7.5</v>
-      </c>
-      <c r="AE122">
-        <v>1.38</v>
-      </c>
-      <c r="AF122">
-        <v>2.9</v>
-      </c>
-      <c r="AG122">
-        <v>2.23</v>
-      </c>
       <c r="AH122">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AI122">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AJ122">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AK122">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AL122">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM122">
-        <v>1.28</v>
+        <v>1.85</v>
       </c>
       <c r="AN122">
-        <v>1.14</v>
+        <v>1.86</v>
       </c>
       <c r="AO122">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>1.13</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
-        <v>1.43</v>
+        <v>0.43</v>
       </c>
       <c r="AR122">
+        <v>1.78</v>
+      </c>
+      <c r="AS122">
         <v>1.24</v>
       </c>
-      <c r="AS122">
-        <v>1.43</v>
-      </c>
       <c r="AT122">
-        <v>2.67</v>
+        <v>3.02</v>
       </c>
       <c r="AU122">
         <v>3</v>
       </c>
       <c r="AV122">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW122">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX122">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY122">
+        <v>9</v>
+      </c>
+      <c r="AZ122">
+        <v>13</v>
+      </c>
+      <c r="BA122">
+        <v>2</v>
+      </c>
+      <c r="BB122">
+        <v>6</v>
+      </c>
+      <c r="BC122">
         <v>8</v>
       </c>
-      <c r="AZ122">
-        <v>9</v>
-      </c>
-      <c r="BA122">
-        <v>7</v>
-      </c>
-      <c r="BB122">
-        <v>2</v>
-      </c>
-      <c r="BC122">
-        <v>9</v>
-      </c>
       <c r="BD122">
-        <v>2.33</v>
+        <v>1.55</v>
       </c>
       <c r="BE122">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF122">
-        <v>1.82</v>
+        <v>3.01</v>
       </c>
       <c r="BG122">
         <v>1.3</v>
       </c>
       <c r="BH122">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="BI122">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="BJ122">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="BK122">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL122">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BM122">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="BN122">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BO122">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="BP122">
         <v>1.26</v>
@@ -26232,7 +26238,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7468988</v>
+        <v>7468990</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26241,55 +26247,55 @@
         <v>69</v>
       </c>
       <c r="E123" s="2">
-        <v>45619.41666666666</v>
+        <v>45618.66666666666</v>
       </c>
       <c r="F123">
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H123" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O123" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="P123" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="Q123">
+        <v>2.75</v>
+      </c>
+      <c r="R123">
         <v>2.2</v>
       </c>
-      <c r="R123">
-        <v>2.25</v>
-      </c>
       <c r="S123">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T123">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V123">
         <v>2.75</v>
@@ -26298,56 +26304,56 @@
         <v>1.4</v>
       </c>
       <c r="X123">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y123">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z123">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="AA123">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="AB123">
-        <v>5.03</v>
+        <v>3.5</v>
       </c>
       <c r="AC123">
         <v>1.05</v>
       </c>
       <c r="AD123">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE123">
+        <v>1.28</v>
+      </c>
+      <c r="AF123">
+        <v>3.5</v>
+      </c>
+      <c r="AG123">
+        <v>1.8</v>
+      </c>
+      <c r="AH123">
+        <v>1.9</v>
+      </c>
+      <c r="AI123">
+        <v>1.73</v>
+      </c>
+      <c r="AJ123">
+        <v>2</v>
+      </c>
+      <c r="AK123">
+        <v>1.28</v>
+      </c>
+      <c r="AL123">
         <v>1.25</v>
       </c>
-      <c r="AF123">
-        <v>3.75</v>
-      </c>
-      <c r="AG123">
-        <v>1.84</v>
-      </c>
-      <c r="AH123">
-        <v>2</v>
-      </c>
-      <c r="AI123">
+      <c r="AM123">
+        <v>1.75</v>
+      </c>
+      <c r="AN123">
         <v>1.83</v>
       </c>
-      <c r="AJ123">
-        <v>1.83</v>
-      </c>
-      <c r="AK123">
-        <v>1.11</v>
-      </c>
-      <c r="AL123">
-        <v>1.18</v>
-      </c>
-      <c r="AM123">
-        <v>2.3</v>
-      </c>
-      <c r="AN123">
-        <v>2.17</v>
-      </c>
       <c r="AO123">
         <v>1</v>
       </c>
@@ -26355,82 +26361,82 @@
         <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR123">
-        <v>1.79</v>
+        <v>1.44</v>
       </c>
       <c r="AS123">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AT123">
-        <v>3.1</v>
+        <v>2.68</v>
       </c>
       <c r="AU123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV123">
         <v>3</v>
       </c>
       <c r="AW123">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AX123">
+        <v>2</v>
+      </c>
+      <c r="AY123">
+        <v>11</v>
+      </c>
+      <c r="AZ123">
         <v>5</v>
       </c>
-      <c r="AY123">
-        <v>3</v>
-      </c>
-      <c r="AZ123">
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>2</v>
+      </c>
+      <c r="BC123">
         <v>8</v>
       </c>
-      <c r="BA123">
-        <v>3</v>
-      </c>
-      <c r="BB123">
-        <v>7</v>
-      </c>
-      <c r="BC123">
-        <v>10</v>
-      </c>
       <c r="BD123">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="BE123">
         <v>8.5</v>
       </c>
       <c r="BF123">
-        <v>3.5</v>
+        <v>3.29</v>
       </c>
       <c r="BG123">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="BH123">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="BI123">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BJ123">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="BK123">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="BL123">
-        <v>1.74</v>
+        <v>1.9</v>
       </c>
       <c r="BM123">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BN123">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="BO123">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="BP123">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26438,7 +26444,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7468989</v>
+        <v>7468988</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26447,195 +26453,607 @@
         <v>69</v>
       </c>
       <c r="E124" s="2">
-        <v>45620.875</v>
+        <v>45619.41666666666</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="H124" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="P124" t="s">
         <v>90</v>
       </c>
       <c r="Q124">
+        <v>2.2</v>
+      </c>
+      <c r="R124">
+        <v>2.25</v>
+      </c>
+      <c r="S124">
+        <v>5.5</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
         <v>2.75</v>
       </c>
-      <c r="R124">
-        <v>2</v>
-      </c>
-      <c r="S124">
+      <c r="W124">
+        <v>1.4</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.53</v>
+      </c>
+      <c r="AA124">
+        <v>3.68</v>
+      </c>
+      <c r="AB124">
+        <v>5.03</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>9.5</v>
+      </c>
+      <c r="AE124">
+        <v>1.25</v>
+      </c>
+      <c r="AF124">
+        <v>3.75</v>
+      </c>
+      <c r="AG124">
+        <v>1.84</v>
+      </c>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>1.83</v>
+      </c>
+      <c r="AJ124">
+        <v>1.83</v>
+      </c>
+      <c r="AK124">
+        <v>1.11</v>
+      </c>
+      <c r="AL124">
+        <v>1.18</v>
+      </c>
+      <c r="AM124">
+        <v>2.3</v>
+      </c>
+      <c r="AN124">
+        <v>2.17</v>
+      </c>
+      <c r="AO124">
+        <v>1</v>
+      </c>
+      <c r="AP124">
+        <v>2</v>
+      </c>
+      <c r="AQ124">
+        <v>1</v>
+      </c>
+      <c r="AR124">
+        <v>1.79</v>
+      </c>
+      <c r="AS124">
+        <v>1.31</v>
+      </c>
+      <c r="AT124">
+        <v>3.1</v>
+      </c>
+      <c r="AU124">
+        <v>2</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>1</v>
+      </c>
+      <c r="AX124">
+        <v>5</v>
+      </c>
+      <c r="AY124">
+        <v>3</v>
+      </c>
+      <c r="AZ124">
+        <v>8</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>7</v>
+      </c>
+      <c r="BC124">
+        <v>10</v>
+      </c>
+      <c r="BD124">
+        <v>1.41</v>
+      </c>
+      <c r="BE124">
+        <v>8.5</v>
+      </c>
+      <c r="BF124">
+        <v>3.5</v>
+      </c>
+      <c r="BG124">
+        <v>1.32</v>
+      </c>
+      <c r="BH124">
+        <v>3.2</v>
+      </c>
+      <c r="BI124">
+        <v>1.58</v>
+      </c>
+      <c r="BJ124">
+        <v>2.28</v>
+      </c>
+      <c r="BK124">
+        <v>2.02</v>
+      </c>
+      <c r="BL124">
+        <v>1.74</v>
+      </c>
+      <c r="BM124">
+        <v>2.7</v>
+      </c>
+      <c r="BN124">
+        <v>1.43</v>
+      </c>
+      <c r="BO124">
+        <v>3.75</v>
+      </c>
+      <c r="BP124">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7468983</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45619.66666666666</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>83</v>
+      </c>
+      <c r="H125" t="s">
+        <v>86</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125" t="s">
+        <v>90</v>
+      </c>
+      <c r="P125" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q125">
+        <v>3.75</v>
+      </c>
+      <c r="R125">
+        <v>2.1</v>
+      </c>
+      <c r="S125">
+        <v>2.88</v>
+      </c>
+      <c r="T125">
+        <v>1.4</v>
+      </c>
+      <c r="U125">
+        <v>2.75</v>
+      </c>
+      <c r="V125">
+        <v>3</v>
+      </c>
+      <c r="W125">
+        <v>1.36</v>
+      </c>
+      <c r="X125">
+        <v>8</v>
+      </c>
+      <c r="Y125">
+        <v>1.08</v>
+      </c>
+      <c r="Z125">
+        <v>3.04</v>
+      </c>
+      <c r="AA125">
+        <v>3.19</v>
+      </c>
+      <c r="AB125">
+        <v>2.05</v>
+      </c>
+      <c r="AC125">
+        <v>1.05</v>
+      </c>
+      <c r="AD125">
+        <v>9.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.3</v>
+      </c>
+      <c r="AF125">
+        <v>3.3</v>
+      </c>
+      <c r="AG125">
+        <v>1.88</v>
+      </c>
+      <c r="AH125">
+        <v>1.96</v>
+      </c>
+      <c r="AI125">
+        <v>1.8</v>
+      </c>
+      <c r="AJ125">
+        <v>1.91</v>
+      </c>
+      <c r="AK125">
+        <v>1.66</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
+        <v>1.35</v>
+      </c>
+      <c r="AN125">
+        <v>1.67</v>
+      </c>
+      <c r="AO125">
+        <v>1.14</v>
+      </c>
+      <c r="AP125">
+        <v>1.57</v>
+      </c>
+      <c r="AQ125">
+        <v>1.13</v>
+      </c>
+      <c r="AR125">
+        <v>1.66</v>
+      </c>
+      <c r="AS125">
+        <v>1.47</v>
+      </c>
+      <c r="AT125">
+        <v>3.13</v>
+      </c>
+      <c r="AU125">
+        <v>-1</v>
+      </c>
+      <c r="AV125">
+        <v>-1</v>
+      </c>
+      <c r="AW125">
+        <v>-1</v>
+      </c>
+      <c r="AX125">
+        <v>-1</v>
+      </c>
+      <c r="AY125">
+        <v>-1</v>
+      </c>
+      <c r="AZ125">
+        <v>-1</v>
+      </c>
+      <c r="BA125">
+        <v>6</v>
+      </c>
+      <c r="BB125">
+        <v>6</v>
+      </c>
+      <c r="BC125">
+        <v>12</v>
+      </c>
+      <c r="BD125">
+        <v>2.54</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>1.69</v>
+      </c>
+      <c r="BG125">
+        <v>1.31</v>
+      </c>
+      <c r="BH125">
+        <v>3.15</v>
+      </c>
+      <c r="BI125">
+        <v>1.55</v>
+      </c>
+      <c r="BJ125">
+        <v>2.29</v>
+      </c>
+      <c r="BK125">
+        <v>1.92</v>
+      </c>
+      <c r="BL125">
+        <v>1.79</v>
+      </c>
+      <c r="BM125">
+        <v>2.47</v>
+      </c>
+      <c r="BN125">
+        <v>1.48</v>
+      </c>
+      <c r="BO125">
+        <v>3.3</v>
+      </c>
+      <c r="BP125">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7468989</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45621.69791666666</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>72</v>
+      </c>
+      <c r="H126" t="s">
+        <v>71</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>1</v>
+      </c>
+      <c r="O126" t="s">
+        <v>126</v>
+      </c>
+      <c r="P126" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q126">
+        <v>2.75</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
         <v>4.75</v>
       </c>
-      <c r="T124">
+      <c r="T126">
         <v>1.53</v>
       </c>
-      <c r="U124">
+      <c r="U126">
         <v>2.38</v>
       </c>
-      <c r="V124">
+      <c r="V126">
         <v>3.5</v>
       </c>
-      <c r="W124">
+      <c r="W126">
         <v>1.29</v>
       </c>
-      <c r="X124">
+      <c r="X126">
         <v>11</v>
       </c>
-      <c r="Y124">
+      <c r="Y126">
         <v>1.05</v>
       </c>
-      <c r="Z124">
+      <c r="Z126">
         <v>1.85</v>
       </c>
-      <c r="AA124">
+      <c r="AA126">
         <v>3.1</v>
       </c>
-      <c r="AB124">
+      <c r="AB126">
         <v>3.85</v>
       </c>
-      <c r="AC124">
+      <c r="AC126">
         <v>1.09</v>
       </c>
-      <c r="AD124">
+      <c r="AD126">
         <v>7</v>
       </c>
-      <c r="AE124">
+      <c r="AE126">
         <v>1.44</v>
       </c>
-      <c r="AF124">
+      <c r="AF126">
         <v>2.65</v>
       </c>
-      <c r="AG124">
+      <c r="AG126">
         <v>2.25</v>
       </c>
-      <c r="AH124">
+      <c r="AH126">
         <v>1.57</v>
       </c>
-      <c r="AI124">
+      <c r="AI126">
         <v>2.1</v>
       </c>
-      <c r="AJ124">
+      <c r="AJ126">
         <v>1.67</v>
       </c>
-      <c r="AK124">
+      <c r="AK126">
         <v>1.25</v>
       </c>
-      <c r="AL124">
+      <c r="AL126">
         <v>1.28</v>
       </c>
-      <c r="AM124">
+      <c r="AM126">
         <v>1.78</v>
       </c>
-      <c r="AN124">
+      <c r="AN126">
         <v>2.57</v>
       </c>
-      <c r="AO124">
+      <c r="AO126">
         <v>0.17</v>
       </c>
-      <c r="AP124">
+      <c r="AP126">
         <v>2.63</v>
       </c>
-      <c r="AQ124">
+      <c r="AQ126">
         <v>0.14</v>
       </c>
-      <c r="AR124">
+      <c r="AR126">
         <v>1.58</v>
       </c>
-      <c r="AS124">
+      <c r="AS126">
         <v>1.1</v>
       </c>
-      <c r="AT124">
+      <c r="AT126">
         <v>2.68</v>
       </c>
-      <c r="AU124">
+      <c r="AU126">
         <v>7</v>
       </c>
-      <c r="AV124">
-        <v>2</v>
-      </c>
-      <c r="AW124">
+      <c r="AV126">
+        <v>2</v>
+      </c>
+      <c r="AW126">
         <v>8</v>
       </c>
-      <c r="AX124">
-        <v>1</v>
-      </c>
-      <c r="AY124">
+      <c r="AX126">
+        <v>1</v>
+      </c>
+      <c r="AY126">
         <v>21</v>
       </c>
-      <c r="AZ124">
-        <v>3</v>
-      </c>
-      <c r="BA124">
+      <c r="AZ126">
+        <v>3</v>
+      </c>
+      <c r="BA126">
         <v>6</v>
       </c>
-      <c r="BB124">
-        <v>2</v>
-      </c>
-      <c r="BC124">
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
         <v>8</v>
       </c>
-      <c r="BD124">
+      <c r="BD126">
         <v>1.64</v>
       </c>
-      <c r="BE124">
+      <c r="BE126">
         <v>8</v>
       </c>
-      <c r="BF124">
+      <c r="BF126">
         <v>2.67</v>
       </c>
-      <c r="BG124">
+      <c r="BG126">
         <v>1.43</v>
       </c>
-      <c r="BH124">
+      <c r="BH126">
         <v>2.6</v>
       </c>
-      <c r="BI124">
+      <c r="BI126">
         <v>1.75</v>
       </c>
-      <c r="BJ124">
+      <c r="BJ126">
         <v>1.96</v>
       </c>
-      <c r="BK124">
+      <c r="BK126">
         <v>2.24</v>
       </c>
-      <c r="BL124">
+      <c r="BL126">
         <v>1.58</v>
       </c>
-      <c r="BM124">
+      <c r="BM126">
         <v>2.98</v>
       </c>
-      <c r="BN124">
+      <c r="BN126">
         <v>1.34</v>
       </c>
-      <c r="BO124">
+      <c r="BO126">
         <v>3.88</v>
       </c>
-      <c r="BP124">
+      <c r="BP126">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1095,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -11732,7 +11732,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>0.57</v>
@@ -15234,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
         <v>1.33</v>
@@ -23268,7 +23268,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>1.43</v>
@@ -24298,7 +24298,7 @@
         <v>1.4</v>
       </c>
       <c r="AP113">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ113">
         <v>1.17</v>
@@ -27055,6 +27055,212 @@
       </c>
       <c r="BP126">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7468953</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45629.64583333334</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+      <c r="G127" t="s">
+        <v>71</v>
+      </c>
+      <c r="H127" t="s">
+        <v>83</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127" t="s">
+        <v>90</v>
+      </c>
+      <c r="P127" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q127">
+        <v>3.6</v>
+      </c>
+      <c r="R127">
+        <v>1.91</v>
+      </c>
+      <c r="S127">
+        <v>3.5</v>
+      </c>
+      <c r="T127">
+        <v>1.57</v>
+      </c>
+      <c r="U127">
+        <v>2.25</v>
+      </c>
+      <c r="V127">
+        <v>3.75</v>
+      </c>
+      <c r="W127">
+        <v>1.25</v>
+      </c>
+      <c r="X127">
+        <v>11</v>
+      </c>
+      <c r="Y127">
+        <v>1.05</v>
+      </c>
+      <c r="Z127">
+        <v>2.28</v>
+      </c>
+      <c r="AA127">
+        <v>3.66</v>
+      </c>
+      <c r="AB127">
+        <v>2.52</v>
+      </c>
+      <c r="AC127">
+        <v>1.1</v>
+      </c>
+      <c r="AD127">
+        <v>7</v>
+      </c>
+      <c r="AE127">
+        <v>1.62</v>
+      </c>
+      <c r="AF127">
+        <v>2.3</v>
+      </c>
+      <c r="AG127">
+        <v>2.37</v>
+      </c>
+      <c r="AH127">
+        <v>1.48</v>
+      </c>
+      <c r="AI127">
+        <v>2.1</v>
+      </c>
+      <c r="AJ127">
+        <v>1.67</v>
+      </c>
+      <c r="AK127">
+        <v>1.47</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.42</v>
+      </c>
+      <c r="AN127">
+        <v>2.17</v>
+      </c>
+      <c r="AO127">
+        <v>1</v>
+      </c>
+      <c r="AP127">
+        <v>2</v>
+      </c>
+      <c r="AQ127">
+        <v>1</v>
+      </c>
+      <c r="AR127">
+        <v>1.21</v>
+      </c>
+      <c r="AS127">
+        <v>1.37</v>
+      </c>
+      <c r="AT127">
+        <v>2.58</v>
+      </c>
+      <c r="AU127">
+        <v>3</v>
+      </c>
+      <c r="AV127">
+        <v>0</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>3</v>
+      </c>
+      <c r="AY127">
+        <v>6</v>
+      </c>
+      <c r="AZ127">
+        <v>6</v>
+      </c>
+      <c r="BA127">
+        <v>2</v>
+      </c>
+      <c r="BB127">
+        <v>5</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>1.82</v>
+      </c>
+      <c r="BE127">
+        <v>7.5</v>
+      </c>
+      <c r="BF127">
+        <v>2.34</v>
+      </c>
+      <c r="BG127">
+        <v>1.4</v>
+      </c>
+      <c r="BH127">
+        <v>2.8</v>
+      </c>
+      <c r="BI127">
+        <v>1.74</v>
+      </c>
+      <c r="BJ127">
+        <v>2.02</v>
+      </c>
+      <c r="BK127">
+        <v>2.28</v>
+      </c>
+      <c r="BL127">
+        <v>1.58</v>
+      </c>
+      <c r="BM127">
+        <v>3.1</v>
+      </c>
+      <c r="BN127">
+        <v>1.33</v>
+      </c>
+      <c r="BO127">
+        <v>4.5</v>
+      </c>
+      <c r="BP127">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,18 @@
     <t>['11', '77', '79', '90+6']</t>
   </si>
   <si>
+    <t>['29', '71']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['10', '90+7']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -578,9 +590,6 @@
   </si>
   <si>
     <t>['40', '65']</t>
-  </si>
-  <si>
-    <t>['12']</t>
   </si>
   <si>
     <t>['3', '40', '52', '60']</t>
@@ -662,9 +671,6 @@
   </si>
   <si>
     <t>['35', '87']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['45+2', '76']</t>
@@ -1095,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1360,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1435,7 +1441,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ2">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1766,7 +1772,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2465,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2590,7 +2596,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2874,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -3002,7 +3008,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3289,7 +3295,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ11">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3492,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3620,7 +3626,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3698,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13">
         <v>1.43</v>
@@ -3907,7 +3913,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4238,7 +4244,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4316,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ16">
         <v>1.33</v>
@@ -4444,7 +4450,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4934,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19">
         <v>0.14</v>
@@ -5062,7 +5068,7 @@
         <v>102</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>2.8</v>
@@ -5143,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5268,7 +5274,7 @@
         <v>90</v>
       </c>
       <c r="P21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5474,7 +5480,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5886,7 +5892,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6092,7 +6098,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6170,7 +6176,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6298,7 +6304,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6379,7 +6385,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -6710,7 +6716,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6994,7 +7000,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ29">
         <v>0.14</v>
@@ -7818,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ33">
         <v>0.43</v>
@@ -8027,7 +8033,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8152,7 +8158,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8230,10 +8236,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8358,7 +8364,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8564,7 +8570,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8645,7 +8651,7 @@
         <v>2</v>
       </c>
       <c r="AQ37">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8770,7 +8776,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8976,7 +8982,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9054,7 +9060,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ39">
         <v>0.57</v>
@@ -9388,7 +9394,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9594,7 +9600,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9675,7 +9681,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ42">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -9800,7 +9806,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9878,7 +9884,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
         <v>1.38</v>
@@ -10293,7 +10299,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10418,7 +10424,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10908,10 +10914,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11323,7 +11329,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -11860,7 +11866,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12066,7 +12072,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12272,7 +12278,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12350,7 +12356,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ55">
         <v>1.38</v>
@@ -12684,7 +12690,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12762,10 +12768,10 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -12890,7 +12896,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12968,7 +12974,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ58">
         <v>1.17</v>
@@ -13096,7 +13102,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13302,7 +13308,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13589,7 +13595,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.29</v>
@@ -13714,7 +13720,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13792,7 +13798,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ62">
         <v>2</v>
@@ -13920,7 +13926,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14126,7 +14132,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14207,7 +14213,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR64">
         <v>1.73</v>
@@ -14616,7 +14622,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -14825,7 +14831,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -14950,7 +14956,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15028,7 +15034,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ68">
         <v>0.57</v>
@@ -15156,7 +15162,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15362,7 +15368,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15568,7 +15574,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15649,7 +15655,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -15774,7 +15780,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15980,7 +15986,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16058,7 +16064,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ73">
         <v>1.13</v>
@@ -16186,7 +16192,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16267,7 +16273,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16392,7 +16398,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16470,10 +16476,10 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ75">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -16598,7 +16604,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16676,7 +16682,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ76">
         <v>1.17</v>
@@ -17091,7 +17097,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17216,7 +17222,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17422,7 +17428,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17628,7 +17634,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18324,7 +18330,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18452,7 +18458,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18658,7 +18664,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18736,7 +18742,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ86">
         <v>1.13</v>
@@ -19151,7 +19157,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19276,7 +19282,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19482,7 +19488,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19563,7 +19569,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19769,7 +19775,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ91">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -19894,7 +19900,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -19972,10 +19978,10 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ92">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20178,7 +20184,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ93">
         <v>1.43</v>
@@ -20512,7 +20518,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20718,7 +20724,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21130,7 +21136,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21208,10 +21214,10 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ98">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR98">
         <v>1.06</v>
@@ -21826,7 +21832,7 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ101">
         <v>0.88</v>
@@ -22160,7 +22166,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22366,7 +22372,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22650,10 +22656,10 @@
         <v>0.83</v>
       </c>
       <c r="AP105">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ105">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -23190,7 +23196,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23680,7 +23686,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ110">
         <v>1</v>
@@ -24014,7 +24020,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24092,7 +24098,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24301,7 +24307,7 @@
         <v>2</v>
       </c>
       <c r="AQ113">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.1</v>
@@ -24426,7 +24432,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24504,10 +24510,10 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ114">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR114">
         <v>1.28</v>
@@ -24838,7 +24844,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -24919,7 +24925,7 @@
         <v>3</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR116">
         <v>1.94</v>
@@ -25125,7 +25131,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ117">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR117">
         <v>1.7</v>
@@ -25250,7 +25256,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25328,7 +25334,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AQ118">
         <v>1.38</v>
@@ -25868,7 +25874,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -27261,6 +27267,1242 @@
       </c>
       <c r="BP127">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7468999</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>86</v>
+      </c>
+      <c r="H128" t="s">
+        <v>79</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>181</v>
+      </c>
+      <c r="P128" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q128">
+        <v>2.1</v>
+      </c>
+      <c r="R128">
+        <v>2.3</v>
+      </c>
+      <c r="S128">
+        <v>6.5</v>
+      </c>
+      <c r="T128">
+        <v>1.36</v>
+      </c>
+      <c r="U128">
+        <v>3</v>
+      </c>
+      <c r="V128">
+        <v>2.75</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>8</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>1.45</v>
+      </c>
+      <c r="AA128">
+        <v>4.2</v>
+      </c>
+      <c r="AB128">
+        <v>5.7</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>10</v>
+      </c>
+      <c r="AE128">
+        <v>1.28</v>
+      </c>
+      <c r="AF128">
+        <v>3.5</v>
+      </c>
+      <c r="AG128">
+        <v>2.2</v>
+      </c>
+      <c r="AH128">
+        <v>1.6</v>
+      </c>
+      <c r="AI128">
+        <v>2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.73</v>
+      </c>
+      <c r="AK128">
+        <v>1.07</v>
+      </c>
+      <c r="AL128">
+        <v>1.17</v>
+      </c>
+      <c r="AM128">
+        <v>2.55</v>
+      </c>
+      <c r="AN128">
+        <v>3</v>
+      </c>
+      <c r="AO128">
+        <v>1</v>
+      </c>
+      <c r="AP128">
+        <v>3</v>
+      </c>
+      <c r="AQ128">
+        <v>0.88</v>
+      </c>
+      <c r="AR128">
+        <v>1.83</v>
+      </c>
+      <c r="AS128">
+        <v>1.33</v>
+      </c>
+      <c r="AT128">
+        <v>3.16</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>13</v>
+      </c>
+      <c r="AZ128">
+        <v>8</v>
+      </c>
+      <c r="BA128">
+        <v>2</v>
+      </c>
+      <c r="BB128">
+        <v>5</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>1.3</v>
+      </c>
+      <c r="BE128">
+        <v>7</v>
+      </c>
+      <c r="BF128">
+        <v>3.45</v>
+      </c>
+      <c r="BG128">
+        <v>1.25</v>
+      </c>
+      <c r="BH128">
+        <v>3.45</v>
+      </c>
+      <c r="BI128">
+        <v>1.44</v>
+      </c>
+      <c r="BJ128">
+        <v>2.55</v>
+      </c>
+      <c r="BK128">
+        <v>1.72</v>
+      </c>
+      <c r="BL128">
+        <v>1.98</v>
+      </c>
+      <c r="BM128">
+        <v>2.08</v>
+      </c>
+      <c r="BN128">
+        <v>1.65</v>
+      </c>
+      <c r="BO128">
+        <v>2.65</v>
+      </c>
+      <c r="BP128">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7468992</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>77</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>90</v>
+      </c>
+      <c r="P129" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q129">
+        <v>5.5</v>
+      </c>
+      <c r="R129">
+        <v>2.25</v>
+      </c>
+      <c r="S129">
+        <v>2.2</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>7</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>3.37</v>
+      </c>
+      <c r="AA129">
+        <v>3.5</v>
+      </c>
+      <c r="AB129">
+        <v>1.92</v>
+      </c>
+      <c r="AC129">
+        <v>1.04</v>
+      </c>
+      <c r="AD129">
+        <v>10</v>
+      </c>
+      <c r="AE129">
+        <v>1.25</v>
+      </c>
+      <c r="AF129">
+        <v>3.75</v>
+      </c>
+      <c r="AG129">
+        <v>1.75</v>
+      </c>
+      <c r="AH129">
+        <v>1.95</v>
+      </c>
+      <c r="AI129">
+        <v>1.83</v>
+      </c>
+      <c r="AJ129">
+        <v>1.83</v>
+      </c>
+      <c r="AK129">
+        <v>2.25</v>
+      </c>
+      <c r="AL129">
+        <v>1.18</v>
+      </c>
+      <c r="AM129">
+        <v>1.12</v>
+      </c>
+      <c r="AN129">
+        <v>0.13</v>
+      </c>
+      <c r="AO129">
+        <v>1</v>
+      </c>
+      <c r="AP129">
+        <v>0.11</v>
+      </c>
+      <c r="AQ129">
+        <v>1.29</v>
+      </c>
+      <c r="AR129">
+        <v>0.99</v>
+      </c>
+      <c r="AS129">
+        <v>1.5</v>
+      </c>
+      <c r="AT129">
+        <v>2.49</v>
+      </c>
+      <c r="AU129">
+        <v>4</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
+        <v>3</v>
+      </c>
+      <c r="AX129">
+        <v>7</v>
+      </c>
+      <c r="AY129">
+        <v>12</v>
+      </c>
+      <c r="AZ129">
+        <v>14</v>
+      </c>
+      <c r="BA129">
+        <v>8</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>12</v>
+      </c>
+      <c r="BD129">
+        <v>2.8</v>
+      </c>
+      <c r="BE129">
+        <v>6.5</v>
+      </c>
+      <c r="BF129">
+        <v>1.53</v>
+      </c>
+      <c r="BG129">
+        <v>1.4</v>
+      </c>
+      <c r="BH129">
+        <v>2.7</v>
+      </c>
+      <c r="BI129">
+        <v>1.66</v>
+      </c>
+      <c r="BJ129">
+        <v>2.07</v>
+      </c>
+      <c r="BK129">
+        <v>2.05</v>
+      </c>
+      <c r="BL129">
+        <v>1.68</v>
+      </c>
+      <c r="BM129">
+        <v>2.65</v>
+      </c>
+      <c r="BN129">
+        <v>1.42</v>
+      </c>
+      <c r="BO129">
+        <v>3.45</v>
+      </c>
+      <c r="BP129">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7468993</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
+        <v>82</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>1</v>
+      </c>
+      <c r="O130" t="s">
+        <v>182</v>
+      </c>
+      <c r="P130" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q130">
+        <v>2.88</v>
+      </c>
+      <c r="R130">
+        <v>2.25</v>
+      </c>
+      <c r="S130">
+        <v>3.6</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>3</v>
+      </c>
+      <c r="V130">
+        <v>2.63</v>
+      </c>
+      <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>7</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>1.93</v>
+      </c>
+      <c r="AA130">
+        <v>3.4</v>
+      </c>
+      <c r="AB130">
+        <v>3.55</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>9.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.25</v>
+      </c>
+      <c r="AF130">
+        <v>3.75</v>
+      </c>
+      <c r="AG130">
+        <v>1.73</v>
+      </c>
+      <c r="AH130">
+        <v>2</v>
+      </c>
+      <c r="AI130">
+        <v>1.67</v>
+      </c>
+      <c r="AJ130">
+        <v>2.1</v>
+      </c>
+      <c r="AK130">
+        <v>1.36</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.66</v>
+      </c>
+      <c r="AN130">
+        <v>1.17</v>
+      </c>
+      <c r="AO130">
+        <v>0.71</v>
+      </c>
+      <c r="AP130">
+        <v>1.43</v>
+      </c>
+      <c r="AQ130">
+        <v>0.63</v>
+      </c>
+      <c r="AR130">
+        <v>1.89</v>
+      </c>
+      <c r="AS130">
+        <v>1.4</v>
+      </c>
+      <c r="AT130">
+        <v>3.29</v>
+      </c>
+      <c r="AU130">
+        <v>7</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>7</v>
+      </c>
+      <c r="AX130">
+        <v>6</v>
+      </c>
+      <c r="AY130">
+        <v>20</v>
+      </c>
+      <c r="AZ130">
+        <v>15</v>
+      </c>
+      <c r="BA130">
+        <v>12</v>
+      </c>
+      <c r="BB130">
+        <v>4</v>
+      </c>
+      <c r="BC130">
+        <v>16</v>
+      </c>
+      <c r="BD130">
+        <v>1.74</v>
+      </c>
+      <c r="BE130">
+        <v>6.4</v>
+      </c>
+      <c r="BF130">
+        <v>2.23</v>
+      </c>
+      <c r="BG130">
+        <v>1.3</v>
+      </c>
+      <c r="BH130">
+        <v>3.15</v>
+      </c>
+      <c r="BI130">
+        <v>1.52</v>
+      </c>
+      <c r="BJ130">
+        <v>2.32</v>
+      </c>
+      <c r="BK130">
+        <v>1.86</v>
+      </c>
+      <c r="BL130">
+        <v>1.82</v>
+      </c>
+      <c r="BM130">
+        <v>2.33</v>
+      </c>
+      <c r="BN130">
+        <v>1.5</v>
+      </c>
+      <c r="BO130">
+        <v>3.05</v>
+      </c>
+      <c r="BP130">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7468996</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>84</v>
+      </c>
+      <c r="H131" t="s">
+        <v>70</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>183</v>
+      </c>
+      <c r="P131" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q131">
+        <v>3.1</v>
+      </c>
+      <c r="R131">
+        <v>2.05</v>
+      </c>
+      <c r="S131">
+        <v>3.75</v>
+      </c>
+      <c r="T131">
+        <v>1.5</v>
+      </c>
+      <c r="U131">
+        <v>2.5</v>
+      </c>
+      <c r="V131">
+        <v>3.4</v>
+      </c>
+      <c r="W131">
+        <v>1.3</v>
+      </c>
+      <c r="X131">
+        <v>10</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>2.17</v>
+      </c>
+      <c r="AA131">
+        <v>3.3</v>
+      </c>
+      <c r="AB131">
+        <v>2.96</v>
+      </c>
+      <c r="AC131">
+        <v>1.06</v>
+      </c>
+      <c r="AD131">
+        <v>8.5</v>
+      </c>
+      <c r="AE131">
+        <v>1.36</v>
+      </c>
+      <c r="AF131">
+        <v>2.95</v>
+      </c>
+      <c r="AG131">
+        <v>2.4</v>
+      </c>
+      <c r="AH131">
+        <v>1.53</v>
+      </c>
+      <c r="AI131">
+        <v>1.91</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.38</v>
+      </c>
+      <c r="AL131">
+        <v>1.28</v>
+      </c>
+      <c r="AM131">
+        <v>1.55</v>
+      </c>
+      <c r="AN131">
+        <v>2.5</v>
+      </c>
+      <c r="AO131">
+        <v>1.17</v>
+      </c>
+      <c r="AP131">
+        <v>2.57</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>1.33</v>
+      </c>
+      <c r="AS131">
+        <v>1.19</v>
+      </c>
+      <c r="AT131">
+        <v>2.52</v>
+      </c>
+      <c r="AU131">
+        <v>9</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
+        <v>6</v>
+      </c>
+      <c r="AX131">
+        <v>8</v>
+      </c>
+      <c r="AY131">
+        <v>18</v>
+      </c>
+      <c r="AZ131">
+        <v>16</v>
+      </c>
+      <c r="BA131">
+        <v>4</v>
+      </c>
+      <c r="BB131">
+        <v>5</v>
+      </c>
+      <c r="BC131">
+        <v>9</v>
+      </c>
+      <c r="BD131">
+        <v>1.78</v>
+      </c>
+      <c r="BE131">
+        <v>6.4</v>
+      </c>
+      <c r="BF131">
+        <v>2.12</v>
+      </c>
+      <c r="BG131">
+        <v>1.24</v>
+      </c>
+      <c r="BH131">
+        <v>3.55</v>
+      </c>
+      <c r="BI131">
+        <v>1.44</v>
+      </c>
+      <c r="BJ131">
+        <v>2.55</v>
+      </c>
+      <c r="BK131">
+        <v>1.7</v>
+      </c>
+      <c r="BL131">
+        <v>2.02</v>
+      </c>
+      <c r="BM131">
+        <v>2.05</v>
+      </c>
+      <c r="BN131">
+        <v>1.68</v>
+      </c>
+      <c r="BO131">
+        <v>2.55</v>
+      </c>
+      <c r="BP131">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7468998</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>87</v>
+      </c>
+      <c r="H132" t="s">
+        <v>83</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132" t="s">
+        <v>90</v>
+      </c>
+      <c r="P132" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q132">
+        <v>3.6</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>3.25</v>
+      </c>
+      <c r="T132">
+        <v>1.5</v>
+      </c>
+      <c r="U132">
+        <v>2.5</v>
+      </c>
+      <c r="V132">
+        <v>3.4</v>
+      </c>
+      <c r="W132">
+        <v>1.3</v>
+      </c>
+      <c r="X132">
+        <v>10</v>
+      </c>
+      <c r="Y132">
+        <v>1.06</v>
+      </c>
+      <c r="Z132">
+        <v>2.38</v>
+      </c>
+      <c r="AA132">
+        <v>3.4</v>
+      </c>
+      <c r="AB132">
+        <v>2.55</v>
+      </c>
+      <c r="AC132">
+        <v>1.06</v>
+      </c>
+      <c r="AD132">
+        <v>8.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.38</v>
+      </c>
+      <c r="AF132">
+        <v>2.9</v>
+      </c>
+      <c r="AG132">
+        <v>2.05</v>
+      </c>
+      <c r="AH132">
+        <v>1.67</v>
+      </c>
+      <c r="AI132">
+        <v>1.91</v>
+      </c>
+      <c r="AJ132">
+        <v>1.8</v>
+      </c>
+      <c r="AK132">
+        <v>1.53</v>
+      </c>
+      <c r="AL132">
+        <v>1.28</v>
+      </c>
+      <c r="AM132">
+        <v>1.42</v>
+      </c>
+      <c r="AN132">
+        <v>1.17</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AP132">
+        <v>1.14</v>
+      </c>
+      <c r="AQ132">
+        <v>1</v>
+      </c>
+      <c r="AR132">
+        <v>1.26</v>
+      </c>
+      <c r="AS132">
+        <v>1.23</v>
+      </c>
+      <c r="AT132">
+        <v>2.49</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AV132">
+        <v>11</v>
+      </c>
+      <c r="AW132">
+        <v>5</v>
+      </c>
+      <c r="AX132">
+        <v>3</v>
+      </c>
+      <c r="AY132">
+        <v>6</v>
+      </c>
+      <c r="AZ132">
+        <v>20</v>
+      </c>
+      <c r="BA132">
+        <v>2</v>
+      </c>
+      <c r="BB132">
+        <v>11</v>
+      </c>
+      <c r="BC132">
+        <v>13</v>
+      </c>
+      <c r="BD132">
+        <v>1.98</v>
+      </c>
+      <c r="BE132">
+        <v>6.5</v>
+      </c>
+      <c r="BF132">
+        <v>1.89</v>
+      </c>
+      <c r="BG132">
+        <v>1.26</v>
+      </c>
+      <c r="BH132">
+        <v>3.4</v>
+      </c>
+      <c r="BI132">
+        <v>1.46</v>
+      </c>
+      <c r="BJ132">
+        <v>2.5</v>
+      </c>
+      <c r="BK132">
+        <v>1.74</v>
+      </c>
+      <c r="BL132">
+        <v>1.97</v>
+      </c>
+      <c r="BM132">
+        <v>2.17</v>
+      </c>
+      <c r="BN132">
+        <v>1.6</v>
+      </c>
+      <c r="BO132">
+        <v>2.7</v>
+      </c>
+      <c r="BP132">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7469000</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45632.66666666666</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>80</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>184</v>
+      </c>
+      <c r="P133" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>2.1</v>
+      </c>
+      <c r="S133">
+        <v>3.6</v>
+      </c>
+      <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.63</v>
+      </c>
+      <c r="V133">
+        <v>3.25</v>
+      </c>
+      <c r="W133">
+        <v>1.33</v>
+      </c>
+      <c r="X133">
+        <v>9</v>
+      </c>
+      <c r="Y133">
+        <v>1.07</v>
+      </c>
+      <c r="Z133">
+        <v>1.92</v>
+      </c>
+      <c r="AA133">
+        <v>3.5</v>
+      </c>
+      <c r="AB133">
+        <v>3.37</v>
+      </c>
+      <c r="AC133">
+        <v>1.05</v>
+      </c>
+      <c r="AD133">
+        <v>9</v>
+      </c>
+      <c r="AE133">
+        <v>1.33</v>
+      </c>
+      <c r="AF133">
+        <v>3.2</v>
+      </c>
+      <c r="AG133">
+        <v>2.15</v>
+      </c>
+      <c r="AH133">
+        <v>1.67</v>
+      </c>
+      <c r="AI133">
+        <v>1.83</v>
+      </c>
+      <c r="AJ133">
+        <v>1.83</v>
+      </c>
+      <c r="AK133">
+        <v>1.38</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.62</v>
+      </c>
+      <c r="AN133">
+        <v>1.33</v>
+      </c>
+      <c r="AO133">
+        <v>0.67</v>
+      </c>
+      <c r="AP133">
+        <v>1.57</v>
+      </c>
+      <c r="AQ133">
+        <v>0.57</v>
+      </c>
+      <c r="AR133">
+        <v>1.34</v>
+      </c>
+      <c r="AS133">
+        <v>1.45</v>
+      </c>
+      <c r="AT133">
+        <v>2.79</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>5</v>
+      </c>
+      <c r="AW133">
+        <v>2</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>11</v>
+      </c>
+      <c r="BA133">
+        <v>4</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>7</v>
+      </c>
+      <c r="BD133">
+        <v>1.82</v>
+      </c>
+      <c r="BE133">
+        <v>6.1</v>
+      </c>
+      <c r="BF133">
+        <v>2.07</v>
+      </c>
+      <c r="BG133">
+        <v>1.36</v>
+      </c>
+      <c r="BH133">
+        <v>2.8</v>
+      </c>
+      <c r="BI133">
+        <v>1.63</v>
+      </c>
+      <c r="BJ133">
+        <v>2.15</v>
+      </c>
+      <c r="BK133">
+        <v>2</v>
+      </c>
+      <c r="BL133">
+        <v>1.71</v>
+      </c>
+      <c r="BM133">
+        <v>2.55</v>
+      </c>
+      <c r="BN133">
+        <v>1.44</v>
+      </c>
+      <c r="BO133">
+        <v>3.3</v>
+      </c>
+      <c r="BP133">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,13 +559,13 @@
     <t>['11', '77', '79', '90+6']</t>
   </si>
   <si>
-    <t>['29', '71']</t>
-  </si>
-  <si>
     <t>['88']</t>
   </si>
   <si>
     <t>['10', '90+7']</t>
+  </si>
+  <si>
+    <t>['29', '71']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -740,6 +740,12 @@
   </si>
   <si>
     <t>['13', '45+1', '54']</t>
+  </si>
+  <si>
+    <t>['55', '71']</t>
+  </si>
+  <si>
+    <t>['55', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1644,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -2262,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>1.38</v>
@@ -2677,7 +2683,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -4119,7 +4125,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ15">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5146,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>0.88</v>
@@ -5355,7 +5361,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -6382,7 +6388,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>0.63</v>
@@ -7827,7 +7833,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ33">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>2.15</v>
@@ -8648,7 +8654,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>0.57</v>
@@ -9269,7 +9275,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -10711,7 +10717,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR47">
         <v>1.49</v>
@@ -11738,7 +11744,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>0.57</v>
@@ -13592,7 +13598,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ61">
         <v>1</v>
@@ -13801,7 +13807,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR62">
         <v>1.16</v>
@@ -15240,7 +15246,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
         <v>1.33</v>
@@ -15574,7 +15580,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15861,7 +15867,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ72">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
         <v>1.72</v>
@@ -16888,7 +16894,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
         <v>1.43</v>
@@ -17715,7 +17721,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ81">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR81">
         <v>1.22</v>
@@ -18539,7 +18545,7 @@
         <v>2</v>
       </c>
       <c r="AQ85">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR85">
         <v>1.48</v>
@@ -20390,7 +20396,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ94">
         <v>1</v>
@@ -21011,7 +21017,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21629,7 +21635,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ100">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR100">
         <v>1.57</v>
@@ -23274,7 +23280,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108">
         <v>1.43</v>
@@ -23892,7 +23898,7 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ111">
         <v>1.17</v>
@@ -24304,7 +24310,7 @@
         <v>1.4</v>
       </c>
       <c r="AP113">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24719,7 +24725,7 @@
         <v>2</v>
       </c>
       <c r="AQ115">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR115">
         <v>1.51</v>
@@ -26161,7 +26167,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR122">
         <v>1.78</v>
@@ -27188,7 +27194,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127">
         <v>1</v>
@@ -27274,7 +27280,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7468999</v>
+        <v>7468993</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27283,34 +27289,34 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45632.66666666666</v>
+        <v>45631.875</v>
       </c>
       <c r="F128">
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H128" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M128">
         <v>0</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O128" t="s">
         <v>181</v>
@@ -27319,13 +27325,13 @@
         <v>90</v>
       </c>
       <c r="Q128">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="R128">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S128">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="T128">
         <v>1.36</v>
@@ -27334,145 +27340,145 @@
         <v>3</v>
       </c>
       <c r="V128">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W128">
+        <v>1.44</v>
+      </c>
+      <c r="X128">
+        <v>7</v>
+      </c>
+      <c r="Y128">
+        <v>1.1</v>
+      </c>
+      <c r="Z128">
+        <v>1.93</v>
+      </c>
+      <c r="AA128">
+        <v>3.4</v>
+      </c>
+      <c r="AB128">
+        <v>3.55</v>
+      </c>
+      <c r="AC128">
+        <v>1.05</v>
+      </c>
+      <c r="AD128">
+        <v>9.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.25</v>
+      </c>
+      <c r="AF128">
+        <v>3.75</v>
+      </c>
+      <c r="AG128">
+        <v>1.73</v>
+      </c>
+      <c r="AH128">
+        <v>2</v>
+      </c>
+      <c r="AI128">
+        <v>1.67</v>
+      </c>
+      <c r="AJ128">
+        <v>2.1</v>
+      </c>
+      <c r="AK128">
+        <v>1.36</v>
+      </c>
+      <c r="AL128">
+        <v>1.22</v>
+      </c>
+      <c r="AM128">
+        <v>1.66</v>
+      </c>
+      <c r="AN128">
+        <v>1.17</v>
+      </c>
+      <c r="AO128">
+        <v>0.71</v>
+      </c>
+      <c r="AP128">
+        <v>1.43</v>
+      </c>
+      <c r="AQ128">
+        <v>0.63</v>
+      </c>
+      <c r="AR128">
+        <v>1.89</v>
+      </c>
+      <c r="AS128">
         <v>1.4</v>
       </c>
-      <c r="X128">
-        <v>8</v>
-      </c>
-      <c r="Y128">
-        <v>1.08</v>
-      </c>
-      <c r="Z128">
-        <v>1.45</v>
-      </c>
-      <c r="AA128">
-        <v>4.2</v>
-      </c>
-      <c r="AB128">
-        <v>5.7</v>
-      </c>
-      <c r="AC128">
-        <v>1.04</v>
-      </c>
-      <c r="AD128">
-        <v>10</v>
-      </c>
-      <c r="AE128">
-        <v>1.28</v>
-      </c>
-      <c r="AF128">
-        <v>3.5</v>
-      </c>
-      <c r="AG128">
-        <v>2.2</v>
-      </c>
-      <c r="AH128">
-        <v>1.6</v>
-      </c>
-      <c r="AI128">
-        <v>2</v>
-      </c>
-      <c r="AJ128">
-        <v>1.73</v>
-      </c>
-      <c r="AK128">
-        <v>1.07</v>
-      </c>
-      <c r="AL128">
-        <v>1.17</v>
-      </c>
-      <c r="AM128">
-        <v>2.55</v>
-      </c>
-      <c r="AN128">
-        <v>3</v>
-      </c>
-      <c r="AO128">
-        <v>1</v>
-      </c>
-      <c r="AP128">
-        <v>3</v>
-      </c>
-      <c r="AQ128">
-        <v>0.88</v>
-      </c>
-      <c r="AR128">
-        <v>1.83</v>
-      </c>
-      <c r="AS128">
-        <v>1.33</v>
-      </c>
       <c r="AT128">
-        <v>3.16</v>
+        <v>3.29</v>
       </c>
       <c r="AU128">
+        <v>7</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>7</v>
+      </c>
+      <c r="AX128">
         <v>6</v>
       </c>
-      <c r="AV128">
-        <v>2</v>
-      </c>
-      <c r="AW128">
-        <v>5</v>
-      </c>
-      <c r="AX128">
+      <c r="AY128">
+        <v>20</v>
+      </c>
+      <c r="AZ128">
+        <v>15</v>
+      </c>
+      <c r="BA128">
+        <v>12</v>
+      </c>
+      <c r="BB128">
         <v>4</v>
       </c>
-      <c r="AY128">
-        <v>13</v>
-      </c>
-      <c r="AZ128">
-        <v>8</v>
-      </c>
-      <c r="BA128">
-        <v>2</v>
-      </c>
-      <c r="BB128">
-        <v>5</v>
-      </c>
       <c r="BC128">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BD128">
+        <v>1.74</v>
+      </c>
+      <c r="BE128">
+        <v>6.4</v>
+      </c>
+      <c r="BF128">
+        <v>2.23</v>
+      </c>
+      <c r="BG128">
         <v>1.3</v>
       </c>
-      <c r="BE128">
-        <v>7</v>
-      </c>
-      <c r="BF128">
-        <v>3.45</v>
-      </c>
-      <c r="BG128">
-        <v>1.25</v>
-      </c>
       <c r="BH128">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BI128">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BJ128">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="BK128">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="BL128">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="BM128">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="BN128">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BO128">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP128">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27480,7 +27486,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7468992</v>
+        <v>7468996</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27489,196 +27495,196 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45632.66666666666</v>
+        <v>45631.875</v>
       </c>
       <c r="F129">
         <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H129" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O129" t="s">
+        <v>182</v>
+      </c>
+      <c r="P129" t="s">
         <v>90</v>
       </c>
-      <c r="P129" t="s">
-        <v>182</v>
-      </c>
       <c r="Q129">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="R129">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S129">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="T129">
+        <v>1.5</v>
+      </c>
+      <c r="U129">
+        <v>2.5</v>
+      </c>
+      <c r="V129">
+        <v>3.4</v>
+      </c>
+      <c r="W129">
+        <v>1.3</v>
+      </c>
+      <c r="X129">
+        <v>10</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>2.17</v>
+      </c>
+      <c r="AA129">
+        <v>3.3</v>
+      </c>
+      <c r="AB129">
+        <v>2.96</v>
+      </c>
+      <c r="AC129">
+        <v>1.06</v>
+      </c>
+      <c r="AD129">
+        <v>8.5</v>
+      </c>
+      <c r="AE129">
         <v>1.36</v>
       </c>
-      <c r="U129">
-        <v>3</v>
-      </c>
-      <c r="V129">
-        <v>2.75</v>
-      </c>
-      <c r="W129">
-        <v>1.4</v>
-      </c>
-      <c r="X129">
-        <v>7</v>
-      </c>
-      <c r="Y129">
-        <v>1.1</v>
-      </c>
-      <c r="Z129">
-        <v>3.37</v>
-      </c>
-      <c r="AA129">
-        <v>3.5</v>
-      </c>
-      <c r="AB129">
-        <v>1.92</v>
-      </c>
-      <c r="AC129">
-        <v>1.04</v>
-      </c>
-      <c r="AD129">
-        <v>10</v>
-      </c>
-      <c r="AE129">
-        <v>1.25</v>
-      </c>
       <c r="AF129">
-        <v>3.75</v>
+        <v>2.95</v>
       </c>
       <c r="AG129">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="AH129">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="AI129">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AJ129">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AK129">
-        <v>2.25</v>
+        <v>1.38</v>
       </c>
       <c r="AL129">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM129">
-        <v>1.12</v>
+        <v>1.55</v>
       </c>
       <c r="AN129">
-        <v>0.13</v>
+        <v>2.5</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP129">
-        <v>0.11</v>
+        <v>2.57</v>
       </c>
       <c r="AQ129">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR129">
-        <v>0.99</v>
+        <v>1.33</v>
       </c>
       <c r="AS129">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AT129">
-        <v>2.49</v>
+        <v>2.52</v>
       </c>
       <c r="AU129">
+        <v>9</v>
+      </c>
+      <c r="AV129">
         <v>4</v>
       </c>
-      <c r="AV129">
-        <v>3</v>
-      </c>
       <c r="AW129">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX129">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY129">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ129">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA129">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC129">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD129">
-        <v>2.8</v>
+        <v>1.78</v>
       </c>
       <c r="BE129">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF129">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="BG129">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="BH129">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="BI129">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="BJ129">
-        <v>2.07</v>
+        <v>2.55</v>
       </c>
       <c r="BK129">
+        <v>1.7</v>
+      </c>
+      <c r="BL129">
+        <v>2.02</v>
+      </c>
+      <c r="BM129">
         <v>2.05</v>
       </c>
-      <c r="BL129">
+      <c r="BN129">
         <v>1.68</v>
       </c>
-      <c r="BM129">
-        <v>2.65</v>
-      </c>
-      <c r="BN129">
-        <v>1.42</v>
-      </c>
       <c r="BO129">
-        <v>3.45</v>
+        <v>2.55</v>
       </c>
       <c r="BP129">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27686,7 +27692,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7468993</v>
+        <v>7468999</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27701,43 +27707,43 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H130" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O130" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P130" t="s">
         <v>90</v>
       </c>
       <c r="Q130">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R130">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S130">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="T130">
         <v>1.36</v>
@@ -27746,145 +27752,145 @@
         <v>3</v>
       </c>
       <c r="V130">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W130">
+        <v>1.4</v>
+      </c>
+      <c r="X130">
+        <v>8</v>
+      </c>
+      <c r="Y130">
+        <v>1.08</v>
+      </c>
+      <c r="Z130">
+        <v>1.45</v>
+      </c>
+      <c r="AA130">
+        <v>4.2</v>
+      </c>
+      <c r="AB130">
+        <v>5.7</v>
+      </c>
+      <c r="AC130">
+        <v>1.04</v>
+      </c>
+      <c r="AD130">
+        <v>10</v>
+      </c>
+      <c r="AE130">
+        <v>1.28</v>
+      </c>
+      <c r="AF130">
+        <v>3.5</v>
+      </c>
+      <c r="AG130">
+        <v>2.2</v>
+      </c>
+      <c r="AH130">
+        <v>1.6</v>
+      </c>
+      <c r="AI130">
+        <v>2</v>
+      </c>
+      <c r="AJ130">
+        <v>1.73</v>
+      </c>
+      <c r="AK130">
+        <v>1.07</v>
+      </c>
+      <c r="AL130">
+        <v>1.17</v>
+      </c>
+      <c r="AM130">
+        <v>2.55</v>
+      </c>
+      <c r="AN130">
+        <v>3</v>
+      </c>
+      <c r="AO130">
+        <v>1</v>
+      </c>
+      <c r="AP130">
+        <v>3</v>
+      </c>
+      <c r="AQ130">
+        <v>0.88</v>
+      </c>
+      <c r="AR130">
+        <v>1.83</v>
+      </c>
+      <c r="AS130">
+        <v>1.33</v>
+      </c>
+      <c r="AT130">
+        <v>3.16</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>2</v>
+      </c>
+      <c r="AW130">
+        <v>5</v>
+      </c>
+      <c r="AX130">
+        <v>4</v>
+      </c>
+      <c r="AY130">
+        <v>13</v>
+      </c>
+      <c r="AZ130">
+        <v>8</v>
+      </c>
+      <c r="BA130">
+        <v>2</v>
+      </c>
+      <c r="BB130">
+        <v>5</v>
+      </c>
+      <c r="BC130">
+        <v>7</v>
+      </c>
+      <c r="BD130">
+        <v>1.3</v>
+      </c>
+      <c r="BE130">
+        <v>7</v>
+      </c>
+      <c r="BF130">
+        <v>3.45</v>
+      </c>
+      <c r="BG130">
+        <v>1.25</v>
+      </c>
+      <c r="BH130">
+        <v>3.45</v>
+      </c>
+      <c r="BI130">
         <v>1.44</v>
       </c>
-      <c r="X130">
-        <v>7</v>
-      </c>
-      <c r="Y130">
-        <v>1.1</v>
-      </c>
-      <c r="Z130">
-        <v>1.93</v>
-      </c>
-      <c r="AA130">
-        <v>3.4</v>
-      </c>
-      <c r="AB130">
-        <v>3.55</v>
-      </c>
-      <c r="AC130">
-        <v>1.05</v>
-      </c>
-      <c r="AD130">
-        <v>9.5</v>
-      </c>
-      <c r="AE130">
-        <v>1.25</v>
-      </c>
-      <c r="AF130">
-        <v>3.75</v>
-      </c>
-      <c r="AG130">
-        <v>1.73</v>
-      </c>
-      <c r="AH130">
-        <v>2</v>
-      </c>
-      <c r="AI130">
-        <v>1.67</v>
-      </c>
-      <c r="AJ130">
-        <v>2.1</v>
-      </c>
-      <c r="AK130">
-        <v>1.36</v>
-      </c>
-      <c r="AL130">
-        <v>1.22</v>
-      </c>
-      <c r="AM130">
-        <v>1.66</v>
-      </c>
-      <c r="AN130">
-        <v>1.17</v>
-      </c>
-      <c r="AO130">
-        <v>0.71</v>
-      </c>
-      <c r="AP130">
-        <v>1.43</v>
-      </c>
-      <c r="AQ130">
-        <v>0.63</v>
-      </c>
-      <c r="AR130">
-        <v>1.89</v>
-      </c>
-      <c r="AS130">
-        <v>1.4</v>
-      </c>
-      <c r="AT130">
-        <v>3.29</v>
-      </c>
-      <c r="AU130">
-        <v>7</v>
-      </c>
-      <c r="AV130">
-        <v>5</v>
-      </c>
-      <c r="AW130">
-        <v>7</v>
-      </c>
-      <c r="AX130">
-        <v>6</v>
-      </c>
-      <c r="AY130">
-        <v>20</v>
-      </c>
-      <c r="AZ130">
-        <v>15</v>
-      </c>
-      <c r="BA130">
-        <v>12</v>
-      </c>
-      <c r="BB130">
-        <v>4</v>
-      </c>
-      <c r="BC130">
-        <v>16</v>
-      </c>
-      <c r="BD130">
-        <v>1.74</v>
-      </c>
-      <c r="BE130">
-        <v>6.4</v>
-      </c>
-      <c r="BF130">
-        <v>2.23</v>
-      </c>
-      <c r="BG130">
-        <v>1.3</v>
-      </c>
-      <c r="BH130">
-        <v>3.15</v>
-      </c>
-      <c r="BI130">
-        <v>1.52</v>
-      </c>
       <c r="BJ130">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="BK130">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="BL130">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="BM130">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="BN130">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="BO130">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BP130">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27892,7 +27898,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7468996</v>
+        <v>7468992</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27907,190 +27913,190 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H131" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O131" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="P131" t="s">
-        <v>90</v>
+        <v>181</v>
       </c>
       <c r="Q131">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="R131">
+        <v>2.25</v>
+      </c>
+      <c r="S131">
+        <v>2.2</v>
+      </c>
+      <c r="T131">
+        <v>1.36</v>
+      </c>
+      <c r="U131">
+        <v>3</v>
+      </c>
+      <c r="V131">
+        <v>2.75</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>7</v>
+      </c>
+      <c r="Y131">
+        <v>1.1</v>
+      </c>
+      <c r="Z131">
+        <v>3.37</v>
+      </c>
+      <c r="AA131">
+        <v>3.5</v>
+      </c>
+      <c r="AB131">
+        <v>1.92</v>
+      </c>
+      <c r="AC131">
+        <v>1.04</v>
+      </c>
+      <c r="AD131">
+        <v>10</v>
+      </c>
+      <c r="AE131">
+        <v>1.25</v>
+      </c>
+      <c r="AF131">
+        <v>3.75</v>
+      </c>
+      <c r="AG131">
+        <v>1.75</v>
+      </c>
+      <c r="AH131">
+        <v>1.95</v>
+      </c>
+      <c r="AI131">
+        <v>1.83</v>
+      </c>
+      <c r="AJ131">
+        <v>1.83</v>
+      </c>
+      <c r="AK131">
+        <v>2.25</v>
+      </c>
+      <c r="AL131">
+        <v>1.18</v>
+      </c>
+      <c r="AM131">
+        <v>1.12</v>
+      </c>
+      <c r="AN131">
+        <v>0.13</v>
+      </c>
+      <c r="AO131">
+        <v>1</v>
+      </c>
+      <c r="AP131">
+        <v>0.11</v>
+      </c>
+      <c r="AQ131">
+        <v>1.29</v>
+      </c>
+      <c r="AR131">
+        <v>0.99</v>
+      </c>
+      <c r="AS131">
+        <v>1.5</v>
+      </c>
+      <c r="AT131">
+        <v>2.49</v>
+      </c>
+      <c r="AU131">
+        <v>4</v>
+      </c>
+      <c r="AV131">
+        <v>3</v>
+      </c>
+      <c r="AW131">
+        <v>3</v>
+      </c>
+      <c r="AX131">
+        <v>7</v>
+      </c>
+      <c r="AY131">
+        <v>12</v>
+      </c>
+      <c r="AZ131">
+        <v>14</v>
+      </c>
+      <c r="BA131">
+        <v>8</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>2.8</v>
+      </c>
+      <c r="BE131">
+        <v>6.5</v>
+      </c>
+      <c r="BF131">
+        <v>1.53</v>
+      </c>
+      <c r="BG131">
+        <v>1.4</v>
+      </c>
+      <c r="BH131">
+        <v>2.7</v>
+      </c>
+      <c r="BI131">
+        <v>1.66</v>
+      </c>
+      <c r="BJ131">
+        <v>2.07</v>
+      </c>
+      <c r="BK131">
         <v>2.05</v>
       </c>
-      <c r="S131">
-        <v>3.75</v>
-      </c>
-      <c r="T131">
-        <v>1.5</v>
-      </c>
-      <c r="U131">
-        <v>2.5</v>
-      </c>
-      <c r="V131">
-        <v>3.4</v>
-      </c>
-      <c r="W131">
-        <v>1.3</v>
-      </c>
-      <c r="X131">
-        <v>10</v>
-      </c>
-      <c r="Y131">
-        <v>1.06</v>
-      </c>
-      <c r="Z131">
-        <v>2.17</v>
-      </c>
-      <c r="AA131">
-        <v>3.3</v>
-      </c>
-      <c r="AB131">
-        <v>2.96</v>
-      </c>
-      <c r="AC131">
-        <v>1.06</v>
-      </c>
-      <c r="AD131">
-        <v>8.5</v>
-      </c>
-      <c r="AE131">
-        <v>1.36</v>
-      </c>
-      <c r="AF131">
-        <v>2.95</v>
-      </c>
-      <c r="AG131">
-        <v>2.4</v>
-      </c>
-      <c r="AH131">
-        <v>1.53</v>
-      </c>
-      <c r="AI131">
-        <v>1.91</v>
-      </c>
-      <c r="AJ131">
-        <v>1.8</v>
-      </c>
-      <c r="AK131">
-        <v>1.38</v>
-      </c>
-      <c r="AL131">
-        <v>1.28</v>
-      </c>
-      <c r="AM131">
-        <v>1.55</v>
-      </c>
-      <c r="AN131">
-        <v>2.5</v>
-      </c>
-      <c r="AO131">
-        <v>1.17</v>
-      </c>
-      <c r="AP131">
-        <v>2.57</v>
-      </c>
-      <c r="AQ131">
-        <v>1</v>
-      </c>
-      <c r="AR131">
-        <v>1.33</v>
-      </c>
-      <c r="AS131">
-        <v>1.19</v>
-      </c>
-      <c r="AT131">
-        <v>2.52</v>
-      </c>
-      <c r="AU131">
-        <v>9</v>
-      </c>
-      <c r="AV131">
-        <v>4</v>
-      </c>
-      <c r="AW131">
-        <v>6</v>
-      </c>
-      <c r="AX131">
-        <v>8</v>
-      </c>
-      <c r="AY131">
-        <v>18</v>
-      </c>
-      <c r="AZ131">
-        <v>16</v>
-      </c>
-      <c r="BA131">
-        <v>4</v>
-      </c>
-      <c r="BB131">
-        <v>5</v>
-      </c>
-      <c r="BC131">
-        <v>9</v>
-      </c>
-      <c r="BD131">
-        <v>1.78</v>
-      </c>
-      <c r="BE131">
-        <v>6.4</v>
-      </c>
-      <c r="BF131">
-        <v>2.12</v>
-      </c>
-      <c r="BG131">
-        <v>1.24</v>
-      </c>
-      <c r="BH131">
-        <v>3.55</v>
-      </c>
-      <c r="BI131">
-        <v>1.44</v>
-      </c>
-      <c r="BJ131">
-        <v>2.55</v>
-      </c>
-      <c r="BK131">
-        <v>1.7</v>
-      </c>
       <c r="BL131">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="BM131">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="BN131">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="BO131">
-        <v>2.55</v>
+        <v>3.45</v>
       </c>
       <c r="BP131">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28502,6 +28508,418 @@
         <v>3.3</v>
       </c>
       <c r="BP133">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7468994</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45633.41666666666</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>74</v>
+      </c>
+      <c r="H134" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>90</v>
+      </c>
+      <c r="P134" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q134">
+        <v>3.2</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>3.75</v>
+      </c>
+      <c r="T134">
+        <v>1.5</v>
+      </c>
+      <c r="U134">
+        <v>2.5</v>
+      </c>
+      <c r="V134">
+        <v>3.5</v>
+      </c>
+      <c r="W134">
+        <v>1.29</v>
+      </c>
+      <c r="X134">
+        <v>10</v>
+      </c>
+      <c r="Y134">
+        <v>1.06</v>
+      </c>
+      <c r="Z134">
+        <v>2.3</v>
+      </c>
+      <c r="AA134">
+        <v>3.4</v>
+      </c>
+      <c r="AB134">
+        <v>2.8</v>
+      </c>
+      <c r="AC134">
+        <v>1.07</v>
+      </c>
+      <c r="AD134">
+        <v>8.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.42</v>
+      </c>
+      <c r="AF134">
+        <v>2.7</v>
+      </c>
+      <c r="AG134">
+        <v>2.3</v>
+      </c>
+      <c r="AH134">
+        <v>1.54</v>
+      </c>
+      <c r="AI134">
+        <v>2</v>
+      </c>
+      <c r="AJ134">
+        <v>1.73</v>
+      </c>
+      <c r="AK134">
+        <v>1.38</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.57</v>
+      </c>
+      <c r="AN134">
+        <v>2</v>
+      </c>
+      <c r="AO134">
+        <v>0.43</v>
+      </c>
+      <c r="AP134">
+        <v>1.75</v>
+      </c>
+      <c r="AQ134">
+        <v>0.75</v>
+      </c>
+      <c r="AR134">
+        <v>1.08</v>
+      </c>
+      <c r="AS134">
+        <v>1.24</v>
+      </c>
+      <c r="AT134">
+        <v>2.32</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>7</v>
+      </c>
+      <c r="AW134">
+        <v>4</v>
+      </c>
+      <c r="AX134">
+        <v>8</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>18</v>
+      </c>
+      <c r="BA134">
+        <v>2</v>
+      </c>
+      <c r="BB134">
+        <v>6</v>
+      </c>
+      <c r="BC134">
+        <v>8</v>
+      </c>
+      <c r="BD134">
+        <v>1.82</v>
+      </c>
+      <c r="BE134">
+        <v>6.4</v>
+      </c>
+      <c r="BF134">
+        <v>2.07</v>
+      </c>
+      <c r="BG134">
+        <v>1.27</v>
+      </c>
+      <c r="BH134">
+        <v>3.3</v>
+      </c>
+      <c r="BI134">
+        <v>1.46</v>
+      </c>
+      <c r="BJ134">
+        <v>2.48</v>
+      </c>
+      <c r="BK134">
+        <v>1.74</v>
+      </c>
+      <c r="BL134">
+        <v>1.95</v>
+      </c>
+      <c r="BM134">
+        <v>2.17</v>
+      </c>
+      <c r="BN134">
+        <v>1.6</v>
+      </c>
+      <c r="BO134">
+        <v>2.7</v>
+      </c>
+      <c r="BP134">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7468995</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45633.66666666666</v>
+      </c>
+      <c r="F135">
+        <v>15</v>
+      </c>
+      <c r="G135" t="s">
+        <v>71</v>
+      </c>
+      <c r="H135" t="s">
+        <v>85</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>90</v>
+      </c>
+      <c r="P135" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q135">
+        <v>5</v>
+      </c>
+      <c r="R135">
+        <v>2.05</v>
+      </c>
+      <c r="S135">
+        <v>2.6</v>
+      </c>
+      <c r="T135">
+        <v>1.5</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>3.4</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>10</v>
+      </c>
+      <c r="Y135">
+        <v>1.06</v>
+      </c>
+      <c r="Z135">
+        <v>4.33</v>
+      </c>
+      <c r="AA135">
+        <v>3.45</v>
+      </c>
+      <c r="AB135">
+        <v>1.83</v>
+      </c>
+      <c r="AC135">
+        <v>1.07</v>
+      </c>
+      <c r="AD135">
+        <v>8</v>
+      </c>
+      <c r="AE135">
+        <v>1.4</v>
+      </c>
+      <c r="AF135">
+        <v>2.8</v>
+      </c>
+      <c r="AG135">
+        <v>2.3</v>
+      </c>
+      <c r="AH135">
+        <v>1.54</v>
+      </c>
+      <c r="AI135">
+        <v>2</v>
+      </c>
+      <c r="AJ135">
+        <v>1.73</v>
+      </c>
+      <c r="AK135">
+        <v>1.87</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.18</v>
+      </c>
+      <c r="AN135">
+        <v>2</v>
+      </c>
+      <c r="AO135">
+        <v>2</v>
+      </c>
+      <c r="AP135">
+        <v>1.75</v>
+      </c>
+      <c r="AQ135">
+        <v>2.13</v>
+      </c>
+      <c r="AR135">
+        <v>1.14</v>
+      </c>
+      <c r="AS135">
+        <v>1.43</v>
+      </c>
+      <c r="AT135">
+        <v>2.57</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135">
+        <v>2</v>
+      </c>
+      <c r="AX135">
+        <v>3</v>
+      </c>
+      <c r="AY135">
+        <v>11</v>
+      </c>
+      <c r="AZ135">
+        <v>14</v>
+      </c>
+      <c r="BA135">
+        <v>3</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>8</v>
+      </c>
+      <c r="BD135">
+        <v>2.4</v>
+      </c>
+      <c r="BE135">
+        <v>6.25</v>
+      </c>
+      <c r="BF135">
+        <v>1.65</v>
+      </c>
+      <c r="BG135">
+        <v>1.38</v>
+      </c>
+      <c r="BH135">
+        <v>2.8</v>
+      </c>
+      <c r="BI135">
+        <v>1.63</v>
+      </c>
+      <c r="BJ135">
+        <v>2.12</v>
+      </c>
+      <c r="BK135">
+        <v>1.98</v>
+      </c>
+      <c r="BL135">
+        <v>1.72</v>
+      </c>
+      <c r="BM135">
+        <v>2.55</v>
+      </c>
+      <c r="BN135">
+        <v>1.45</v>
+      </c>
+      <c r="BO135">
+        <v>3.3</v>
+      </c>
+      <c r="BP135">
         <v>1.27</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -559,13 +559,13 @@
     <t>['11', '77', '79', '90+6']</t>
   </si>
   <si>
+    <t>['29', '71']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
     <t>['10', '90+7']</t>
-  </si>
-  <si>
-    <t>['29', '71']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -15580,7 +15580,7 @@
         <v>146</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -27280,7 +27280,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7468993</v>
+        <v>7468999</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27289,34 +27289,34 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45631.875</v>
+        <v>45632.66666666666</v>
       </c>
       <c r="F128">
         <v>15</v>
       </c>
       <c r="G128" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H128" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M128">
         <v>0</v>
       </c>
       <c r="N128">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O128" t="s">
         <v>181</v>
@@ -27325,13 +27325,13 @@
         <v>90</v>
       </c>
       <c r="Q128">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="R128">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S128">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="T128">
         <v>1.36</v>
@@ -27340,145 +27340,145 @@
         <v>3</v>
       </c>
       <c r="V128">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>8</v>
+      </c>
+      <c r="Y128">
+        <v>1.08</v>
+      </c>
+      <c r="Z128">
+        <v>1.45</v>
+      </c>
+      <c r="AA128">
+        <v>4.2</v>
+      </c>
+      <c r="AB128">
+        <v>5.7</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>10</v>
+      </c>
+      <c r="AE128">
+        <v>1.28</v>
+      </c>
+      <c r="AF128">
+        <v>3.5</v>
+      </c>
+      <c r="AG128">
+        <v>2.2</v>
+      </c>
+      <c r="AH128">
+        <v>1.6</v>
+      </c>
+      <c r="AI128">
+        <v>2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.73</v>
+      </c>
+      <c r="AK128">
+        <v>1.07</v>
+      </c>
+      <c r="AL128">
+        <v>1.17</v>
+      </c>
+      <c r="AM128">
+        <v>2.55</v>
+      </c>
+      <c r="AN128">
+        <v>3</v>
+      </c>
+      <c r="AO128">
+        <v>1</v>
+      </c>
+      <c r="AP128">
+        <v>3</v>
+      </c>
+      <c r="AQ128">
+        <v>0.88</v>
+      </c>
+      <c r="AR128">
+        <v>1.83</v>
+      </c>
+      <c r="AS128">
+        <v>1.33</v>
+      </c>
+      <c r="AT128">
+        <v>3.16</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>2</v>
+      </c>
+      <c r="AW128">
+        <v>5</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>13</v>
+      </c>
+      <c r="AZ128">
+        <v>8</v>
+      </c>
+      <c r="BA128">
+        <v>2</v>
+      </c>
+      <c r="BB128">
+        <v>5</v>
+      </c>
+      <c r="BC128">
+        <v>7</v>
+      </c>
+      <c r="BD128">
+        <v>1.3</v>
+      </c>
+      <c r="BE128">
+        <v>7</v>
+      </c>
+      <c r="BF128">
+        <v>3.45</v>
+      </c>
+      <c r="BG128">
+        <v>1.25</v>
+      </c>
+      <c r="BH128">
+        <v>3.45</v>
+      </c>
+      <c r="BI128">
         <v>1.44</v>
       </c>
-      <c r="X128">
-        <v>7</v>
-      </c>
-      <c r="Y128">
-        <v>1.1</v>
-      </c>
-      <c r="Z128">
-        <v>1.93</v>
-      </c>
-      <c r="AA128">
-        <v>3.4</v>
-      </c>
-      <c r="AB128">
-        <v>3.55</v>
-      </c>
-      <c r="AC128">
-        <v>1.05</v>
-      </c>
-      <c r="AD128">
-        <v>9.5</v>
-      </c>
-      <c r="AE128">
-        <v>1.25</v>
-      </c>
-      <c r="AF128">
-        <v>3.75</v>
-      </c>
-      <c r="AG128">
-        <v>1.73</v>
-      </c>
-      <c r="AH128">
-        <v>2</v>
-      </c>
-      <c r="AI128">
-        <v>1.67</v>
-      </c>
-      <c r="AJ128">
-        <v>2.1</v>
-      </c>
-      <c r="AK128">
-        <v>1.36</v>
-      </c>
-      <c r="AL128">
-        <v>1.22</v>
-      </c>
-      <c r="AM128">
-        <v>1.66</v>
-      </c>
-      <c r="AN128">
-        <v>1.17</v>
-      </c>
-      <c r="AO128">
-        <v>0.71</v>
-      </c>
-      <c r="AP128">
-        <v>1.43</v>
-      </c>
-      <c r="AQ128">
-        <v>0.63</v>
-      </c>
-      <c r="AR128">
-        <v>1.89</v>
-      </c>
-      <c r="AS128">
-        <v>1.4</v>
-      </c>
-      <c r="AT128">
-        <v>3.29</v>
-      </c>
-      <c r="AU128">
-        <v>7</v>
-      </c>
-      <c r="AV128">
-        <v>5</v>
-      </c>
-      <c r="AW128">
-        <v>7</v>
-      </c>
-      <c r="AX128">
-        <v>6</v>
-      </c>
-      <c r="AY128">
-        <v>20</v>
-      </c>
-      <c r="AZ128">
-        <v>15</v>
-      </c>
-      <c r="BA128">
-        <v>12</v>
-      </c>
-      <c r="BB128">
-        <v>4</v>
-      </c>
-      <c r="BC128">
-        <v>16</v>
-      </c>
-      <c r="BD128">
-        <v>1.74</v>
-      </c>
-      <c r="BE128">
-        <v>6.4</v>
-      </c>
-      <c r="BF128">
-        <v>2.23</v>
-      </c>
-      <c r="BG128">
-        <v>1.3</v>
-      </c>
-      <c r="BH128">
-        <v>3.15</v>
-      </c>
-      <c r="BI128">
-        <v>1.52</v>
-      </c>
       <c r="BJ128">
-        <v>2.32</v>
+        <v>2.55</v>
       </c>
       <c r="BK128">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="BL128">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="BM128">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="BN128">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="BO128">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BP128">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27486,7 +27486,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7468996</v>
+        <v>7468992</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27495,196 +27495,196 @@
         <v>69</v>
       </c>
       <c r="E129" s="2">
-        <v>45631.875</v>
+        <v>45632.66666666666</v>
       </c>
       <c r="F129">
         <v>15</v>
       </c>
       <c r="G129" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H129" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129">
         <v>0</v>
       </c>
       <c r="K129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O129" t="s">
+        <v>90</v>
+      </c>
+      <c r="P129" t="s">
         <v>182</v>
       </c>
-      <c r="P129" t="s">
-        <v>90</v>
-      </c>
       <c r="Q129">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="R129">
+        <v>2.25</v>
+      </c>
+      <c r="S129">
+        <v>2.2</v>
+      </c>
+      <c r="T129">
+        <v>1.36</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.75</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>7</v>
+      </c>
+      <c r="Y129">
+        <v>1.1</v>
+      </c>
+      <c r="Z129">
+        <v>3.37</v>
+      </c>
+      <c r="AA129">
+        <v>3.5</v>
+      </c>
+      <c r="AB129">
+        <v>1.92</v>
+      </c>
+      <c r="AC129">
+        <v>1.04</v>
+      </c>
+      <c r="AD129">
+        <v>10</v>
+      </c>
+      <c r="AE129">
+        <v>1.25</v>
+      </c>
+      <c r="AF129">
+        <v>3.75</v>
+      </c>
+      <c r="AG129">
+        <v>1.75</v>
+      </c>
+      <c r="AH129">
+        <v>1.95</v>
+      </c>
+      <c r="AI129">
+        <v>1.83</v>
+      </c>
+      <c r="AJ129">
+        <v>1.83</v>
+      </c>
+      <c r="AK129">
+        <v>2.25</v>
+      </c>
+      <c r="AL129">
+        <v>1.18</v>
+      </c>
+      <c r="AM129">
+        <v>1.12</v>
+      </c>
+      <c r="AN129">
+        <v>0.13</v>
+      </c>
+      <c r="AO129">
+        <v>1</v>
+      </c>
+      <c r="AP129">
+        <v>0.11</v>
+      </c>
+      <c r="AQ129">
+        <v>1.29</v>
+      </c>
+      <c r="AR129">
+        <v>0.99</v>
+      </c>
+      <c r="AS129">
+        <v>1.5</v>
+      </c>
+      <c r="AT129">
+        <v>2.49</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
+        <v>3</v>
+      </c>
+      <c r="AX129">
+        <v>7</v>
+      </c>
+      <c r="AY129">
+        <v>13</v>
+      </c>
+      <c r="AZ129">
+        <v>14</v>
+      </c>
+      <c r="BA129">
+        <v>8</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>12</v>
+      </c>
+      <c r="BD129">
+        <v>2.8</v>
+      </c>
+      <c r="BE129">
+        <v>6.5</v>
+      </c>
+      <c r="BF129">
+        <v>1.53</v>
+      </c>
+      <c r="BG129">
+        <v>1.4</v>
+      </c>
+      <c r="BH129">
+        <v>2.7</v>
+      </c>
+      <c r="BI129">
+        <v>1.66</v>
+      </c>
+      <c r="BJ129">
+        <v>2.07</v>
+      </c>
+      <c r="BK129">
         <v>2.05</v>
       </c>
-      <c r="S129">
-        <v>3.75</v>
-      </c>
-      <c r="T129">
-        <v>1.5</v>
-      </c>
-      <c r="U129">
-        <v>2.5</v>
-      </c>
-      <c r="V129">
-        <v>3.4</v>
-      </c>
-      <c r="W129">
-        <v>1.3</v>
-      </c>
-      <c r="X129">
-        <v>10</v>
-      </c>
-      <c r="Y129">
-        <v>1.06</v>
-      </c>
-      <c r="Z129">
-        <v>2.17</v>
-      </c>
-      <c r="AA129">
-        <v>3.3</v>
-      </c>
-      <c r="AB129">
-        <v>2.96</v>
-      </c>
-      <c r="AC129">
-        <v>1.06</v>
-      </c>
-      <c r="AD129">
-        <v>8.5</v>
-      </c>
-      <c r="AE129">
-        <v>1.36</v>
-      </c>
-      <c r="AF129">
-        <v>2.95</v>
-      </c>
-      <c r="AG129">
-        <v>2.4</v>
-      </c>
-      <c r="AH129">
-        <v>1.53</v>
-      </c>
-      <c r="AI129">
-        <v>1.91</v>
-      </c>
-      <c r="AJ129">
-        <v>1.8</v>
-      </c>
-      <c r="AK129">
-        <v>1.38</v>
-      </c>
-      <c r="AL129">
-        <v>1.28</v>
-      </c>
-      <c r="AM129">
-        <v>1.55</v>
-      </c>
-      <c r="AN129">
-        <v>2.5</v>
-      </c>
-      <c r="AO129">
-        <v>1.17</v>
-      </c>
-      <c r="AP129">
-        <v>2.57</v>
-      </c>
-      <c r="AQ129">
-        <v>1</v>
-      </c>
-      <c r="AR129">
-        <v>1.33</v>
-      </c>
-      <c r="AS129">
-        <v>1.19</v>
-      </c>
-      <c r="AT129">
-        <v>2.52</v>
-      </c>
-      <c r="AU129">
-        <v>9</v>
-      </c>
-      <c r="AV129">
-        <v>4</v>
-      </c>
-      <c r="AW129">
-        <v>6</v>
-      </c>
-      <c r="AX129">
-        <v>8</v>
-      </c>
-      <c r="AY129">
-        <v>18</v>
-      </c>
-      <c r="AZ129">
-        <v>16</v>
-      </c>
-      <c r="BA129">
-        <v>4</v>
-      </c>
-      <c r="BB129">
-        <v>5</v>
-      </c>
-      <c r="BC129">
-        <v>9</v>
-      </c>
-      <c r="BD129">
-        <v>1.78</v>
-      </c>
-      <c r="BE129">
-        <v>6.4</v>
-      </c>
-      <c r="BF129">
-        <v>2.12</v>
-      </c>
-      <c r="BG129">
-        <v>1.24</v>
-      </c>
-      <c r="BH129">
-        <v>3.55</v>
-      </c>
-      <c r="BI129">
-        <v>1.44</v>
-      </c>
-      <c r="BJ129">
-        <v>2.55</v>
-      </c>
-      <c r="BK129">
-        <v>1.7</v>
-      </c>
       <c r="BL129">
-        <v>2.02</v>
+        <v>1.68</v>
       </c>
       <c r="BM129">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="BN129">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="BO129">
-        <v>2.55</v>
+        <v>3.45</v>
       </c>
       <c r="BP129">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27692,7 +27692,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7468999</v>
+        <v>7468993</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27707,43 +27707,43 @@
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H130" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130">
         <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130">
         <v>0</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O130" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P130" t="s">
         <v>90</v>
       </c>
       <c r="Q130">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="R130">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S130">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="T130">
         <v>1.36</v>
@@ -27752,145 +27752,145 @@
         <v>3</v>
       </c>
       <c r="V130">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>7</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>1.93</v>
+      </c>
+      <c r="AA130">
+        <v>3.4</v>
+      </c>
+      <c r="AB130">
+        <v>3.55</v>
+      </c>
+      <c r="AC130">
+        <v>1.05</v>
+      </c>
+      <c r="AD130">
+        <v>9.5</v>
+      </c>
+      <c r="AE130">
+        <v>1.25</v>
+      </c>
+      <c r="AF130">
+        <v>3.75</v>
+      </c>
+      <c r="AG130">
+        <v>1.73</v>
+      </c>
+      <c r="AH130">
+        <v>2</v>
+      </c>
+      <c r="AI130">
+        <v>1.67</v>
+      </c>
+      <c r="AJ130">
+        <v>2.1</v>
+      </c>
+      <c r="AK130">
+        <v>1.36</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.66</v>
+      </c>
+      <c r="AN130">
+        <v>1.17</v>
+      </c>
+      <c r="AO130">
+        <v>0.71</v>
+      </c>
+      <c r="AP130">
+        <v>1.43</v>
+      </c>
+      <c r="AQ130">
+        <v>0.63</v>
+      </c>
+      <c r="AR130">
+        <v>1.89</v>
+      </c>
+      <c r="AS130">
         <v>1.4</v>
       </c>
-      <c r="X130">
-        <v>8</v>
-      </c>
-      <c r="Y130">
-        <v>1.08</v>
-      </c>
-      <c r="Z130">
-        <v>1.45</v>
-      </c>
-      <c r="AA130">
-        <v>4.2</v>
-      </c>
-      <c r="AB130">
-        <v>5.7</v>
-      </c>
-      <c r="AC130">
-        <v>1.04</v>
-      </c>
-      <c r="AD130">
-        <v>10</v>
-      </c>
-      <c r="AE130">
-        <v>1.28</v>
-      </c>
-      <c r="AF130">
-        <v>3.5</v>
-      </c>
-      <c r="AG130">
-        <v>2.2</v>
-      </c>
-      <c r="AH130">
-        <v>1.6</v>
-      </c>
-      <c r="AI130">
-        <v>2</v>
-      </c>
-      <c r="AJ130">
-        <v>1.73</v>
-      </c>
-      <c r="AK130">
-        <v>1.07</v>
-      </c>
-      <c r="AL130">
-        <v>1.17</v>
-      </c>
-      <c r="AM130">
-        <v>2.55</v>
-      </c>
-      <c r="AN130">
-        <v>3</v>
-      </c>
-      <c r="AO130">
-        <v>1</v>
-      </c>
-      <c r="AP130">
-        <v>3</v>
-      </c>
-      <c r="AQ130">
-        <v>0.88</v>
-      </c>
-      <c r="AR130">
-        <v>1.83</v>
-      </c>
-      <c r="AS130">
-        <v>1.33</v>
-      </c>
       <c r="AT130">
-        <v>3.16</v>
+        <v>3.29</v>
       </c>
       <c r="AU130">
+        <v>7</v>
+      </c>
+      <c r="AV130">
+        <v>5</v>
+      </c>
+      <c r="AW130">
+        <v>7</v>
+      </c>
+      <c r="AX130">
         <v>6</v>
       </c>
-      <c r="AV130">
-        <v>2</v>
-      </c>
-      <c r="AW130">
-        <v>5</v>
-      </c>
-      <c r="AX130">
+      <c r="AY130">
+        <v>20</v>
+      </c>
+      <c r="AZ130">
+        <v>15</v>
+      </c>
+      <c r="BA130">
+        <v>12</v>
+      </c>
+      <c r="BB130">
         <v>4</v>
       </c>
-      <c r="AY130">
-        <v>13</v>
-      </c>
-      <c r="AZ130">
-        <v>8</v>
-      </c>
-      <c r="BA130">
-        <v>2</v>
-      </c>
-      <c r="BB130">
-        <v>5</v>
-      </c>
       <c r="BC130">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BD130">
+        <v>1.74</v>
+      </c>
+      <c r="BE130">
+        <v>6.4</v>
+      </c>
+      <c r="BF130">
+        <v>2.23</v>
+      </c>
+      <c r="BG130">
         <v>1.3</v>
       </c>
-      <c r="BE130">
-        <v>7</v>
-      </c>
-      <c r="BF130">
-        <v>3.45</v>
-      </c>
-      <c r="BG130">
-        <v>1.25</v>
-      </c>
       <c r="BH130">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="BI130">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BJ130">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="BK130">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="BL130">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="BM130">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="BN130">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BO130">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP130">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27898,7 +27898,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7468992</v>
+        <v>7468996</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27913,190 +27913,190 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H131" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>0</v>
       </c>
       <c r="K131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O131" t="s">
+        <v>183</v>
+      </c>
+      <c r="P131" t="s">
         <v>90</v>
       </c>
-      <c r="P131" t="s">
-        <v>181</v>
-      </c>
       <c r="Q131">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="R131">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S131">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="T131">
+        <v>1.5</v>
+      </c>
+      <c r="U131">
+        <v>2.5</v>
+      </c>
+      <c r="V131">
+        <v>3.4</v>
+      </c>
+      <c r="W131">
+        <v>1.3</v>
+      </c>
+      <c r="X131">
+        <v>10</v>
+      </c>
+      <c r="Y131">
+        <v>1.06</v>
+      </c>
+      <c r="Z131">
+        <v>2.17</v>
+      </c>
+      <c r="AA131">
+        <v>3.3</v>
+      </c>
+      <c r="AB131">
+        <v>2.96</v>
+      </c>
+      <c r="AC131">
+        <v>1.06</v>
+      </c>
+      <c r="AD131">
+        <v>8.5</v>
+      </c>
+      <c r="AE131">
         <v>1.36</v>
       </c>
-      <c r="U131">
-        <v>3</v>
-      </c>
-      <c r="V131">
-        <v>2.75</v>
-      </c>
-      <c r="W131">
-        <v>1.4</v>
-      </c>
-      <c r="X131">
-        <v>7</v>
-      </c>
-      <c r="Y131">
-        <v>1.1</v>
-      </c>
-      <c r="Z131">
-        <v>3.37</v>
-      </c>
-      <c r="AA131">
-        <v>3.5</v>
-      </c>
-      <c r="AB131">
-        <v>1.92</v>
-      </c>
-      <c r="AC131">
-        <v>1.04</v>
-      </c>
-      <c r="AD131">
+      <c r="AF131">
+        <v>2.95</v>
+      </c>
+      <c r="AG131">
+        <v>2.4</v>
+      </c>
+      <c r="AH131">
+        <v>1.53</v>
+      </c>
+      <c r="AI131">
+        <v>1.91</v>
+      </c>
+      <c r="AJ131">
+        <v>1.8</v>
+      </c>
+      <c r="AK131">
+        <v>1.38</v>
+      </c>
+      <c r="AL131">
+        <v>1.28</v>
+      </c>
+      <c r="AM131">
+        <v>1.55</v>
+      </c>
+      <c r="AN131">
+        <v>2.5</v>
+      </c>
+      <c r="AO131">
+        <v>1.17</v>
+      </c>
+      <c r="AP131">
+        <v>2.57</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>1.33</v>
+      </c>
+      <c r="AS131">
+        <v>1.19</v>
+      </c>
+      <c r="AT131">
+        <v>2.52</v>
+      </c>
+      <c r="AU131">
         <v>10</v>
       </c>
-      <c r="AE131">
-        <v>1.25</v>
-      </c>
-      <c r="AF131">
-        <v>3.75</v>
-      </c>
-      <c r="AG131">
-        <v>1.75</v>
-      </c>
-      <c r="AH131">
-        <v>1.95</v>
-      </c>
-      <c r="AI131">
-        <v>1.83</v>
-      </c>
-      <c r="AJ131">
-        <v>1.83</v>
-      </c>
-      <c r="AK131">
-        <v>2.25</v>
-      </c>
-      <c r="AL131">
-        <v>1.18</v>
-      </c>
-      <c r="AM131">
-        <v>1.12</v>
-      </c>
-      <c r="AN131">
-        <v>0.13</v>
-      </c>
-      <c r="AO131">
-        <v>1</v>
-      </c>
-      <c r="AP131">
-        <v>0.11</v>
-      </c>
-      <c r="AQ131">
-        <v>1.29</v>
-      </c>
-      <c r="AR131">
-        <v>0.99</v>
-      </c>
-      <c r="AS131">
-        <v>1.5</v>
-      </c>
-      <c r="AT131">
-        <v>2.49</v>
-      </c>
-      <c r="AU131">
+      <c r="AV131">
         <v>4</v>
       </c>
-      <c r="AV131">
-        <v>3</v>
-      </c>
       <c r="AW131">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX131">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY131">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ131">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA131">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC131">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD131">
-        <v>2.8</v>
+        <v>1.78</v>
       </c>
       <c r="BE131">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF131">
-        <v>1.53</v>
+        <v>2.12</v>
       </c>
       <c r="BG131">
-        <v>1.4</v>
+        <v>1.24</v>
       </c>
       <c r="BH131">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="BI131">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="BJ131">
-        <v>2.07</v>
+        <v>2.55</v>
       </c>
       <c r="BK131">
+        <v>1.7</v>
+      </c>
+      <c r="BL131">
+        <v>2.02</v>
+      </c>
+      <c r="BM131">
         <v>2.05</v>
       </c>
-      <c r="BL131">
+      <c r="BN131">
         <v>1.68</v>
       </c>
-      <c r="BM131">
-        <v>2.65</v>
-      </c>
-      <c r="BN131">
-        <v>1.42</v>
-      </c>
       <c r="BO131">
-        <v>3.45</v>
+        <v>2.55</v>
       </c>
       <c r="BP131">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28254,7 +28254,7 @@
         <v>6</v>
       </c>
       <c r="AZ132">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA132">
         <v>2</v>
@@ -28866,13 +28866,13 @@
         <v>2</v>
       </c>
       <c r="AX135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY135">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ135">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA135">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -571,6 +571,9 @@
     <t>['12']</t>
   </si>
   <si>
+    <t>['90', '90+3']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -1107,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1369,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1778,7 +1781,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2602,7 +2605,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3014,7 +3017,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3092,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3632,7 +3635,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -4250,7 +4253,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4456,7 +4459,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4537,7 +4540,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5486,7 +5489,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5898,7 +5901,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6104,7 +6107,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6310,7 +6313,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6722,7 +6725,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6800,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ28">
         <v>1.38</v>
@@ -7421,7 +7424,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.38</v>
@@ -8164,7 +8167,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8370,7 +8373,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8576,7 +8579,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8782,7 +8785,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8988,7 +8991,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9400,7 +9403,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9606,7 +9609,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9812,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10430,7 +10433,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10508,7 +10511,7 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -11126,7 +11129,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11872,7 +11875,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12078,7 +12081,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12284,7 +12287,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12696,7 +12699,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12902,7 +12905,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -12983,7 +12986,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1</v>
@@ -13108,7 +13111,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13314,7 +13317,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13726,7 +13729,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13932,7 +13935,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14138,7 +14141,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14962,7 +14965,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15168,7 +15171,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15374,7 +15377,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15786,7 +15789,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15864,7 +15867,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -15992,7 +15995,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16198,7 +16201,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16404,7 +16407,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16610,7 +16613,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16691,7 +16694,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -17228,7 +17231,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17434,7 +17437,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17640,7 +17643,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18464,7 +18467,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18670,7 +18673,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19160,7 +19163,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ88">
         <v>1.29</v>
@@ -19288,7 +19291,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19494,7 +19497,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19906,7 +19909,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20524,7 +20527,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20605,7 +20608,7 @@
         <v>3</v>
       </c>
       <c r="AQ95">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR95">
         <v>2.11</v>
@@ -20730,7 +20733,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21142,7 +21145,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22172,7 +22175,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22378,7 +22381,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -23202,7 +23205,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23901,7 +23904,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ111">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.14</v>
@@ -24026,7 +24029,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24438,7 +24441,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24850,7 +24853,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25134,7 +25137,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ117">
         <v>0.57</v>
@@ -25262,7 +25265,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25880,7 +25883,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -28558,7 +28561,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28666,7 +28669,7 @@
         <v>9</v>
       </c>
       <c r="AZ134">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA134">
         <v>2</v>
@@ -28764,7 +28767,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -28921,6 +28924,212 @@
       </c>
       <c r="BP135">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7468997</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45635.69791666666</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s">
+        <v>72</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>185</v>
+      </c>
+      <c r="P136" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q136">
+        <v>2.4</v>
+      </c>
+      <c r="R136">
+        <v>2.2</v>
+      </c>
+      <c r="S136">
+        <v>4.75</v>
+      </c>
+      <c r="T136">
+        <v>1.4</v>
+      </c>
+      <c r="U136">
+        <v>2.75</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.08</v>
+      </c>
+      <c r="Z136">
+        <v>1.85</v>
+      </c>
+      <c r="AA136">
+        <v>3.66</v>
+      </c>
+      <c r="AB136">
+        <v>4.15</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>9.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.3</v>
+      </c>
+      <c r="AF136">
+        <v>3.3</v>
+      </c>
+      <c r="AG136">
+        <v>2.02</v>
+      </c>
+      <c r="AH136">
+        <v>1.72</v>
+      </c>
+      <c r="AI136">
+        <v>1.83</v>
+      </c>
+      <c r="AJ136">
+        <v>1.83</v>
+      </c>
+      <c r="AK136">
+        <v>1.15</v>
+      </c>
+      <c r="AL136">
+        <v>1.22</v>
+      </c>
+      <c r="AM136">
+        <v>2</v>
+      </c>
+      <c r="AN136">
+        <v>2.14</v>
+      </c>
+      <c r="AO136">
+        <v>1.17</v>
+      </c>
+      <c r="AP136">
+        <v>2.25</v>
+      </c>
+      <c r="AQ136">
+        <v>1</v>
+      </c>
+      <c r="AR136">
+        <v>1.62</v>
+      </c>
+      <c r="AS136">
+        <v>1.31</v>
+      </c>
+      <c r="AT136">
+        <v>2.93</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>2</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>4</v>
+      </c>
+      <c r="AY136">
+        <v>13</v>
+      </c>
+      <c r="AZ136">
+        <v>11</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>1</v>
+      </c>
+      <c r="BC136">
+        <v>6</v>
+      </c>
+      <c r="BD136">
+        <v>1.58</v>
+      </c>
+      <c r="BE136">
+        <v>6.1</v>
+      </c>
+      <c r="BF136">
+        <v>2.48</v>
+      </c>
+      <c r="BG136">
+        <v>1.42</v>
+      </c>
+      <c r="BH136">
+        <v>2.65</v>
+      </c>
+      <c r="BI136">
+        <v>1.7</v>
+      </c>
+      <c r="BJ136">
+        <v>2</v>
+      </c>
+      <c r="BK136">
+        <v>2.1</v>
+      </c>
+      <c r="BL136">
+        <v>1.64</v>
+      </c>
+      <c r="BM136">
+        <v>2.75</v>
+      </c>
+      <c r="BN136">
+        <v>1.38</v>
+      </c>
+      <c r="BO136">
+        <v>3.65</v>
+      </c>
+      <c r="BP136">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -29075,13 +29075,13 @@
         <v>4</v>
       </c>
       <c r="AX136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY136">
         <v>13</v>
       </c>
       <c r="AZ136">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA136">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,18 @@
     <t>['90', '90+3']</t>
   </si>
   <si>
+    <t>['50', '72', '86']</t>
+  </si>
+  <si>
+    <t>['20', '47', '72', '76']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -749,6 +761,12 @@
   </si>
   <si>
     <t>['55', '90+4']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['6', '85', '89']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1387,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1447,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ2">
         <v>0.63</v>
@@ -1656,7 +1674,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1781,7 +1799,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2065,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ5">
         <v>0.88</v>
@@ -2274,7 +2292,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2605,7 +2623,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3017,7 +3035,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3301,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3510,7 +3528,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3635,7 +3653,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3919,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
         <v>0.57</v>
@@ -4125,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4253,7 +4271,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4334,7 +4352,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4459,7 +4477,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4952,7 +4970,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ19">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5361,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ21">
         <v>2.13</v>
@@ -5489,7 +5507,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5776,7 +5794,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ23">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR23">
         <v>2.13</v>
@@ -5901,7 +5919,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6107,7 +6125,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6313,7 +6331,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6597,7 +6615,7 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ27">
         <v>1.13</v>
@@ -6725,7 +6743,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6806,7 +6824,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
         <v>1.92</v>
@@ -7012,7 +7030,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ29">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR29">
         <v>1.48</v>
@@ -7421,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7627,10 +7645,10 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -8039,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>0.88</v>
@@ -8167,7 +8185,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8248,7 +8266,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ35">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8373,7 +8391,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8579,7 +8597,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8785,7 +8803,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8863,10 +8881,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR38">
         <v>1.59</v>
@@ -8991,7 +9009,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9275,7 +9293,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>2.13</v>
@@ -9403,7 +9421,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9609,7 +9627,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9815,7 +9833,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9896,7 +9914,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR43">
         <v>0.8</v>
@@ -10102,7 +10120,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR44">
         <v>1.25</v>
@@ -10305,7 +10323,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10433,7 +10451,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -11132,7 +11150,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11338,7 +11356,7 @@
         <v>2</v>
       </c>
       <c r="AQ50">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -11541,7 +11559,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ51">
         <v>1.13</v>
@@ -11875,7 +11893,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12081,7 +12099,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12159,7 +12177,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ54">
         <v>0.88</v>
@@ -12287,7 +12305,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12368,7 +12386,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ55">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR55">
         <v>1.98</v>
@@ -12574,7 +12592,7 @@
         <v>3</v>
       </c>
       <c r="AQ56">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR56">
         <v>1.76</v>
@@ -12699,7 +12717,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12905,7 +12923,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13111,7 +13129,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13189,7 +13207,7 @@
         <v>1.67</v>
       </c>
       <c r="AP59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13317,7 +13335,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13395,10 +13413,10 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ60">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR60">
         <v>1.51</v>
@@ -13729,7 +13747,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13935,7 +13953,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14013,7 +14031,7 @@
         <v>3</v>
       </c>
       <c r="AP63">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -14141,7 +14159,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14428,7 +14446,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR65">
         <v>1.6</v>
@@ -14965,7 +14983,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15171,7 +15189,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15252,7 +15270,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>1.23</v>
@@ -15377,7 +15395,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15661,10 +15679,10 @@
         <v>2</v>
       </c>
       <c r="AP71">
+        <v>1.11</v>
+      </c>
+      <c r="AQ71">
         <v>1.13</v>
-      </c>
-      <c r="AQ71">
-        <v>1.29</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -15789,7 +15807,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15995,7 +16013,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16076,7 +16094,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ73">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR73">
         <v>1</v>
@@ -16201,7 +16219,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16407,7 +16425,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16613,7 +16631,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17103,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17231,7 +17249,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17309,10 +17327,10 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ79">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR79">
         <v>1.66</v>
@@ -17437,7 +17455,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17643,7 +17661,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17721,7 +17739,7 @@
         <v>2.25</v>
       </c>
       <c r="AP81">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ81">
         <v>2.13</v>
@@ -17927,7 +17945,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ82">
         <v>1</v>
@@ -18342,7 +18360,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ84">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR84">
         <v>1.51</v>
@@ -18467,7 +18485,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18545,7 +18563,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ85">
         <v>0.75</v>
@@ -18673,7 +18691,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18957,10 +18975,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19166,7 +19184,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19291,7 +19309,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19497,7 +19515,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19781,7 +19799,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>0.63</v>
@@ -19909,7 +19927,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20527,7 +20545,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20733,7 +20751,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20811,10 +20829,10 @@
         <v>1.2</v>
       </c>
       <c r="AP96">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ96">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
         <v>1.65</v>
@@ -21017,7 +21035,7 @@
         <v>2.4</v>
       </c>
       <c r="AP97">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ97">
         <v>2.13</v>
@@ -21145,7 +21163,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21432,7 +21450,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR99">
         <v>1.8</v>
@@ -22047,10 +22065,10 @@
         <v>1.17</v>
       </c>
       <c r="AP102">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.45</v>
@@ -22175,7 +22193,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22253,7 +22271,7 @@
         <v>1.33</v>
       </c>
       <c r="AP103">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ103">
         <v>1.13</v>
@@ -22381,7 +22399,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22462,7 +22480,7 @@
         <v>2</v>
       </c>
       <c r="AQ104">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR104">
         <v>1.78</v>
@@ -23205,7 +23223,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23489,10 +23507,10 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AQ109">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -24029,7 +24047,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24441,7 +24459,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24725,7 +24743,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ115">
         <v>2.13</v>
@@ -24853,7 +24871,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -24934,7 +24952,7 @@
         <v>3</v>
       </c>
       <c r="AQ116">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR116">
         <v>1.94</v>
@@ -25265,7 +25283,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25346,7 +25364,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ118">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR118">
         <v>0.99</v>
@@ -25549,7 +25567,7 @@
         <v>0.5</v>
       </c>
       <c r="AP119">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ119">
         <v>0.57</v>
@@ -25755,7 +25773,7 @@
         <v>1.5</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ120">
         <v>1.43</v>
@@ -25883,7 +25901,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -25964,7 +25982,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR121">
         <v>1.35</v>
@@ -26373,7 +26391,7 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ123">
         <v>0.88</v>
@@ -26785,7 +26803,7 @@
         <v>1.14</v>
       </c>
       <c r="AP125">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ125">
         <v>1.13</v>
@@ -26994,7 +27012,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ126">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR126">
         <v>1.58</v>
@@ -27612,7 +27630,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ129">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR129">
         <v>0.99</v>
@@ -28561,7 +28579,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28767,7 +28785,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29130,6 +29148,1036 @@
       </c>
       <c r="BP136">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7469004</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" t="s">
+        <v>75</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>4</v>
+      </c>
+      <c r="O137" t="s">
+        <v>186</v>
+      </c>
+      <c r="P137" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q137">
+        <v>3.1</v>
+      </c>
+      <c r="R137">
+        <v>1.93</v>
+      </c>
+      <c r="S137">
+        <v>3.6</v>
+      </c>
+      <c r="T137">
+        <v>1.5</v>
+      </c>
+      <c r="U137">
+        <v>2.4</v>
+      </c>
+      <c r="V137">
+        <v>3.3</v>
+      </c>
+      <c r="W137">
+        <v>1.28</v>
+      </c>
+      <c r="X137">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y137">
+        <v>1.03</v>
+      </c>
+      <c r="Z137">
+        <v>2.3</v>
+      </c>
+      <c r="AA137">
+        <v>3</v>
+      </c>
+      <c r="AB137">
+        <v>2.87</v>
+      </c>
+      <c r="AC137">
+        <v>1.09</v>
+      </c>
+      <c r="AD137">
+        <v>7</v>
+      </c>
+      <c r="AE137">
+        <v>1.44</v>
+      </c>
+      <c r="AF137">
+        <v>2.75</v>
+      </c>
+      <c r="AG137">
+        <v>2.15</v>
+      </c>
+      <c r="AH137">
+        <v>1.57</v>
+      </c>
+      <c r="AI137">
+        <v>1.9</v>
+      </c>
+      <c r="AJ137">
+        <v>1.77</v>
+      </c>
+      <c r="AK137">
+        <v>1.38</v>
+      </c>
+      <c r="AL137">
+        <v>1.3</v>
+      </c>
+      <c r="AM137">
+        <v>1.53</v>
+      </c>
+      <c r="AN137">
+        <v>1.57</v>
+      </c>
+      <c r="AO137">
+        <v>1.29</v>
+      </c>
+      <c r="AP137">
+        <v>1.75</v>
+      </c>
+      <c r="AQ137">
+        <v>1.13</v>
+      </c>
+      <c r="AR137">
+        <v>1.66</v>
+      </c>
+      <c r="AS137">
+        <v>1.46</v>
+      </c>
+      <c r="AT137">
+        <v>3.12</v>
+      </c>
+      <c r="AU137">
+        <v>8</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>5</v>
+      </c>
+      <c r="AX137">
+        <v>1</v>
+      </c>
+      <c r="AY137">
+        <v>18</v>
+      </c>
+      <c r="AZ137">
+        <v>6</v>
+      </c>
+      <c r="BA137">
+        <v>8</v>
+      </c>
+      <c r="BB137">
+        <v>4</v>
+      </c>
+      <c r="BC137">
+        <v>12</v>
+      </c>
+      <c r="BD137">
+        <v>1.78</v>
+      </c>
+      <c r="BE137">
+        <v>6.25</v>
+      </c>
+      <c r="BF137">
+        <v>2.28</v>
+      </c>
+      <c r="BG137">
+        <v>1.5</v>
+      </c>
+      <c r="BH137">
+        <v>2.4</v>
+      </c>
+      <c r="BI137">
+        <v>1.83</v>
+      </c>
+      <c r="BJ137">
+        <v>1.85</v>
+      </c>
+      <c r="BK137">
+        <v>2.33</v>
+      </c>
+      <c r="BL137">
+        <v>1.5</v>
+      </c>
+      <c r="BM137">
+        <v>3.1</v>
+      </c>
+      <c r="BN137">
+        <v>1.3</v>
+      </c>
+      <c r="BO137">
+        <v>4.1</v>
+      </c>
+      <c r="BP137">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7469005</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>82</v>
+      </c>
+      <c r="H138" t="s">
+        <v>71</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>101</v>
+      </c>
+      <c r="P138" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q138">
+        <v>2.4</v>
+      </c>
+      <c r="R138">
+        <v>2.05</v>
+      </c>
+      <c r="S138">
+        <v>4.75</v>
+      </c>
+      <c r="T138">
+        <v>1.47</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>3.25</v>
+      </c>
+      <c r="W138">
+        <v>1.3</v>
+      </c>
+      <c r="X138">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y138">
+        <v>1.04</v>
+      </c>
+      <c r="Z138">
+        <v>1.7</v>
+      </c>
+      <c r="AA138">
+        <v>3.4</v>
+      </c>
+      <c r="AB138">
+        <v>4.2</v>
+      </c>
+      <c r="AC138">
+        <v>1.07</v>
+      </c>
+      <c r="AD138">
+        <v>8</v>
+      </c>
+      <c r="AE138">
+        <v>1.4</v>
+      </c>
+      <c r="AF138">
+        <v>2.8</v>
+      </c>
+      <c r="AG138">
+        <v>2.05</v>
+      </c>
+      <c r="AH138">
+        <v>1.65</v>
+      </c>
+      <c r="AI138">
+        <v>2.05</v>
+      </c>
+      <c r="AJ138">
+        <v>1.72</v>
+      </c>
+      <c r="AK138">
+        <v>1.15</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>2</v>
+      </c>
+      <c r="AN138">
+        <v>2</v>
+      </c>
+      <c r="AO138">
+        <v>0.14</v>
+      </c>
+      <c r="AP138">
+        <v>2.13</v>
+      </c>
+      <c r="AQ138">
+        <v>0.13</v>
+      </c>
+      <c r="AR138">
+        <v>1.44</v>
+      </c>
+      <c r="AS138">
+        <v>1.02</v>
+      </c>
+      <c r="AT138">
+        <v>2.46</v>
+      </c>
+      <c r="AU138">
+        <v>8</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>9</v>
+      </c>
+      <c r="AX138">
+        <v>5</v>
+      </c>
+      <c r="AY138">
+        <v>23</v>
+      </c>
+      <c r="AZ138">
+        <v>11</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
+        <v>8</v>
+      </c>
+      <c r="BD138">
+        <v>1.55</v>
+      </c>
+      <c r="BE138">
+        <v>6.4</v>
+      </c>
+      <c r="BF138">
+        <v>2.7</v>
+      </c>
+      <c r="BG138">
+        <v>1.49</v>
+      </c>
+      <c r="BH138">
+        <v>2.4</v>
+      </c>
+      <c r="BI138">
+        <v>1.82</v>
+      </c>
+      <c r="BJ138">
+        <v>1.86</v>
+      </c>
+      <c r="BK138">
+        <v>2.32</v>
+      </c>
+      <c r="BL138">
+        <v>1.52</v>
+      </c>
+      <c r="BM138">
+        <v>3.05</v>
+      </c>
+      <c r="BN138">
+        <v>1.32</v>
+      </c>
+      <c r="BO138">
+        <v>3.95</v>
+      </c>
+      <c r="BP138">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7469001</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>79</v>
+      </c>
+      <c r="H139" t="s">
+        <v>77</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>4</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>187</v>
+      </c>
+      <c r="P139" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q139">
+        <v>2.1</v>
+      </c>
+      <c r="R139">
+        <v>2.2</v>
+      </c>
+      <c r="S139">
+        <v>6</v>
+      </c>
+      <c r="T139">
+        <v>1.4</v>
+      </c>
+      <c r="U139">
+        <v>2.75</v>
+      </c>
+      <c r="V139">
+        <v>3</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>8</v>
+      </c>
+      <c r="Y139">
+        <v>1.08</v>
+      </c>
+      <c r="Z139">
+        <v>1.53</v>
+      </c>
+      <c r="AA139">
+        <v>3.75</v>
+      </c>
+      <c r="AB139">
+        <v>5</v>
+      </c>
+      <c r="AC139">
+        <v>1.05</v>
+      </c>
+      <c r="AD139">
+        <v>9.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.3</v>
+      </c>
+      <c r="AF139">
+        <v>3.3</v>
+      </c>
+      <c r="AG139">
+        <v>1.85</v>
+      </c>
+      <c r="AH139">
+        <v>1.8</v>
+      </c>
+      <c r="AI139">
+        <v>2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.73</v>
+      </c>
+      <c r="AK139">
+        <v>1.08</v>
+      </c>
+      <c r="AL139">
+        <v>1.18</v>
+      </c>
+      <c r="AM139">
+        <v>2.4</v>
+      </c>
+      <c r="AN139">
+        <v>1.14</v>
+      </c>
+      <c r="AO139">
+        <v>1.33</v>
+      </c>
+      <c r="AP139">
+        <v>1.38</v>
+      </c>
+      <c r="AQ139">
+        <v>1.14</v>
+      </c>
+      <c r="AR139">
+        <v>1.46</v>
+      </c>
+      <c r="AS139">
+        <v>1.1</v>
+      </c>
+      <c r="AT139">
+        <v>2.56</v>
+      </c>
+      <c r="AU139">
+        <v>16</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>11</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>28</v>
+      </c>
+      <c r="AZ139">
+        <v>8</v>
+      </c>
+      <c r="BA139">
+        <v>5</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>7</v>
+      </c>
+      <c r="BD139">
+        <v>1.43</v>
+      </c>
+      <c r="BE139">
+        <v>6.75</v>
+      </c>
+      <c r="BF139">
+        <v>3.2</v>
+      </c>
+      <c r="BG139">
+        <v>1.47</v>
+      </c>
+      <c r="BH139">
+        <v>2.48</v>
+      </c>
+      <c r="BI139">
+        <v>1.76</v>
+      </c>
+      <c r="BJ139">
+        <v>1.94</v>
+      </c>
+      <c r="BK139">
+        <v>2.23</v>
+      </c>
+      <c r="BL139">
+        <v>1.57</v>
+      </c>
+      <c r="BM139">
+        <v>2.9</v>
+      </c>
+      <c r="BN139">
+        <v>1.35</v>
+      </c>
+      <c r="BO139">
+        <v>3.9</v>
+      </c>
+      <c r="BP139">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7469003</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>70</v>
+      </c>
+      <c r="H140" t="s">
+        <v>81</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>188</v>
+      </c>
+      <c r="P140" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q140">
+        <v>2.95</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>3.5</v>
+      </c>
+      <c r="T140">
+        <v>1.42</v>
+      </c>
+      <c r="U140">
+        <v>2.65</v>
+      </c>
+      <c r="V140">
+        <v>2.88</v>
+      </c>
+      <c r="W140">
+        <v>1.36</v>
+      </c>
+      <c r="X140">
+        <v>7.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>2.2</v>
+      </c>
+      <c r="AA140">
+        <v>3.1</v>
+      </c>
+      <c r="AB140">
+        <v>2.87</v>
+      </c>
+      <c r="AC140">
+        <v>1.06</v>
+      </c>
+      <c r="AD140">
+        <v>8.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.33</v>
+      </c>
+      <c r="AF140">
+        <v>3.25</v>
+      </c>
+      <c r="AG140">
+        <v>1.91</v>
+      </c>
+      <c r="AH140">
+        <v>1.75</v>
+      </c>
+      <c r="AI140">
+        <v>1.73</v>
+      </c>
+      <c r="AJ140">
+        <v>1.95</v>
+      </c>
+      <c r="AK140">
+        <v>1.36</v>
+      </c>
+      <c r="AL140">
+        <v>1.28</v>
+      </c>
+      <c r="AM140">
+        <v>1.57</v>
+      </c>
+      <c r="AN140">
+        <v>1.13</v>
+      </c>
+      <c r="AO140">
+        <v>1.13</v>
+      </c>
+      <c r="AP140">
+        <v>1.11</v>
+      </c>
+      <c r="AQ140">
+        <v>1.11</v>
+      </c>
+      <c r="AR140">
+        <v>1.24</v>
+      </c>
+      <c r="AS140">
+        <v>1.26</v>
+      </c>
+      <c r="AT140">
+        <v>2.5</v>
+      </c>
+      <c r="AU140">
+        <v>8</v>
+      </c>
+      <c r="AV140">
+        <v>7</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>19</v>
+      </c>
+      <c r="AZ140">
+        <v>14</v>
+      </c>
+      <c r="BA140">
+        <v>4</v>
+      </c>
+      <c r="BB140">
+        <v>10</v>
+      </c>
+      <c r="BC140">
+        <v>14</v>
+      </c>
+      <c r="BD140">
+        <v>1.79</v>
+      </c>
+      <c r="BE140">
+        <v>6.4</v>
+      </c>
+      <c r="BF140">
+        <v>2.23</v>
+      </c>
+      <c r="BG140">
+        <v>1.44</v>
+      </c>
+      <c r="BH140">
+        <v>2.55</v>
+      </c>
+      <c r="BI140">
+        <v>1.74</v>
+      </c>
+      <c r="BJ140">
+        <v>1.97</v>
+      </c>
+      <c r="BK140">
+        <v>2.18</v>
+      </c>
+      <c r="BL140">
+        <v>1.58</v>
+      </c>
+      <c r="BM140">
+        <v>2.8</v>
+      </c>
+      <c r="BN140">
+        <v>1.36</v>
+      </c>
+      <c r="BO140">
+        <v>3.8</v>
+      </c>
+      <c r="BP140">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7469009</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45639.66666666666</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>73</v>
+      </c>
+      <c r="H141" t="s">
+        <v>80</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>4</v>
+      </c>
+      <c r="O141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P141" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q141">
+        <v>2.8</v>
+      </c>
+      <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>1.5</v>
+      </c>
+      <c r="U141">
+        <v>2.4</v>
+      </c>
+      <c r="V141">
+        <v>3.3</v>
+      </c>
+      <c r="W141">
+        <v>1.28</v>
+      </c>
+      <c r="X141">
+        <v>9.1</v>
+      </c>
+      <c r="Y141">
+        <v>1.03</v>
+      </c>
+      <c r="Z141">
+        <v>2.05</v>
+      </c>
+      <c r="AA141">
+        <v>3.1</v>
+      </c>
+      <c r="AB141">
+        <v>3.25</v>
+      </c>
+      <c r="AC141">
+        <v>1.07</v>
+      </c>
+      <c r="AD141">
+        <v>8</v>
+      </c>
+      <c r="AE141">
+        <v>1.42</v>
+      </c>
+      <c r="AF141">
+        <v>2.8</v>
+      </c>
+      <c r="AG141">
+        <v>2.2</v>
+      </c>
+      <c r="AH141">
+        <v>1.55</v>
+      </c>
+      <c r="AI141">
+        <v>1.93</v>
+      </c>
+      <c r="AJ141">
+        <v>1.75</v>
+      </c>
+      <c r="AK141">
+        <v>1.28</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.7</v>
+      </c>
+      <c r="AN141">
+        <v>2.43</v>
+      </c>
+      <c r="AO141">
+        <v>1.38</v>
+      </c>
+      <c r="AP141">
+        <v>2.13</v>
+      </c>
+      <c r="AQ141">
+        <v>1.56</v>
+      </c>
+      <c r="AR141">
+        <v>1.72</v>
+      </c>
+      <c r="AS141">
+        <v>1.1</v>
+      </c>
+      <c r="AT141">
+        <v>2.82</v>
+      </c>
+      <c r="AU141">
+        <v>6</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+      <c r="AW141">
+        <v>4</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>15</v>
+      </c>
+      <c r="AZ141">
+        <v>8</v>
+      </c>
+      <c r="BA141">
+        <v>3</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>8</v>
+      </c>
+      <c r="BD141">
+        <v>1.73</v>
+      </c>
+      <c r="BE141">
+        <v>6.25</v>
+      </c>
+      <c r="BF141">
+        <v>2.4</v>
+      </c>
+      <c r="BG141">
+        <v>1.48</v>
+      </c>
+      <c r="BH141">
+        <v>2.48</v>
+      </c>
+      <c r="BI141">
+        <v>1.79</v>
+      </c>
+      <c r="BJ141">
+        <v>1.91</v>
+      </c>
+      <c r="BK141">
+        <v>2.25</v>
+      </c>
+      <c r="BL141">
+        <v>1.55</v>
+      </c>
+      <c r="BM141">
+        <v>2.9</v>
+      </c>
+      <c r="BN141">
+        <v>1.34</v>
+      </c>
+      <c r="BO141">
+        <v>3.9</v>
+      </c>
+      <c r="BP141">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,16 +574,22 @@
     <t>['90', '90+3']</t>
   </si>
   <si>
-    <t>['50', '72', '86']</t>
-  </si>
-  <si>
     <t>['20', '47', '72', '76']</t>
   </si>
   <si>
     <t>['89']</t>
   </si>
   <si>
+    <t>['50', '72', '86']</t>
+  </si>
+  <si>
     <t>['72']</t>
+  </si>
+  <si>
+    <t>['10', '16', '35']</t>
+  </si>
+  <si>
+    <t>['13', '90+7']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -1128,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1393,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1799,7 +1805,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2623,7 +2629,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2704,7 +2710,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ8">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3035,7 +3041,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3653,7 +3659,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3734,7 +3740,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4271,7 +4277,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4349,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ16">
         <v>1.14</v>
@@ -4477,7 +4483,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4764,7 +4770,7 @@
         <v>3</v>
       </c>
       <c r="AQ18">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4967,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19">
         <v>0.13</v>
@@ -5382,7 +5388,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ21">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR21">
         <v>1.81</v>
@@ -5507,7 +5513,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5919,7 +5925,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6125,7 +6131,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6331,7 +6337,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6743,7 +6749,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7851,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -8185,7 +8191,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8391,7 +8397,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8472,7 +8478,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8597,7 +8603,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8803,7 +8809,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9009,7 +9015,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9090,7 +9096,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ39">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR39">
         <v>0.8</v>
@@ -9296,7 +9302,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR40">
         <v>1.41</v>
@@ -9421,7 +9427,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9627,7 +9633,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9833,7 +9839,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -9911,7 +9917,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
         <v>1.56</v>
@@ -10451,7 +10457,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -10941,7 +10947,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -11768,7 +11774,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.34</v>
@@ -11893,7 +11899,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12099,7 +12105,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12305,7 +12311,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12717,7 +12723,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12923,7 +12929,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13129,7 +13135,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13335,7 +13341,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13747,7 +13753,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13825,10 +13831,10 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ62">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR62">
         <v>1.16</v>
@@ -13953,7 +13959,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14034,7 +14040,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14159,7 +14165,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14649,7 +14655,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ66">
         <v>0.88</v>
@@ -14983,7 +14989,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15064,7 +15070,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ68">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.95</v>
@@ -15189,7 +15195,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15395,7 +15401,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15807,7 +15813,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16013,7 +16019,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16219,7 +16225,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16425,7 +16431,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16503,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ75">
         <v>0.57</v>
@@ -16631,7 +16637,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16918,7 +16924,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17249,7 +17255,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17455,7 +17461,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17661,7 +17667,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17742,7 +17748,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ81">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR81">
         <v>1.22</v>
@@ -18357,7 +18363,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ84">
         <v>1.56</v>
@@ -18485,7 +18491,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18691,7 +18697,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19309,7 +19315,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19390,7 +19396,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.72</v>
@@ -19515,7 +19521,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19927,7 +19933,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20211,10 +20217,10 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR93">
         <v>1.43</v>
@@ -20545,7 +20551,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20751,7 +20757,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21038,7 +21044,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ97">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR97">
         <v>1.69</v>
@@ -21163,7 +21169,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -22193,7 +22199,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22399,7 +22405,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22683,7 +22689,7 @@
         <v>0.83</v>
       </c>
       <c r="AP105">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ105">
         <v>0.63</v>
@@ -23098,7 +23104,7 @@
         <v>2</v>
       </c>
       <c r="AQ107">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR107">
         <v>1.74</v>
@@ -23223,7 +23229,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23304,7 +23310,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ108">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR108">
         <v>1.07</v>
@@ -24047,7 +24053,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24459,7 +24465,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24537,7 +24543,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ114">
         <v>0.88</v>
@@ -24746,7 +24752,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ115">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR115">
         <v>1.51</v>
@@ -24871,7 +24877,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25283,7 +25289,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25570,7 +25576,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ119">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.46</v>
@@ -25776,7 +25782,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ120">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR120">
         <v>1.24</v>
@@ -25901,7 +25907,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -28039,7 +28045,7 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28245,7 +28251,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28579,7 +28585,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28785,7 +28791,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -28866,7 +28872,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ135">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR135">
         <v>1.14</v>
@@ -29155,7 +29161,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7469004</v>
+        <v>7469005</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29164,196 +29170,196 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45639.66666666666</v>
+        <v>45638.875</v>
       </c>
       <c r="F137">
         <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H137" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137">
         <v>1</v>
       </c>
       <c r="L137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="P137" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="Q137">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="R137">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="T137">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U137">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="V137">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="W137">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="X137">
-        <v>8.699999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="Y137">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z137">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AA137">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AB137">
-        <v>2.87</v>
+        <v>4.2</v>
       </c>
       <c r="AC137">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD137">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE137">
+        <v>1.4</v>
+      </c>
+      <c r="AF137">
+        <v>2.8</v>
+      </c>
+      <c r="AG137">
+        <v>2.05</v>
+      </c>
+      <c r="AH137">
+        <v>1.65</v>
+      </c>
+      <c r="AI137">
+        <v>2.05</v>
+      </c>
+      <c r="AJ137">
+        <v>1.72</v>
+      </c>
+      <c r="AK137">
+        <v>1.15</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>2</v>
+      </c>
+      <c r="AN137">
+        <v>2</v>
+      </c>
+      <c r="AO137">
+        <v>0.14</v>
+      </c>
+      <c r="AP137">
+        <v>2.13</v>
+      </c>
+      <c r="AQ137">
+        <v>0.13</v>
+      </c>
+      <c r="AR137">
         <v>1.44</v>
       </c>
-      <c r="AF137">
-        <v>2.75</v>
-      </c>
-      <c r="AG137">
-        <v>2.15</v>
-      </c>
-      <c r="AH137">
-        <v>1.57</v>
-      </c>
-      <c r="AI137">
-        <v>1.9</v>
-      </c>
-      <c r="AJ137">
-        <v>1.77</v>
-      </c>
-      <c r="AK137">
-        <v>1.38</v>
-      </c>
-      <c r="AL137">
-        <v>1.3</v>
-      </c>
-      <c r="AM137">
-        <v>1.53</v>
-      </c>
-      <c r="AN137">
-        <v>1.57</v>
-      </c>
-      <c r="AO137">
-        <v>1.29</v>
-      </c>
-      <c r="AP137">
-        <v>1.75</v>
-      </c>
-      <c r="AQ137">
-        <v>1.13</v>
-      </c>
-      <c r="AR137">
-        <v>1.66</v>
-      </c>
       <c r="AS137">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="AT137">
-        <v>3.12</v>
+        <v>2.46</v>
       </c>
       <c r="AU137">
         <v>8</v>
       </c>
       <c r="AV137">
+        <v>5</v>
+      </c>
+      <c r="AW137">
+        <v>10</v>
+      </c>
+      <c r="AX137">
+        <v>5</v>
+      </c>
+      <c r="AY137">
+        <v>24</v>
+      </c>
+      <c r="AZ137">
+        <v>12</v>
+      </c>
+      <c r="BA137">
         <v>4</v>
-      </c>
-      <c r="AW137">
-        <v>5</v>
-      </c>
-      <c r="AX137">
-        <v>1</v>
-      </c>
-      <c r="AY137">
-        <v>18</v>
-      </c>
-      <c r="AZ137">
-        <v>6</v>
-      </c>
-      <c r="BA137">
-        <v>8</v>
       </c>
       <c r="BB137">
         <v>4</v>
       </c>
       <c r="BC137">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BD137">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="BE137">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF137">
-        <v>2.28</v>
+        <v>2.7</v>
       </c>
       <c r="BG137">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BH137">
         <v>2.4</v>
       </c>
       <c r="BI137">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="BJ137">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="BK137">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="BL137">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="BM137">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="BN137">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="BO137">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="BP137">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -29361,7 +29367,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7469005</v>
+        <v>7469001</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29370,16 +29376,16 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45639.66666666666</v>
+        <v>45638.875</v>
       </c>
       <c r="F138">
         <v>16</v>
       </c>
       <c r="G138" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H138" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -29391,175 +29397,175 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
       <c r="N138">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O138" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="P138" t="s">
         <v>90</v>
       </c>
       <c r="Q138">
+        <v>2.1</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>6</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>3</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>1.53</v>
+      </c>
+      <c r="AA138">
+        <v>3.75</v>
+      </c>
+      <c r="AB138">
+        <v>5</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>9.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.3</v>
+      </c>
+      <c r="AF138">
+        <v>3.3</v>
+      </c>
+      <c r="AG138">
+        <v>1.85</v>
+      </c>
+      <c r="AH138">
+        <v>1.8</v>
+      </c>
+      <c r="AI138">
+        <v>2</v>
+      </c>
+      <c r="AJ138">
+        <v>1.73</v>
+      </c>
+      <c r="AK138">
+        <v>1.08</v>
+      </c>
+      <c r="AL138">
+        <v>1.18</v>
+      </c>
+      <c r="AM138">
         <v>2.4</v>
       </c>
-      <c r="R138">
-        <v>2.05</v>
-      </c>
-      <c r="S138">
-        <v>4.75</v>
-      </c>
-      <c r="T138">
-        <v>1.47</v>
-      </c>
-      <c r="U138">
-        <v>2.5</v>
-      </c>
-      <c r="V138">
-        <v>3.25</v>
-      </c>
-      <c r="W138">
-        <v>1.3</v>
-      </c>
-      <c r="X138">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y138">
-        <v>1.04</v>
-      </c>
-      <c r="Z138">
-        <v>1.7</v>
-      </c>
-      <c r="AA138">
-        <v>3.4</v>
-      </c>
-      <c r="AB138">
-        <v>4.2</v>
-      </c>
-      <c r="AC138">
-        <v>1.07</v>
-      </c>
-      <c r="AD138">
-        <v>8</v>
-      </c>
-      <c r="AE138">
-        <v>1.4</v>
-      </c>
-      <c r="AF138">
-        <v>2.8</v>
-      </c>
-      <c r="AG138">
-        <v>2.05</v>
-      </c>
-      <c r="AH138">
-        <v>1.65</v>
-      </c>
-      <c r="AI138">
-        <v>2.05</v>
-      </c>
-      <c r="AJ138">
-        <v>1.72</v>
-      </c>
-      <c r="AK138">
-        <v>1.15</v>
-      </c>
-      <c r="AL138">
-        <v>1.25</v>
-      </c>
-      <c r="AM138">
-        <v>2</v>
-      </c>
       <c r="AN138">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AO138">
-        <v>0.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP138">
-        <v>2.13</v>
+        <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>0.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR138">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="AS138">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="AT138">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="AU138">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AV138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW138">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX138">
         <v>5</v>
       </c>
       <c r="AY138">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AZ138">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC138">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD138">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="BE138">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF138">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="BG138">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="BH138">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="BI138">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="BJ138">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="BK138">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="BL138">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="BM138">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BN138">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BO138">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="BP138">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29567,7 +29573,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7469001</v>
+        <v>7469003</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29582,190 +29588,190 @@
         <v>16</v>
       </c>
       <c r="G139" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="H139" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K139">
         <v>1</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O139" t="s">
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>90</v>
+        <v>251</v>
       </c>
       <c r="Q139">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="R139">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S139">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="T139">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U139">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V139">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="W139">
         <v>1.36</v>
       </c>
       <c r="X139">
+        <v>7.5</v>
+      </c>
+      <c r="Y139">
+        <v>1.06</v>
+      </c>
+      <c r="Z139">
+        <v>2.2</v>
+      </c>
+      <c r="AA139">
+        <v>3.1</v>
+      </c>
+      <c r="AB139">
+        <v>2.87</v>
+      </c>
+      <c r="AC139">
+        <v>1.06</v>
+      </c>
+      <c r="AD139">
+        <v>8.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.33</v>
+      </c>
+      <c r="AF139">
+        <v>3.25</v>
+      </c>
+      <c r="AG139">
+        <v>1.91</v>
+      </c>
+      <c r="AH139">
+        <v>1.75</v>
+      </c>
+      <c r="AI139">
+        <v>1.73</v>
+      </c>
+      <c r="AJ139">
+        <v>1.95</v>
+      </c>
+      <c r="AK139">
+        <v>1.36</v>
+      </c>
+      <c r="AL139">
+        <v>1.28</v>
+      </c>
+      <c r="AM139">
+        <v>1.57</v>
+      </c>
+      <c r="AN139">
+        <v>1.13</v>
+      </c>
+      <c r="AO139">
+        <v>1.13</v>
+      </c>
+      <c r="AP139">
+        <v>1.11</v>
+      </c>
+      <c r="AQ139">
+        <v>1.11</v>
+      </c>
+      <c r="AR139">
+        <v>1.24</v>
+      </c>
+      <c r="AS139">
+        <v>1.26</v>
+      </c>
+      <c r="AT139">
+        <v>2.5</v>
+      </c>
+      <c r="AU139">
         <v>8</v>
       </c>
-      <c r="Y139">
-        <v>1.08</v>
-      </c>
-      <c r="Z139">
-        <v>1.53</v>
-      </c>
-      <c r="AA139">
-        <v>3.75</v>
-      </c>
-      <c r="AB139">
-        <v>5</v>
-      </c>
-      <c r="AC139">
-        <v>1.05</v>
-      </c>
-      <c r="AD139">
-        <v>9.5</v>
-      </c>
-      <c r="AE139">
-        <v>1.3</v>
-      </c>
-      <c r="AF139">
-        <v>3.3</v>
-      </c>
-      <c r="AG139">
-        <v>1.85</v>
-      </c>
-      <c r="AH139">
-        <v>1.8</v>
-      </c>
-      <c r="AI139">
-        <v>2</v>
-      </c>
-      <c r="AJ139">
-        <v>1.73</v>
-      </c>
-      <c r="AK139">
-        <v>1.08</v>
-      </c>
-      <c r="AL139">
-        <v>1.18</v>
-      </c>
-      <c r="AM139">
-        <v>2.4</v>
-      </c>
-      <c r="AN139">
-        <v>1.14</v>
-      </c>
-      <c r="AO139">
-        <v>1.33</v>
-      </c>
-      <c r="AP139">
-        <v>1.38</v>
-      </c>
-      <c r="AQ139">
-        <v>1.14</v>
-      </c>
-      <c r="AR139">
-        <v>1.46</v>
-      </c>
-      <c r="AS139">
-        <v>1.1</v>
-      </c>
-      <c r="AT139">
-        <v>2.56</v>
-      </c>
-      <c r="AU139">
-        <v>16</v>
-      </c>
       <c r="AV139">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW139">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY139">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AZ139">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB139">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BC139">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD139">
-        <v>1.43</v>
+        <v>1.79</v>
       </c>
       <c r="BE139">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF139">
-        <v>3.2</v>
+        <v>2.23</v>
       </c>
       <c r="BG139">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="BH139">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BI139">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="BJ139">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="BK139">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BL139">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BM139">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BN139">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BO139">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="BP139">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29773,7 +29779,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7469003</v>
+        <v>7469004</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29788,10 +29794,10 @@
         <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="H140" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -29803,175 +29809,175 @@
         <v>1</v>
       </c>
       <c r="L140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M140">
         <v>1</v>
       </c>
       <c r="N140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O140" t="s">
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>137</v>
       </c>
       <c r="Q140">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="R140">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S140">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T140">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="U140">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="V140">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="W140">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="X140">
-        <v>7.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Y140">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Z140">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AA140">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AB140">
         <v>2.87</v>
       </c>
       <c r="AC140">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AD140">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE140">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AF140">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AG140">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="AH140">
+        <v>1.57</v>
+      </c>
+      <c r="AI140">
+        <v>1.9</v>
+      </c>
+      <c r="AJ140">
+        <v>1.77</v>
+      </c>
+      <c r="AK140">
+        <v>1.38</v>
+      </c>
+      <c r="AL140">
+        <v>1.3</v>
+      </c>
+      <c r="AM140">
+        <v>1.53</v>
+      </c>
+      <c r="AN140">
+        <v>1.57</v>
+      </c>
+      <c r="AO140">
+        <v>1.29</v>
+      </c>
+      <c r="AP140">
         <v>1.75</v>
       </c>
-      <c r="AI140">
-        <v>1.73</v>
-      </c>
-      <c r="AJ140">
-        <v>1.95</v>
-      </c>
-      <c r="AK140">
-        <v>1.36</v>
-      </c>
-      <c r="AL140">
-        <v>1.28</v>
-      </c>
-      <c r="AM140">
-        <v>1.57</v>
-      </c>
-      <c r="AN140">
+      <c r="AQ140">
         <v>1.13</v>
       </c>
-      <c r="AO140">
-        <v>1.13</v>
-      </c>
-      <c r="AP140">
-        <v>1.11</v>
-      </c>
-      <c r="AQ140">
-        <v>1.11</v>
-      </c>
       <c r="AR140">
-        <v>1.24</v>
+        <v>1.66</v>
       </c>
       <c r="AS140">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AT140">
-        <v>2.5</v>
+        <v>3.12</v>
       </c>
       <c r="AU140">
         <v>8</v>
       </c>
       <c r="AV140">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW140">
+        <v>5</v>
+      </c>
+      <c r="AX140">
+        <v>1</v>
+      </c>
+      <c r="AY140">
+        <v>18</v>
+      </c>
+      <c r="AZ140">
         <v>6</v>
       </c>
-      <c r="AX140">
-        <v>3</v>
-      </c>
-      <c r="AY140">
-        <v>19</v>
-      </c>
-      <c r="AZ140">
-        <v>14</v>
-      </c>
       <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
         <v>4</v>
       </c>
-      <c r="BB140">
-        <v>10</v>
-      </c>
       <c r="BC140">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD140">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="BE140">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF140">
-        <v>2.23</v>
+        <v>2.28</v>
       </c>
       <c r="BG140">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="BH140">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="BI140">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="BJ140">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="BK140">
-        <v>2.18</v>
+        <v>2.33</v>
       </c>
       <c r="BL140">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BM140">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="BN140">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="BO140">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BP140">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30021,7 +30027,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30178,6 +30184,624 @@
       </c>
       <c r="BP141">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7469008</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45640.41666666666</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>87</v>
+      </c>
+      <c r="H142" t="s">
+        <v>74</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>190</v>
+      </c>
+      <c r="P142" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q142">
+        <v>3.2</v>
+      </c>
+      <c r="R142">
+        <v>2</v>
+      </c>
+      <c r="S142">
+        <v>3.4</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.6</v>
+      </c>
+      <c r="V142">
+        <v>3.05</v>
+      </c>
+      <c r="W142">
+        <v>1.34</v>
+      </c>
+      <c r="X142">
+        <v>7.9</v>
+      </c>
+      <c r="Y142">
+        <v>1.05</v>
+      </c>
+      <c r="Z142">
+        <v>2.5</v>
+      </c>
+      <c r="AA142">
+        <v>3.2</v>
+      </c>
+      <c r="AB142">
+        <v>2.8</v>
+      </c>
+      <c r="AC142">
+        <v>1.07</v>
+      </c>
+      <c r="AD142">
+        <v>8</v>
+      </c>
+      <c r="AE142">
+        <v>1.36</v>
+      </c>
+      <c r="AF142">
+        <v>3</v>
+      </c>
+      <c r="AG142">
+        <v>2.05</v>
+      </c>
+      <c r="AH142">
+        <v>1.68</v>
+      </c>
+      <c r="AI142">
+        <v>1.83</v>
+      </c>
+      <c r="AJ142">
+        <v>1.9</v>
+      </c>
+      <c r="AK142">
+        <v>1.44</v>
+      </c>
+      <c r="AL142">
+        <v>1.28</v>
+      </c>
+      <c r="AM142">
+        <v>1.5</v>
+      </c>
+      <c r="AN142">
+        <v>1.14</v>
+      </c>
+      <c r="AO142">
+        <v>0.57</v>
+      </c>
+      <c r="AP142">
+        <v>1.38</v>
+      </c>
+      <c r="AQ142">
+        <v>0.5</v>
+      </c>
+      <c r="AR142">
+        <v>1.16</v>
+      </c>
+      <c r="AS142">
+        <v>1.23</v>
+      </c>
+      <c r="AT142">
+        <v>2.39</v>
+      </c>
+      <c r="AU142">
+        <v>4</v>
+      </c>
+      <c r="AV142">
+        <v>7</v>
+      </c>
+      <c r="AW142">
+        <v>3</v>
+      </c>
+      <c r="AX142">
+        <v>8</v>
+      </c>
+      <c r="AY142">
+        <v>14</v>
+      </c>
+      <c r="AZ142">
+        <v>19</v>
+      </c>
+      <c r="BA142">
+        <v>4</v>
+      </c>
+      <c r="BB142">
+        <v>7</v>
+      </c>
+      <c r="BC142">
+        <v>11</v>
+      </c>
+      <c r="BD142">
+        <v>1.94</v>
+      </c>
+      <c r="BE142">
+        <v>6.4</v>
+      </c>
+      <c r="BF142">
+        <v>2.07</v>
+      </c>
+      <c r="BG142">
+        <v>1.34</v>
+      </c>
+      <c r="BH142">
+        <v>2.9</v>
+      </c>
+      <c r="BI142">
+        <v>1.58</v>
+      </c>
+      <c r="BJ142">
+        <v>2.18</v>
+      </c>
+      <c r="BK142">
+        <v>1.97</v>
+      </c>
+      <c r="BL142">
+        <v>1.74</v>
+      </c>
+      <c r="BM142">
+        <v>2.48</v>
+      </c>
+      <c r="BN142">
+        <v>1.47</v>
+      </c>
+      <c r="BO142">
+        <v>3.2</v>
+      </c>
+      <c r="BP142">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7469002</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45640.41666666666</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>86</v>
+      </c>
+      <c r="H143" t="s">
+        <v>85</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>2</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>191</v>
+      </c>
+      <c r="P143" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q143">
+        <v>2.6</v>
+      </c>
+      <c r="R143">
+        <v>2.1</v>
+      </c>
+      <c r="S143">
+        <v>4</v>
+      </c>
+      <c r="T143">
+        <v>1.4</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>2.8</v>
+      </c>
+      <c r="W143">
+        <v>1.39</v>
+      </c>
+      <c r="X143">
+        <v>6.95</v>
+      </c>
+      <c r="Y143">
+        <v>1.07</v>
+      </c>
+      <c r="Z143">
+        <v>1.95</v>
+      </c>
+      <c r="AA143">
+        <v>3.4</v>
+      </c>
+      <c r="AB143">
+        <v>3.7</v>
+      </c>
+      <c r="AC143">
+        <v>1.05</v>
+      </c>
+      <c r="AD143">
+        <v>9.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.3</v>
+      </c>
+      <c r="AF143">
+        <v>3.3</v>
+      </c>
+      <c r="AG143">
+        <v>1.91</v>
+      </c>
+      <c r="AH143">
+        <v>1.87</v>
+      </c>
+      <c r="AI143">
+        <v>1.78</v>
+      </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
+      <c r="AK143">
+        <v>1.28</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>1.8</v>
+      </c>
+      <c r="AN143">
+        <v>3</v>
+      </c>
+      <c r="AO143">
+        <v>2.13</v>
+      </c>
+      <c r="AP143">
+        <v>3</v>
+      </c>
+      <c r="AQ143">
+        <v>1.89</v>
+      </c>
+      <c r="AR143">
+        <v>1.78</v>
+      </c>
+      <c r="AS143">
+        <v>1.43</v>
+      </c>
+      <c r="AT143">
+        <v>3.21</v>
+      </c>
+      <c r="AU143">
+        <v>5</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>8</v>
+      </c>
+      <c r="AX143">
+        <v>5</v>
+      </c>
+      <c r="AY143">
+        <v>21</v>
+      </c>
+      <c r="AZ143">
+        <v>12</v>
+      </c>
+      <c r="BA143">
+        <v>8</v>
+      </c>
+      <c r="BB143">
+        <v>1</v>
+      </c>
+      <c r="BC143">
+        <v>9</v>
+      </c>
+      <c r="BD143">
+        <v>1.65</v>
+      </c>
+      <c r="BE143">
+        <v>6.4</v>
+      </c>
+      <c r="BF143">
+        <v>2.55</v>
+      </c>
+      <c r="BG143">
+        <v>1.44</v>
+      </c>
+      <c r="BH143">
+        <v>2.55</v>
+      </c>
+      <c r="BI143">
+        <v>1.74</v>
+      </c>
+      <c r="BJ143">
+        <v>1.97</v>
+      </c>
+      <c r="BK143">
+        <v>2.17</v>
+      </c>
+      <c r="BL143">
+        <v>1.58</v>
+      </c>
+      <c r="BM143">
+        <v>2.8</v>
+      </c>
+      <c r="BN143">
+        <v>1.37</v>
+      </c>
+      <c r="BO143">
+        <v>3.7</v>
+      </c>
+      <c r="BP143">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7469006</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45640.66666666666</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>84</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>90</v>
+      </c>
+      <c r="P144" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q144">
+        <v>4</v>
+      </c>
+      <c r="R144">
+        <v>2.1</v>
+      </c>
+      <c r="S144">
+        <v>2.75</v>
+      </c>
+      <c r="T144">
+        <v>1.4</v>
+      </c>
+      <c r="U144">
+        <v>2.75</v>
+      </c>
+      <c r="V144">
+        <v>3</v>
+      </c>
+      <c r="W144">
+        <v>1.36</v>
+      </c>
+      <c r="X144">
+        <v>8</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>3.3</v>
+      </c>
+      <c r="AA144">
+        <v>3.3</v>
+      </c>
+      <c r="AB144">
+        <v>2.11</v>
+      </c>
+      <c r="AC144">
+        <v>1.06</v>
+      </c>
+      <c r="AD144">
+        <v>8.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.3</v>
+      </c>
+      <c r="AF144">
+        <v>3.3</v>
+      </c>
+      <c r="AG144">
+        <v>1.98</v>
+      </c>
+      <c r="AH144">
+        <v>1.86</v>
+      </c>
+      <c r="AI144">
+        <v>1.73</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>1.7</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.3</v>
+      </c>
+      <c r="AN144">
+        <v>2.57</v>
+      </c>
+      <c r="AO144">
+        <v>1.43</v>
+      </c>
+      <c r="AP144">
+        <v>2.38</v>
+      </c>
+      <c r="AQ144">
+        <v>1.38</v>
+      </c>
+      <c r="AR144">
+        <v>1.43</v>
+      </c>
+      <c r="AS144">
+        <v>1.43</v>
+      </c>
+      <c r="AT144">
+        <v>2.86</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>5</v>
+      </c>
+      <c r="AX144">
+        <v>5</v>
+      </c>
+      <c r="AY144">
+        <v>11</v>
+      </c>
+      <c r="AZ144">
+        <v>12</v>
+      </c>
+      <c r="BA144">
+        <v>6</v>
+      </c>
+      <c r="BB144">
+        <v>2</v>
+      </c>
+      <c r="BC144">
+        <v>8</v>
+      </c>
+      <c r="BD144">
+        <v>2.3</v>
+      </c>
+      <c r="BE144">
+        <v>6.4</v>
+      </c>
+      <c r="BF144">
+        <v>1.77</v>
+      </c>
+      <c r="BG144">
+        <v>1.33</v>
+      </c>
+      <c r="BH144">
+        <v>2.95</v>
+      </c>
+      <c r="BI144">
+        <v>1.56</v>
+      </c>
+      <c r="BJ144">
+        <v>2.23</v>
+      </c>
+      <c r="BK144">
+        <v>1.91</v>
+      </c>
+      <c r="BL144">
+        <v>1.78</v>
+      </c>
+      <c r="BM144">
+        <v>2.4</v>
+      </c>
+      <c r="BN144">
+        <v>1.49</v>
+      </c>
+      <c r="BO144">
+        <v>3.15</v>
+      </c>
+      <c r="BP144">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -574,22 +574,22 @@
     <t>['90', '90+3']</t>
   </si>
   <si>
+    <t>['50', '72', '86']</t>
+  </si>
+  <si>
     <t>['20', '47', '72', '76']</t>
   </si>
   <si>
     <t>['89']</t>
   </si>
   <si>
-    <t>['50', '72', '86']</t>
-  </si>
-  <si>
     <t>['72']</t>
   </si>
   <si>
-    <t>['10', '16', '35']</t>
+    <t>['13', '90+7']</t>
   </si>
   <si>
-    <t>['13', '90+7']</t>
+    <t>['10', '16', '35']</t>
   </si>
   <si>
     <t>['16', '45+2']</t>
@@ -29161,7 +29161,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7469005</v>
+        <v>7469004</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29170,196 +29170,196 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45638.875</v>
+        <v>45639.66666666666</v>
       </c>
       <c r="F137">
         <v>16</v>
       </c>
       <c r="G137" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H137" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137">
         <v>1</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O137" t="s">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="Q137">
+        <v>3.1</v>
+      </c>
+      <c r="R137">
+        <v>1.93</v>
+      </c>
+      <c r="S137">
+        <v>3.6</v>
+      </c>
+      <c r="T137">
+        <v>1.5</v>
+      </c>
+      <c r="U137">
         <v>2.4</v>
       </c>
-      <c r="R137">
-        <v>2.05</v>
-      </c>
-      <c r="S137">
-        <v>4.75</v>
-      </c>
-      <c r="T137">
-        <v>1.47</v>
-      </c>
-      <c r="U137">
-        <v>2.5</v>
-      </c>
       <c r="V137">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W137">
+        <v>1.28</v>
+      </c>
+      <c r="X137">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y137">
+        <v>1.03</v>
+      </c>
+      <c r="Z137">
+        <v>2.3</v>
+      </c>
+      <c r="AA137">
+        <v>3</v>
+      </c>
+      <c r="AB137">
+        <v>2.87</v>
+      </c>
+      <c r="AC137">
+        <v>1.09</v>
+      </c>
+      <c r="AD137">
+        <v>7</v>
+      </c>
+      <c r="AE137">
+        <v>1.44</v>
+      </c>
+      <c r="AF137">
+        <v>2.75</v>
+      </c>
+      <c r="AG137">
+        <v>2.15</v>
+      </c>
+      <c r="AH137">
+        <v>1.57</v>
+      </c>
+      <c r="AI137">
+        <v>1.9</v>
+      </c>
+      <c r="AJ137">
+        <v>1.77</v>
+      </c>
+      <c r="AK137">
+        <v>1.38</v>
+      </c>
+      <c r="AL137">
         <v>1.3</v>
       </c>
-      <c r="X137">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="Y137">
-        <v>1.04</v>
-      </c>
-      <c r="Z137">
-        <v>1.7</v>
-      </c>
-      <c r="AA137">
-        <v>3.4</v>
-      </c>
-      <c r="AB137">
-        <v>4.2</v>
-      </c>
-      <c r="AC137">
-        <v>1.07</v>
-      </c>
-      <c r="AD137">
-        <v>8</v>
-      </c>
-      <c r="AE137">
-        <v>1.4</v>
-      </c>
-      <c r="AF137">
-        <v>2.8</v>
-      </c>
-      <c r="AG137">
-        <v>2.05</v>
-      </c>
-      <c r="AH137">
-        <v>1.65</v>
-      </c>
-      <c r="AI137">
-        <v>2.05</v>
-      </c>
-      <c r="AJ137">
-        <v>1.72</v>
-      </c>
-      <c r="AK137">
-        <v>1.15</v>
-      </c>
-      <c r="AL137">
-        <v>1.25</v>
-      </c>
       <c r="AM137">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="AN137">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AO137">
-        <v>0.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP137">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ137">
-        <v>0.13</v>
+        <v>1.13</v>
       </c>
       <c r="AR137">
-        <v>1.44</v>
+        <v>1.66</v>
       </c>
       <c r="AS137">
-        <v>1.02</v>
+        <v>1.46</v>
       </c>
       <c r="AT137">
-        <v>2.46</v>
+        <v>3.12</v>
       </c>
       <c r="AU137">
         <v>8</v>
       </c>
       <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
         <v>5</v>
       </c>
-      <c r="AW137">
-        <v>10</v>
-      </c>
       <c r="AX137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY137">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AZ137">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BA137">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BB137">
         <v>4</v>
       </c>
       <c r="BC137">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD137">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="BE137">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF137">
-        <v>2.7</v>
+        <v>2.28</v>
       </c>
       <c r="BG137">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="BH137">
         <v>2.4</v>
       </c>
       <c r="BI137">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="BJ137">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="BK137">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="BL137">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="BM137">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="BN137">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="BO137">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="BP137">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -29367,7 +29367,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7469001</v>
+        <v>7469005</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29376,16 +29376,16 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45638.875</v>
+        <v>45639.66666666666</v>
       </c>
       <c r="F138">
         <v>16</v>
       </c>
       <c r="G138" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H138" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -29397,175 +29397,175 @@
         <v>1</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M138">
         <v>0</v>
       </c>
       <c r="N138">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O138" t="s">
-        <v>186</v>
+        <v>101</v>
       </c>
       <c r="P138" t="s">
         <v>90</v>
       </c>
       <c r="Q138">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R138">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S138">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="T138">
+        <v>1.47</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>3.25</v>
+      </c>
+      <c r="W138">
+        <v>1.3</v>
+      </c>
+      <c r="X138">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y138">
+        <v>1.04</v>
+      </c>
+      <c r="Z138">
+        <v>1.7</v>
+      </c>
+      <c r="AA138">
+        <v>3.4</v>
+      </c>
+      <c r="AB138">
+        <v>4.2</v>
+      </c>
+      <c r="AC138">
+        <v>1.07</v>
+      </c>
+      <c r="AD138">
+        <v>8</v>
+      </c>
+      <c r="AE138">
         <v>1.4</v>
       </c>
-      <c r="U138">
-        <v>2.75</v>
-      </c>
-      <c r="V138">
-        <v>3</v>
-      </c>
-      <c r="W138">
-        <v>1.36</v>
-      </c>
-      <c r="X138">
+      <c r="AF138">
+        <v>2.8</v>
+      </c>
+      <c r="AG138">
+        <v>2.05</v>
+      </c>
+      <c r="AH138">
+        <v>1.65</v>
+      </c>
+      <c r="AI138">
+        <v>2.05</v>
+      </c>
+      <c r="AJ138">
+        <v>1.72</v>
+      </c>
+      <c r="AK138">
+        <v>1.15</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>2</v>
+      </c>
+      <c r="AN138">
+        <v>2</v>
+      </c>
+      <c r="AO138">
+        <v>0.14</v>
+      </c>
+      <c r="AP138">
+        <v>2.13</v>
+      </c>
+      <c r="AQ138">
+        <v>0.13</v>
+      </c>
+      <c r="AR138">
+        <v>1.44</v>
+      </c>
+      <c r="AS138">
+        <v>1.02</v>
+      </c>
+      <c r="AT138">
+        <v>2.46</v>
+      </c>
+      <c r="AU138">
         <v>8</v>
       </c>
-      <c r="Y138">
-        <v>1.08</v>
-      </c>
-      <c r="Z138">
-        <v>1.53</v>
-      </c>
-      <c r="AA138">
-        <v>3.75</v>
-      </c>
-      <c r="AB138">
+      <c r="AV138">
         <v>5</v>
       </c>
-      <c r="AC138">
-        <v>1.05</v>
-      </c>
-      <c r="AD138">
-        <v>9.5</v>
-      </c>
-      <c r="AE138">
-        <v>1.3</v>
-      </c>
-      <c r="AF138">
-        <v>3.3</v>
-      </c>
-      <c r="AG138">
-        <v>1.85</v>
-      </c>
-      <c r="AH138">
-        <v>1.8</v>
-      </c>
-      <c r="AI138">
-        <v>2</v>
-      </c>
-      <c r="AJ138">
-        <v>1.73</v>
-      </c>
-      <c r="AK138">
-        <v>1.08</v>
-      </c>
-      <c r="AL138">
-        <v>1.18</v>
-      </c>
-      <c r="AM138">
-        <v>2.4</v>
-      </c>
-      <c r="AN138">
-        <v>1.14</v>
-      </c>
-      <c r="AO138">
-        <v>1.33</v>
-      </c>
-      <c r="AP138">
-        <v>1.38</v>
-      </c>
-      <c r="AQ138">
-        <v>1.14</v>
-      </c>
-      <c r="AR138">
-        <v>1.46</v>
-      </c>
-      <c r="AS138">
-        <v>1.1</v>
-      </c>
-      <c r="AT138">
-        <v>2.56</v>
-      </c>
-      <c r="AU138">
-        <v>16</v>
-      </c>
-      <c r="AV138">
-        <v>2</v>
-      </c>
       <c r="AW138">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX138">
         <v>5</v>
       </c>
       <c r="AY138">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AZ138">
+        <v>12</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>4</v>
+      </c>
+      <c r="BC138">
         <v>8</v>
       </c>
-      <c r="BA138">
-        <v>5</v>
-      </c>
-      <c r="BB138">
-        <v>2</v>
-      </c>
-      <c r="BC138">
-        <v>7</v>
-      </c>
       <c r="BD138">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="BE138">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF138">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="BG138">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="BH138">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="BI138">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="BJ138">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="BK138">
-        <v>2.23</v>
+        <v>2.32</v>
       </c>
       <c r="BL138">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="BM138">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BN138">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BO138">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BP138">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29573,7 +29573,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7469003</v>
+        <v>7469001</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29588,190 +29588,190 @@
         <v>16</v>
       </c>
       <c r="G139" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H139" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>1</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O139" t="s">
         <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="Q139">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="R139">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S139">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="T139">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U139">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="V139">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="W139">
         <v>1.36</v>
       </c>
       <c r="X139">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y139">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z139">
-        <v>2.2</v>
+        <v>1.53</v>
       </c>
       <c r="AA139">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="AB139">
-        <v>2.87</v>
+        <v>5</v>
       </c>
       <c r="AC139">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD139">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE139">
+        <v>1.3</v>
+      </c>
+      <c r="AF139">
+        <v>3.3</v>
+      </c>
+      <c r="AG139">
+        <v>1.85</v>
+      </c>
+      <c r="AH139">
+        <v>1.8</v>
+      </c>
+      <c r="AI139">
+        <v>2</v>
+      </c>
+      <c r="AJ139">
+        <v>1.73</v>
+      </c>
+      <c r="AK139">
+        <v>1.08</v>
+      </c>
+      <c r="AL139">
+        <v>1.18</v>
+      </c>
+      <c r="AM139">
+        <v>2.4</v>
+      </c>
+      <c r="AN139">
+        <v>1.14</v>
+      </c>
+      <c r="AO139">
         <v>1.33</v>
       </c>
-      <c r="AF139">
-        <v>3.25</v>
-      </c>
-      <c r="AG139">
-        <v>1.91</v>
-      </c>
-      <c r="AH139">
-        <v>1.75</v>
-      </c>
-      <c r="AI139">
-        <v>1.73</v>
-      </c>
-      <c r="AJ139">
-        <v>1.95</v>
-      </c>
-      <c r="AK139">
-        <v>1.36</v>
-      </c>
-      <c r="AL139">
-        <v>1.28</v>
-      </c>
-      <c r="AM139">
+      <c r="AP139">
+        <v>1.38</v>
+      </c>
+      <c r="AQ139">
+        <v>1.14</v>
+      </c>
+      <c r="AR139">
+        <v>1.46</v>
+      </c>
+      <c r="AS139">
+        <v>1.1</v>
+      </c>
+      <c r="AT139">
+        <v>2.56</v>
+      </c>
+      <c r="AU139">
+        <v>17</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>11</v>
+      </c>
+      <c r="AX139">
+        <v>5</v>
+      </c>
+      <c r="AY139">
+        <v>32</v>
+      </c>
+      <c r="AZ139">
+        <v>8</v>
+      </c>
+      <c r="BA139">
+        <v>5</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>7</v>
+      </c>
+      <c r="BD139">
+        <v>1.43</v>
+      </c>
+      <c r="BE139">
+        <v>6.75</v>
+      </c>
+      <c r="BF139">
+        <v>3.2</v>
+      </c>
+      <c r="BG139">
+        <v>1.47</v>
+      </c>
+      <c r="BH139">
+        <v>2.48</v>
+      </c>
+      <c r="BI139">
+        <v>1.76</v>
+      </c>
+      <c r="BJ139">
+        <v>1.94</v>
+      </c>
+      <c r="BK139">
+        <v>2.23</v>
+      </c>
+      <c r="BL139">
         <v>1.57</v>
       </c>
-      <c r="AN139">
-        <v>1.13</v>
-      </c>
-      <c r="AO139">
-        <v>1.13</v>
-      </c>
-      <c r="AP139">
-        <v>1.11</v>
-      </c>
-      <c r="AQ139">
-        <v>1.11</v>
-      </c>
-      <c r="AR139">
-        <v>1.24</v>
-      </c>
-      <c r="AS139">
-        <v>1.26</v>
-      </c>
-      <c r="AT139">
-        <v>2.5</v>
-      </c>
-      <c r="AU139">
-        <v>8</v>
-      </c>
-      <c r="AV139">
-        <v>7</v>
-      </c>
-      <c r="AW139">
-        <v>6</v>
-      </c>
-      <c r="AX139">
-        <v>3</v>
-      </c>
-      <c r="AY139">
-        <v>19</v>
-      </c>
-      <c r="AZ139">
-        <v>14</v>
-      </c>
-      <c r="BA139">
-        <v>4</v>
-      </c>
-      <c r="BB139">
-        <v>10</v>
-      </c>
-      <c r="BC139">
-        <v>14</v>
-      </c>
-      <c r="BD139">
-        <v>1.79</v>
-      </c>
-      <c r="BE139">
-        <v>6.4</v>
-      </c>
-      <c r="BF139">
-        <v>2.23</v>
-      </c>
-      <c r="BG139">
-        <v>1.44</v>
-      </c>
-      <c r="BH139">
-        <v>2.55</v>
-      </c>
-      <c r="BI139">
-        <v>1.74</v>
-      </c>
-      <c r="BJ139">
-        <v>1.97</v>
-      </c>
-      <c r="BK139">
-        <v>2.18</v>
-      </c>
-      <c r="BL139">
-        <v>1.58</v>
-      </c>
       <c r="BM139">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BN139">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BO139">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BP139">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29779,7 +29779,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7469004</v>
+        <v>7469003</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29794,10 +29794,10 @@
         <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H140" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -29809,175 +29809,175 @@
         <v>1</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M140">
         <v>1</v>
       </c>
       <c r="N140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O140" t="s">
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>137</v>
+        <v>251</v>
       </c>
       <c r="Q140">
+        <v>2.95</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>3.5</v>
+      </c>
+      <c r="T140">
+        <v>1.42</v>
+      </c>
+      <c r="U140">
+        <v>2.65</v>
+      </c>
+      <c r="V140">
+        <v>2.88</v>
+      </c>
+      <c r="W140">
+        <v>1.36</v>
+      </c>
+      <c r="X140">
+        <v>7.5</v>
+      </c>
+      <c r="Y140">
+        <v>1.06</v>
+      </c>
+      <c r="Z140">
+        <v>2.2</v>
+      </c>
+      <c r="AA140">
         <v>3.1</v>
-      </c>
-      <c r="R140">
-        <v>1.93</v>
-      </c>
-      <c r="S140">
-        <v>3.6</v>
-      </c>
-      <c r="T140">
-        <v>1.5</v>
-      </c>
-      <c r="U140">
-        <v>2.4</v>
-      </c>
-      <c r="V140">
-        <v>3.3</v>
-      </c>
-      <c r="W140">
-        <v>1.28</v>
-      </c>
-      <c r="X140">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="Y140">
-        <v>1.03</v>
-      </c>
-      <c r="Z140">
-        <v>2.3</v>
-      </c>
-      <c r="AA140">
-        <v>3</v>
       </c>
       <c r="AB140">
         <v>2.87</v>
       </c>
       <c r="AC140">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="AD140">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE140">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="AF140">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AG140">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="AH140">
+        <v>1.75</v>
+      </c>
+      <c r="AI140">
+        <v>1.73</v>
+      </c>
+      <c r="AJ140">
+        <v>1.95</v>
+      </c>
+      <c r="AK140">
+        <v>1.36</v>
+      </c>
+      <c r="AL140">
+        <v>1.28</v>
+      </c>
+      <c r="AM140">
         <v>1.57</v>
       </c>
-      <c r="AI140">
-        <v>1.9</v>
-      </c>
-      <c r="AJ140">
-        <v>1.77</v>
-      </c>
-      <c r="AK140">
-        <v>1.38</v>
-      </c>
-      <c r="AL140">
-        <v>1.3</v>
-      </c>
-      <c r="AM140">
-        <v>1.53</v>
-      </c>
       <c r="AN140">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="AO140">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AP140">
-        <v>1.75</v>
+        <v>1.11</v>
       </c>
       <c r="AQ140">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR140">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="AS140">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="AT140">
-        <v>3.12</v>
+        <v>2.5</v>
       </c>
       <c r="AU140">
         <v>8</v>
       </c>
       <c r="AV140">
+        <v>7</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>19</v>
+      </c>
+      <c r="AZ140">
+        <v>14</v>
+      </c>
+      <c r="BA140">
         <v>4</v>
       </c>
-      <c r="AW140">
-        <v>5</v>
-      </c>
-      <c r="AX140">
-        <v>1</v>
-      </c>
-      <c r="AY140">
-        <v>18</v>
-      </c>
-      <c r="AZ140">
-        <v>6</v>
-      </c>
-      <c r="BA140">
-        <v>8</v>
-      </c>
       <c r="BB140">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BC140">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BD140">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="BE140">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF140">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="BG140">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="BH140">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BI140">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="BJ140">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="BK140">
-        <v>2.33</v>
+        <v>2.18</v>
       </c>
       <c r="BL140">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BM140">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="BN140">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="BO140">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BP140">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30135,7 +30135,7 @@
         <v>15</v>
       </c>
       <c r="AZ141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA141">
         <v>3</v>
@@ -30191,7 +30191,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7469008</v>
+        <v>7469006</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30200,196 +30200,196 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45640.41666666666</v>
+        <v>45639.875</v>
       </c>
       <c r="F142">
         <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H142" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142" t="s">
+        <v>90</v>
+      </c>
+      <c r="P142" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q142">
         <v>4</v>
       </c>
-      <c r="O142" t="s">
-        <v>190</v>
-      </c>
-      <c r="P142" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q142">
-        <v>3.2</v>
-      </c>
       <c r="R142">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S142">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="T142">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U142">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="V142">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W142">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X142">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y142">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z142">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AA142">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB142">
-        <v>2.8</v>
+        <v>2.11</v>
       </c>
       <c r="AC142">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD142">
+        <v>8.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.3</v>
+      </c>
+      <c r="AF142">
+        <v>3.3</v>
+      </c>
+      <c r="AG142">
+        <v>1.98</v>
+      </c>
+      <c r="AH142">
+        <v>1.86</v>
+      </c>
+      <c r="AI142">
+        <v>1.73</v>
+      </c>
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+      <c r="AK142">
+        <v>1.7</v>
+      </c>
+      <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.3</v>
+      </c>
+      <c r="AN142">
+        <v>2.57</v>
+      </c>
+      <c r="AO142">
+        <v>1.43</v>
+      </c>
+      <c r="AP142">
+        <v>2.38</v>
+      </c>
+      <c r="AQ142">
+        <v>1.38</v>
+      </c>
+      <c r="AR142">
+        <v>1.43</v>
+      </c>
+      <c r="AS142">
+        <v>1.43</v>
+      </c>
+      <c r="AT142">
+        <v>2.86</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>4</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
+        <v>5</v>
+      </c>
+      <c r="AY142">
+        <v>11</v>
+      </c>
+      <c r="AZ142">
+        <v>12</v>
+      </c>
+      <c r="BA142">
+        <v>6</v>
+      </c>
+      <c r="BB142">
+        <v>2</v>
+      </c>
+      <c r="BC142">
         <v>8</v>
       </c>
-      <c r="AE142">
-        <v>1.36</v>
-      </c>
-      <c r="AF142">
-        <v>3</v>
-      </c>
-      <c r="AG142">
-        <v>2.05</v>
-      </c>
-      <c r="AH142">
-        <v>1.68</v>
-      </c>
-      <c r="AI142">
-        <v>1.83</v>
-      </c>
-      <c r="AJ142">
-        <v>1.9</v>
-      </c>
-      <c r="AK142">
-        <v>1.44</v>
-      </c>
-      <c r="AL142">
-        <v>1.28</v>
-      </c>
-      <c r="AM142">
-        <v>1.5</v>
-      </c>
-      <c r="AN142">
-        <v>1.14</v>
-      </c>
-      <c r="AO142">
-        <v>0.57</v>
-      </c>
-      <c r="AP142">
-        <v>1.38</v>
-      </c>
-      <c r="AQ142">
-        <v>0.5</v>
-      </c>
-      <c r="AR142">
-        <v>1.16</v>
-      </c>
-      <c r="AS142">
-        <v>1.23</v>
-      </c>
-      <c r="AT142">
-        <v>2.39</v>
-      </c>
-      <c r="AU142">
-        <v>4</v>
-      </c>
-      <c r="AV142">
-        <v>7</v>
-      </c>
-      <c r="AW142">
-        <v>3</v>
-      </c>
-      <c r="AX142">
-        <v>8</v>
-      </c>
-      <c r="AY142">
-        <v>14</v>
-      </c>
-      <c r="AZ142">
-        <v>19</v>
-      </c>
-      <c r="BA142">
-        <v>4</v>
-      </c>
-      <c r="BB142">
-        <v>7</v>
-      </c>
-      <c r="BC142">
-        <v>11</v>
-      </c>
       <c r="BD142">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="BE142">
         <v>6.4</v>
       </c>
       <c r="BF142">
-        <v>2.07</v>
+        <v>1.77</v>
       </c>
       <c r="BG142">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BH142">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BI142">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BJ142">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BK142">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="BL142">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="BM142">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="BN142">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="BO142">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BP142">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30436,7 +30436,7 @@
         <v>2</v>
       </c>
       <c r="O143" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P143" t="s">
         <v>90</v>
@@ -30603,7 +30603,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7469006</v>
+        <v>7469008</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30612,196 +30612,196 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45640.66666666666</v>
+        <v>45640.41666666666</v>
       </c>
       <c r="F144">
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H144" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N144">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O144" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="P144" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q144">
+        <v>3.2</v>
+      </c>
+      <c r="R144">
+        <v>2</v>
+      </c>
+      <c r="S144">
+        <v>3.4</v>
+      </c>
+      <c r="T144">
+        <v>1.44</v>
+      </c>
+      <c r="U144">
+        <v>2.6</v>
+      </c>
+      <c r="V144">
+        <v>3.05</v>
+      </c>
+      <c r="W144">
+        <v>1.34</v>
+      </c>
+      <c r="X144">
+        <v>7.9</v>
+      </c>
+      <c r="Y144">
+        <v>1.05</v>
+      </c>
+      <c r="Z144">
+        <v>2.5</v>
+      </c>
+      <c r="AA144">
+        <v>3.2</v>
+      </c>
+      <c r="AB144">
+        <v>2.8</v>
+      </c>
+      <c r="AC144">
+        <v>1.07</v>
+      </c>
+      <c r="AD144">
+        <v>8</v>
+      </c>
+      <c r="AE144">
+        <v>1.36</v>
+      </c>
+      <c r="AF144">
+        <v>3</v>
+      </c>
+      <c r="AG144">
+        <v>2.05</v>
+      </c>
+      <c r="AH144">
+        <v>1.68</v>
+      </c>
+      <c r="AI144">
+        <v>1.83</v>
+      </c>
+      <c r="AJ144">
+        <v>1.9</v>
+      </c>
+      <c r="AK144">
+        <v>1.44</v>
+      </c>
+      <c r="AL144">
+        <v>1.28</v>
+      </c>
+      <c r="AM144">
+        <v>1.5</v>
+      </c>
+      <c r="AN144">
+        <v>1.14</v>
+      </c>
+      <c r="AO144">
+        <v>0.57</v>
+      </c>
+      <c r="AP144">
+        <v>1.38</v>
+      </c>
+      <c r="AQ144">
+        <v>0.5</v>
+      </c>
+      <c r="AR144">
+        <v>1.16</v>
+      </c>
+      <c r="AS144">
+        <v>1.23</v>
+      </c>
+      <c r="AT144">
+        <v>2.39</v>
+      </c>
+      <c r="AU144">
         <v>4</v>
       </c>
-      <c r="R144">
-        <v>2.1</v>
-      </c>
-      <c r="S144">
-        <v>2.75</v>
-      </c>
-      <c r="T144">
-        <v>1.4</v>
-      </c>
-      <c r="U144">
-        <v>2.75</v>
-      </c>
-      <c r="V144">
-        <v>3</v>
-      </c>
-      <c r="W144">
-        <v>1.36</v>
-      </c>
-      <c r="X144">
+      <c r="AV144">
+        <v>7</v>
+      </c>
+      <c r="AW144">
+        <v>3</v>
+      </c>
+      <c r="AX144">
         <v>8</v>
       </c>
-      <c r="Y144">
-        <v>1.08</v>
-      </c>
-      <c r="Z144">
-        <v>3.3</v>
-      </c>
-      <c r="AA144">
-        <v>3.3</v>
-      </c>
-      <c r="AB144">
-        <v>2.11</v>
-      </c>
-      <c r="AC144">
-        <v>1.06</v>
-      </c>
-      <c r="AD144">
-        <v>8.5</v>
-      </c>
-      <c r="AE144">
-        <v>1.3</v>
-      </c>
-      <c r="AF144">
-        <v>3.3</v>
-      </c>
-      <c r="AG144">
-        <v>1.98</v>
-      </c>
-      <c r="AH144">
-        <v>1.86</v>
-      </c>
-      <c r="AI144">
-        <v>1.73</v>
-      </c>
-      <c r="AJ144">
-        <v>2</v>
-      </c>
-      <c r="AK144">
-        <v>1.7</v>
-      </c>
-      <c r="AL144">
-        <v>1.25</v>
-      </c>
-      <c r="AM144">
-        <v>1.3</v>
-      </c>
-      <c r="AN144">
-        <v>2.57</v>
-      </c>
-      <c r="AO144">
-        <v>1.43</v>
-      </c>
-      <c r="AP144">
-        <v>2.38</v>
-      </c>
-      <c r="AQ144">
-        <v>1.38</v>
-      </c>
-      <c r="AR144">
-        <v>1.43</v>
-      </c>
-      <c r="AS144">
-        <v>1.43</v>
-      </c>
-      <c r="AT144">
-        <v>2.86</v>
-      </c>
-      <c r="AU144">
-        <v>6</v>
-      </c>
-      <c r="AV144">
+      <c r="AY144">
+        <v>14</v>
+      </c>
+      <c r="AZ144">
+        <v>19</v>
+      </c>
+      <c r="BA144">
         <v>4</v>
       </c>
-      <c r="AW144">
-        <v>5</v>
-      </c>
-      <c r="AX144">
-        <v>5</v>
-      </c>
-      <c r="AY144">
+      <c r="BB144">
+        <v>7</v>
+      </c>
+      <c r="BC144">
         <v>11</v>
       </c>
-      <c r="AZ144">
-        <v>12</v>
-      </c>
-      <c r="BA144">
-        <v>6</v>
-      </c>
-      <c r="BB144">
-        <v>2</v>
-      </c>
-      <c r="BC144">
-        <v>8</v>
-      </c>
       <c r="BD144">
-        <v>2.3</v>
+        <v>1.94</v>
       </c>
       <c r="BE144">
         <v>6.4</v>
       </c>
       <c r="BF144">
-        <v>1.77</v>
+        <v>2.07</v>
       </c>
       <c r="BG144">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BH144">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BI144">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BJ144">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BK144">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="BL144">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="BM144">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="BN144">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="BO144">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="BP144">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -592,6 +592,9 @@
     <t>['10', '16', '35']</t>
   </si>
   <si>
+    <t>['53', '65', '83']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -773,6 +776,9 @@
   </si>
   <si>
     <t>['6', '85', '89']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP144"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1399,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1805,7 +1811,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1883,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2629,7 +2635,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -3041,7 +3047,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3659,7 +3665,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3946,7 +3952,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4277,7 +4283,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4483,7 +4489,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5513,7 +5519,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5797,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ23">
         <v>1.11</v>
@@ -5925,7 +5931,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6131,7 +6137,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6337,7 +6343,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6749,7 +6755,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -8191,7 +8197,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8397,7 +8403,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8603,7 +8609,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8684,7 +8690,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ37">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR37">
         <v>1.13</v>
@@ -8809,7 +8815,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9015,7 +9021,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9427,7 +9433,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9633,7 +9639,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9711,7 +9717,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ42">
         <v>0.63</v>
@@ -9839,7 +9845,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10457,7 +10463,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>3.2</v>
@@ -11899,7 +11905,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11977,7 +11983,7 @@
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12105,7 +12111,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12311,7 +12317,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12723,7 +12729,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12929,7 +12935,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13135,7 +13141,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13341,7 +13347,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13753,7 +13759,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13959,7 +13965,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14165,7 +14171,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14246,7 +14252,7 @@
         <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.73</v>
@@ -14861,7 +14867,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -14989,7 +14995,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15195,7 +15201,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15401,7 +15407,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15813,7 +15819,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16019,7 +16025,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16225,7 +16231,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16431,7 +16437,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16512,7 +16518,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.25</v>
@@ -16637,7 +16643,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -17255,7 +17261,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17461,7 +17467,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17667,7 +17673,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18157,7 +18163,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18491,7 +18497,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18697,7 +18703,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19315,7 +19321,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19521,7 +19527,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19933,7 +19939,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20551,7 +20557,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20757,7 +20763,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21169,7 +21175,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21250,7 +21256,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ98">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR98">
         <v>1.06</v>
@@ -21659,7 +21665,7 @@
         <v>0.6</v>
       </c>
       <c r="AP100">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ100">
         <v>0.75</v>
@@ -22199,7 +22205,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22405,7 +22411,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -23229,7 +23235,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -24053,7 +24059,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24465,7 +24471,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24877,7 +24883,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25164,7 +25170,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ117">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.7</v>
@@ -25289,7 +25295,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25907,7 +25913,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -27015,7 +27021,7 @@
         <v>0.17</v>
       </c>
       <c r="AP126">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ126">
         <v>0.13</v>
@@ -28460,7 +28466,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ133">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR133">
         <v>1.34</v>
@@ -28585,7 +28591,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28791,7 +28797,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29821,7 +29827,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q140">
         <v>2.95</v>
@@ -30027,7 +30033,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30802,6 +30808,212 @@
       </c>
       <c r="BP144">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7469007</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45642.69791666666</v>
+      </c>
+      <c r="F145">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>72</v>
+      </c>
+      <c r="H145" t="s">
+        <v>76</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>3</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>4</v>
+      </c>
+      <c r="O145" t="s">
+        <v>192</v>
+      </c>
+      <c r="P145" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q145">
+        <v>2.75</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>4</v>
+      </c>
+      <c r="T145">
+        <v>1.4</v>
+      </c>
+      <c r="U145">
+        <v>2.75</v>
+      </c>
+      <c r="V145">
+        <v>2.75</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>8</v>
+      </c>
+      <c r="Y145">
+        <v>1.08</v>
+      </c>
+      <c r="Z145">
+        <v>2.31</v>
+      </c>
+      <c r="AA145">
+        <v>3.18</v>
+      </c>
+      <c r="AB145">
+        <v>2.77</v>
+      </c>
+      <c r="AC145">
+        <v>1.06</v>
+      </c>
+      <c r="AD145">
+        <v>8.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.3</v>
+      </c>
+      <c r="AF145">
+        <v>3.35</v>
+      </c>
+      <c r="AG145">
+        <v>1.87</v>
+      </c>
+      <c r="AH145">
+        <v>1.83</v>
+      </c>
+      <c r="AI145">
+        <v>1.73</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>1.3</v>
+      </c>
+      <c r="AL145">
+        <v>1.25</v>
+      </c>
+      <c r="AM145">
+        <v>1.7</v>
+      </c>
+      <c r="AN145">
+        <v>2.63</v>
+      </c>
+      <c r="AO145">
+        <v>0.57</v>
+      </c>
+      <c r="AP145">
+        <v>2.67</v>
+      </c>
+      <c r="AQ145">
+        <v>0.5</v>
+      </c>
+      <c r="AR145">
+        <v>1.62</v>
+      </c>
+      <c r="AS145">
+        <v>1.45</v>
+      </c>
+      <c r="AT145">
+        <v>3.07</v>
+      </c>
+      <c r="AU145">
+        <v>9</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>19</v>
+      </c>
+      <c r="AZ145">
+        <v>6</v>
+      </c>
+      <c r="BA145">
+        <v>9</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>9</v>
+      </c>
+      <c r="BD145">
+        <v>1.66</v>
+      </c>
+      <c r="BE145">
+        <v>6.5</v>
+      </c>
+      <c r="BF145">
+        <v>2.48</v>
+      </c>
+      <c r="BG145">
+        <v>1.32</v>
+      </c>
+      <c r="BH145">
+        <v>3.05</v>
+      </c>
+      <c r="BI145">
+        <v>1.54</v>
+      </c>
+      <c r="BJ145">
+        <v>2.28</v>
+      </c>
+      <c r="BK145">
+        <v>1.9</v>
+      </c>
+      <c r="BL145">
+        <v>1.79</v>
+      </c>
+      <c r="BM145">
+        <v>2.38</v>
+      </c>
+      <c r="BN145">
+        <v>1.5</v>
+      </c>
+      <c r="BO145">
+        <v>3.05</v>
+      </c>
+      <c r="BP145">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -30197,7 +30197,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7469006</v>
+        <v>7469002</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30206,49 +30206,49 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45639.875</v>
+        <v>45640.41666666666</v>
       </c>
       <c r="F142">
         <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H142" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M142">
         <v>0</v>
       </c>
       <c r="N142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O142" t="s">
-        <v>90</v>
+        <v>190</v>
       </c>
       <c r="P142" t="s">
         <v>90</v>
       </c>
       <c r="Q142">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="R142">
         <v>2.1</v>
       </c>
       <c r="S142">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="T142">
         <v>1.4</v>
@@ -30257,31 +30257,31 @@
         <v>2.75</v>
       </c>
       <c r="V142">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W142">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="X142">
-        <v>8</v>
+        <v>6.95</v>
       </c>
       <c r="Y142">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z142">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="AA142">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB142">
-        <v>2.11</v>
+        <v>3.7</v>
       </c>
       <c r="AC142">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD142">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE142">
         <v>1.3</v>
@@ -30290,112 +30290,112 @@
         <v>3.3</v>
       </c>
       <c r="AG142">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="AH142">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AI142">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="AJ142">
         <v>2</v>
       </c>
       <c r="AK142">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="AL142">
         <v>1.25</v>
       </c>
       <c r="AM142">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AN142">
-        <v>2.57</v>
+        <v>3</v>
       </c>
       <c r="AO142">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AP142">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="AQ142">
-        <v>1.38</v>
+        <v>1.89</v>
       </c>
       <c r="AR142">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="AS142">
         <v>1.43</v>
       </c>
       <c r="AT142">
-        <v>2.86</v>
+        <v>3.21</v>
       </c>
       <c r="AU142">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV142">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW142">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX142">
         <v>5</v>
       </c>
       <c r="AY142">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AZ142">
         <v>12</v>
       </c>
       <c r="BA142">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD142">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="BE142">
         <v>6.4</v>
       </c>
       <c r="BF142">
-        <v>1.77</v>
+        <v>2.55</v>
       </c>
       <c r="BG142">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="BH142">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BI142">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="BJ142">
-        <v>2.23</v>
+        <v>1.97</v>
       </c>
       <c r="BK142">
-        <v>1.91</v>
+        <v>2.17</v>
       </c>
       <c r="BL142">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="BM142">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BN142">
-        <v>1.49</v>
+        <v>1.37</v>
       </c>
       <c r="BO142">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="BP142">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30403,7 +30403,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7469002</v>
+        <v>7469008</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30418,190 +30418,190 @@
         <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H143" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L143">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O143" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P143" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="Q143">
+        <v>3.2</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>3.4</v>
+      </c>
+      <c r="T143">
+        <v>1.44</v>
+      </c>
+      <c r="U143">
         <v>2.6</v>
       </c>
-      <c r="R143">
-        <v>2.1</v>
-      </c>
-      <c r="S143">
+      <c r="V143">
+        <v>3.05</v>
+      </c>
+      <c r="W143">
+        <v>1.34</v>
+      </c>
+      <c r="X143">
+        <v>7.9</v>
+      </c>
+      <c r="Y143">
+        <v>1.05</v>
+      </c>
+      <c r="Z143">
+        <v>2.5</v>
+      </c>
+      <c r="AA143">
+        <v>3.2</v>
+      </c>
+      <c r="AB143">
+        <v>2.8</v>
+      </c>
+      <c r="AC143">
+        <v>1.07</v>
+      </c>
+      <c r="AD143">
+        <v>8</v>
+      </c>
+      <c r="AE143">
+        <v>1.36</v>
+      </c>
+      <c r="AF143">
+        <v>3</v>
+      </c>
+      <c r="AG143">
+        <v>2.05</v>
+      </c>
+      <c r="AH143">
+        <v>1.68</v>
+      </c>
+      <c r="AI143">
+        <v>1.83</v>
+      </c>
+      <c r="AJ143">
+        <v>1.9</v>
+      </c>
+      <c r="AK143">
+        <v>1.44</v>
+      </c>
+      <c r="AL143">
+        <v>1.28</v>
+      </c>
+      <c r="AM143">
+        <v>1.5</v>
+      </c>
+      <c r="AN143">
+        <v>1.14</v>
+      </c>
+      <c r="AO143">
+        <v>0.57</v>
+      </c>
+      <c r="AP143">
+        <v>1.38</v>
+      </c>
+      <c r="AQ143">
+        <v>0.5</v>
+      </c>
+      <c r="AR143">
+        <v>1.16</v>
+      </c>
+      <c r="AS143">
+        <v>1.23</v>
+      </c>
+      <c r="AT143">
+        <v>2.39</v>
+      </c>
+      <c r="AU143">
         <v>4</v>
       </c>
-      <c r="T143">
-        <v>1.4</v>
-      </c>
-      <c r="U143">
-        <v>2.75</v>
-      </c>
-      <c r="V143">
-        <v>2.8</v>
-      </c>
-      <c r="W143">
-        <v>1.39</v>
-      </c>
-      <c r="X143">
-        <v>6.95</v>
-      </c>
-      <c r="Y143">
-        <v>1.07</v>
-      </c>
-      <c r="Z143">
-        <v>1.95</v>
-      </c>
-      <c r="AA143">
-        <v>3.4</v>
-      </c>
-      <c r="AB143">
-        <v>3.7</v>
-      </c>
-      <c r="AC143">
-        <v>1.05</v>
-      </c>
-      <c r="AD143">
-        <v>9.5</v>
-      </c>
-      <c r="AE143">
-        <v>1.3</v>
-      </c>
-      <c r="AF143">
-        <v>3.3</v>
-      </c>
-      <c r="AG143">
-        <v>1.91</v>
-      </c>
-      <c r="AH143">
-        <v>1.87</v>
-      </c>
-      <c r="AI143">
-        <v>1.78</v>
-      </c>
-      <c r="AJ143">
-        <v>2</v>
-      </c>
-      <c r="AK143">
-        <v>1.28</v>
-      </c>
-      <c r="AL143">
-        <v>1.25</v>
-      </c>
-      <c r="AM143">
-        <v>1.8</v>
-      </c>
-      <c r="AN143">
-        <v>3</v>
-      </c>
-      <c r="AO143">
-        <v>2.13</v>
-      </c>
-      <c r="AP143">
-        <v>3</v>
-      </c>
-      <c r="AQ143">
-        <v>1.89</v>
-      </c>
-      <c r="AR143">
-        <v>1.78</v>
-      </c>
-      <c r="AS143">
-        <v>1.43</v>
-      </c>
-      <c r="AT143">
-        <v>3.21</v>
-      </c>
-      <c r="AU143">
-        <v>5</v>
-      </c>
       <c r="AV143">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW143">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX143">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY143">
+        <v>14</v>
+      </c>
+      <c r="AZ143">
         <v>21</v>
       </c>
-      <c r="AZ143">
-        <v>12</v>
-      </c>
       <c r="BA143">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BB143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC143">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD143">
-        <v>1.65</v>
+        <v>1.94</v>
       </c>
       <c r="BE143">
         <v>6.4</v>
       </c>
       <c r="BF143">
-        <v>2.55</v>
+        <v>2.07</v>
       </c>
       <c r="BG143">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="BH143">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BI143">
+        <v>1.58</v>
+      </c>
+      <c r="BJ143">
+        <v>2.18</v>
+      </c>
+      <c r="BK143">
+        <v>1.97</v>
+      </c>
+      <c r="BL143">
         <v>1.74</v>
       </c>
-      <c r="BJ143">
-        <v>1.97</v>
-      </c>
-      <c r="BK143">
-        <v>2.17</v>
-      </c>
-      <c r="BL143">
-        <v>1.58</v>
-      </c>
       <c r="BM143">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BN143">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="BO143">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BP143">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -30609,7 +30609,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7469008</v>
+        <v>7469006</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30618,196 +30618,196 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45640.41666666666</v>
+        <v>45640.66666666666</v>
       </c>
       <c r="F144">
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H144" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144">
         <v>0</v>
       </c>
       <c r="K144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144" t="s">
+        <v>90</v>
+      </c>
+      <c r="P144" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q144">
         <v>4</v>
       </c>
-      <c r="O144" t="s">
-        <v>191</v>
-      </c>
-      <c r="P144" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q144">
-        <v>3.2</v>
-      </c>
       <c r="R144">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S144">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="T144">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U144">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="V144">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W144">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="X144">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y144">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="Z144">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AA144">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB144">
-        <v>2.8</v>
+        <v>2.11</v>
       </c>
       <c r="AC144">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD144">
+        <v>8.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.3</v>
+      </c>
+      <c r="AF144">
+        <v>3.3</v>
+      </c>
+      <c r="AG144">
+        <v>1.98</v>
+      </c>
+      <c r="AH144">
+        <v>1.86</v>
+      </c>
+      <c r="AI144">
+        <v>1.73</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>1.7</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.3</v>
+      </c>
+      <c r="AN144">
+        <v>2.57</v>
+      </c>
+      <c r="AO144">
+        <v>1.43</v>
+      </c>
+      <c r="AP144">
+        <v>2.38</v>
+      </c>
+      <c r="AQ144">
+        <v>1.38</v>
+      </c>
+      <c r="AR144">
+        <v>1.43</v>
+      </c>
+      <c r="AS144">
+        <v>1.43</v>
+      </c>
+      <c r="AT144">
+        <v>2.86</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>4</v>
+      </c>
+      <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
+        <v>7</v>
+      </c>
+      <c r="AY144">
+        <v>12</v>
+      </c>
+      <c r="AZ144">
+        <v>11</v>
+      </c>
+      <c r="BA144">
+        <v>6</v>
+      </c>
+      <c r="BB144">
+        <v>2</v>
+      </c>
+      <c r="BC144">
         <v>8</v>
       </c>
-      <c r="AE144">
-        <v>1.36</v>
-      </c>
-      <c r="AF144">
-        <v>3</v>
-      </c>
-      <c r="AG144">
-        <v>2.05</v>
-      </c>
-      <c r="AH144">
-        <v>1.68</v>
-      </c>
-      <c r="AI144">
-        <v>1.83</v>
-      </c>
-      <c r="AJ144">
-        <v>1.9</v>
-      </c>
-      <c r="AK144">
-        <v>1.44</v>
-      </c>
-      <c r="AL144">
-        <v>1.28</v>
-      </c>
-      <c r="AM144">
-        <v>1.5</v>
-      </c>
-      <c r="AN144">
-        <v>1.14</v>
-      </c>
-      <c r="AO144">
-        <v>0.57</v>
-      </c>
-      <c r="AP144">
-        <v>1.38</v>
-      </c>
-      <c r="AQ144">
-        <v>0.5</v>
-      </c>
-      <c r="AR144">
-        <v>1.16</v>
-      </c>
-      <c r="AS144">
-        <v>1.23</v>
-      </c>
-      <c r="AT144">
-        <v>2.39</v>
-      </c>
-      <c r="AU144">
-        <v>4</v>
-      </c>
-      <c r="AV144">
-        <v>7</v>
-      </c>
-      <c r="AW144">
-        <v>3</v>
-      </c>
-      <c r="AX144">
-        <v>8</v>
-      </c>
-      <c r="AY144">
-        <v>14</v>
-      </c>
-      <c r="AZ144">
-        <v>19</v>
-      </c>
-      <c r="BA144">
-        <v>4</v>
-      </c>
-      <c r="BB144">
-        <v>7</v>
-      </c>
-      <c r="BC144">
-        <v>11</v>
-      </c>
       <c r="BD144">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="BE144">
         <v>6.4</v>
       </c>
       <c r="BF144">
-        <v>2.07</v>
+        <v>1.77</v>
       </c>
       <c r="BG144">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BH144">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BI144">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BJ144">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BK144">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="BL144">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="BM144">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="BN144">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="BO144">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="BP144">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30824,7 +30824,7 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45642.69791666666</v>
+        <v>45641.875</v>
       </c>
       <c r="F145">
         <v>16</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -30824,7 +30824,7 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45641.875</v>
+        <v>45642.69791666666</v>
       </c>
       <c r="F145">
         <v>16</v>
@@ -30950,22 +30950,22 @@
         <v>3.07</v>
       </c>
       <c r="AU145">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AV145">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW145">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX145">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY145">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="AZ145">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA145">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -10466,73 +10466,73 @@
         <v>213</v>
       </c>
       <c r="Q46">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="U46">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="V46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="X46">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="Z46">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>0</v>
       </c>
       <c r="AB46">
-        <v>999.99</v>
+        <v>0</v>
       </c>
       <c r="AC46">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AE46">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH46">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AI46">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AK46">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AL46">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AM46">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AN46">
         <v>1</v>
@@ -10583,43 +10583,43 @@
         <v>11</v>
       </c>
       <c r="BD46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE46">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BF46">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="BG46">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="BH46">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="BI46">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="BJ46">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="BK46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL46">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="BM46">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="BN46">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="BO46">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="BP46">
-        <v>1.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -30950,22 +30950,22 @@
         <v>3.07</v>
       </c>
       <c r="AU145">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV145">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW145">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX145">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY145">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ145">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BA145">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,15 @@
     <t>['53', '65', '83']</t>
   </si>
   <si>
+    <t>['8', '82', '90+4']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['67', '86']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -779,6 +788,24 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['36', '72']</t>
+  </si>
+  <si>
+    <t>['2', '89']</t>
+  </si>
+  <si>
+    <t>['37', '47']</t>
+  </si>
+  <si>
+    <t>['7', '45+2', '50']</t>
+  </si>
+  <si>
+    <t>['47', '85']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1426,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1480,7 +1507,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ2">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1683,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
         <v>1.11</v>
@@ -1811,7 +1838,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -1892,7 +1919,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2095,10 +2122,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2301,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6">
         <v>1.56</v>
@@ -2507,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ7">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2635,7 +2662,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2713,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ8">
         <v>1.89</v>
@@ -2922,7 +2949,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ9">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3047,7 +3074,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3125,10 +3152,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3334,7 +3361,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3537,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>1.13</v>
@@ -3665,7 +3692,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3743,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -4283,7 +4310,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4364,7 +4391,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ16">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4489,7 +4516,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -4567,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -5185,10 +5212,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5519,7 +5546,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5597,10 +5624,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -5931,7 +5958,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6009,10 +6036,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR24">
         <v>1.39</v>
@@ -6137,7 +6164,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6218,7 +6245,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -6343,7 +6370,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6421,10 +6448,10 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ26">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>1.19</v>
@@ -6627,10 +6654,10 @@
         <v>3</v>
       </c>
       <c r="AP27">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.55</v>
@@ -6755,7 +6782,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -6833,7 +6860,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ28">
         <v>1.56</v>
@@ -7039,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>0.13</v>
@@ -7248,7 +7275,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7660,7 +7687,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>0.82</v>
@@ -8072,7 +8099,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8197,7 +8224,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8275,7 +8302,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1.13</v>
@@ -8403,7 +8430,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8481,7 +8508,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8609,7 +8636,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8687,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ37">
         <v>0.5</v>
@@ -8815,7 +8842,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9021,7 +9048,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9433,7 +9460,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9511,10 +9538,10 @@
         <v>2</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR41">
         <v>1.73</v>
@@ -9639,7 +9666,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9720,7 +9747,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ42">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -9845,7 +9872,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10129,7 +10156,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ44">
         <v>0.13</v>
@@ -10335,10 +10362,10 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10463,7 +10490,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10541,10 +10568,10 @@
         <v>1.5</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>1.88</v>
@@ -10747,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ47">
         <v>0.75</v>
@@ -10956,7 +10983,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11159,10 +11186,10 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ49">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR49">
         <v>1.53</v>
@@ -11365,7 +11392,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>1.13</v>
@@ -11574,7 +11601,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.48</v>
@@ -11777,7 +11804,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>0.5</v>
@@ -11905,7 +11932,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11986,7 +12013,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR53">
         <v>1.76</v>
@@ -12111,7 +12138,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12192,7 +12219,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.19</v>
@@ -12317,7 +12344,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12395,7 +12422,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12729,7 +12756,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12807,10 +12834,10 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
         <v>1.54</v>
@@ -12935,7 +12962,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13141,7 +13168,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13222,7 +13249,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR59">
         <v>1.53</v>
@@ -13347,7 +13374,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13425,7 +13452,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ60">
         <v>1.11</v>
@@ -13631,10 +13658,10 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR61">
         <v>1.29</v>
@@ -13759,7 +13786,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13965,7 +13992,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14171,7 +14198,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14249,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14455,7 +14482,7 @@
         <v>1.75</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
         <v>1.56</v>
@@ -14664,7 +14691,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ66">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14870,7 +14897,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -14995,7 +15022,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15073,7 +15100,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15201,7 +15228,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15279,10 +15306,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR69">
         <v>1.23</v>
@@ -15407,7 +15434,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15485,10 +15512,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.55</v>
@@ -15819,7 +15846,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -15897,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -16025,7 +16052,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16231,7 +16258,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16309,10 +16336,10 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ74">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.85</v>
@@ -16437,7 +16464,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16643,7 +16670,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16721,7 +16748,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16927,7 +16954,7 @@
         <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ77">
         <v>1.38</v>
@@ -17136,7 +17163,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17261,7 +17288,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17339,7 +17366,7 @@
         <v>0.25</v>
       </c>
       <c r="AP79">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ79">
         <v>0.13</v>
@@ -17467,7 +17494,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17548,7 +17575,7 @@
         <v>3</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR80">
         <v>2.09</v>
@@ -17673,7 +17700,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17960,7 +17987,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR82">
         <v>1.57</v>
@@ -18166,7 +18193,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR83">
         <v>1.6</v>
@@ -18497,7 +18524,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18703,7 +18730,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18781,10 +18808,10 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ86">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR86">
         <v>1.88</v>
@@ -18990,7 +19017,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ87">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR87">
         <v>1.28</v>
@@ -19193,7 +19220,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ88">
         <v>1.13</v>
@@ -19321,7 +19348,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19399,7 +19426,7 @@
         <v>0.75</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19527,7 +19554,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19605,10 +19632,10 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ90">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19814,7 +19841,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ91">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.25</v>
@@ -19939,7 +19966,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20017,10 +20044,10 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20429,10 +20456,10 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR94">
         <v>1.21</v>
@@ -20557,7 +20584,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20763,7 +20790,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21047,7 +21074,7 @@
         <v>2.4</v>
       </c>
       <c r="AP97">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ97">
         <v>1.89</v>
@@ -21175,7 +21202,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21459,7 +21486,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ99">
         <v>0.13</v>
@@ -21874,7 +21901,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ101">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
@@ -22205,7 +22232,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22286,7 +22313,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR103">
         <v>1.26</v>
@@ -22411,7 +22438,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22489,7 +22516,7 @@
         <v>1.17</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ104">
         <v>1.11</v>
@@ -22698,7 +22725,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ105">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR105">
         <v>1.41</v>
@@ -22901,10 +22928,10 @@
         <v>1.25</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ106">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR106">
         <v>1.41</v>
@@ -23107,7 +23134,7 @@
         <v>0.6</v>
       </c>
       <c r="AP107">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ107">
         <v>0.5</v>
@@ -23235,7 +23262,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23313,7 +23340,7 @@
         <v>1.2</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ108">
         <v>1.38</v>
@@ -23519,10 +23546,10 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ109">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR109">
         <v>1.6</v>
@@ -23725,10 +23752,10 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR110">
         <v>1.85</v>
@@ -23931,7 +23958,7 @@
         <v>0.8</v>
       </c>
       <c r="AP111">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24059,7 +24086,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24137,10 +24164,10 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR112">
         <v>1.26</v>
@@ -24343,10 +24370,10 @@
         <v>1.4</v>
       </c>
       <c r="AP113">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR113">
         <v>1.1</v>
@@ -24471,7 +24498,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24552,7 +24579,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR114">
         <v>1.28</v>
@@ -24883,7 +24910,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -25167,7 +25194,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ117">
         <v>0.5</v>
@@ -25295,7 +25322,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25913,7 +25940,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -25991,7 +26018,7 @@
         <v>1.14</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ121">
         <v>1.11</v>
@@ -26197,7 +26224,7 @@
         <v>0.5</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AQ122">
         <v>0.75</v>
@@ -26406,7 +26433,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR123">
         <v>1.44</v>
@@ -26609,10 +26636,10 @@
         <v>1</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AR124">
         <v>1.79</v>
@@ -26818,7 +26845,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ125">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.66</v>
@@ -27227,10 +27254,10 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ127">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
         <v>1.21</v>
@@ -27436,7 +27463,7 @@
         <v>3</v>
       </c>
       <c r="AQ128">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>1.83</v>
@@ -27845,10 +27872,10 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AQ130">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR130">
         <v>1.89</v>
@@ -28054,7 +28081,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR131">
         <v>1.33</v>
@@ -28260,7 +28287,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR132">
         <v>1.26</v>
@@ -28463,7 +28490,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ133">
         <v>0.5</v>
@@ -28591,7 +28618,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28669,7 +28696,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
         <v>0.75</v>
@@ -28797,7 +28824,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -28875,7 +28902,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AQ135">
         <v>1.89</v>
@@ -29081,7 +29108,7 @@
         <v>1.17</v>
       </c>
       <c r="AP136">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AQ136">
         <v>1</v>
@@ -29702,7 +29729,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ139">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR139">
         <v>1.46</v>
@@ -29827,7 +29854,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>2.95</v>
@@ -30033,7 +30060,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30111,7 +30138,7 @@
         <v>1.38</v>
       </c>
       <c r="AP141">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ141">
         <v>1.56</v>
@@ -30857,7 +30884,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31013,6 +31040,1860 @@
         <v>3.05</v>
       </c>
       <c r="BP145">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7469012</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45660.66666666666</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" t="s">
+        <v>83</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>193</v>
+      </c>
+      <c r="P146" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q146">
+        <v>3.75</v>
+      </c>
+      <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
+        <v>3.4</v>
+      </c>
+      <c r="T146">
+        <v>1.53</v>
+      </c>
+      <c r="U146">
+        <v>2.38</v>
+      </c>
+      <c r="V146">
+        <v>3.75</v>
+      </c>
+      <c r="W146">
+        <v>1.25</v>
+      </c>
+      <c r="X146">
+        <v>11</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>3.26</v>
+      </c>
+      <c r="AA146">
+        <v>3</v>
+      </c>
+      <c r="AB146">
+        <v>2.3</v>
+      </c>
+      <c r="AC146">
+        <v>1.1</v>
+      </c>
+      <c r="AD146">
+        <v>6.86</v>
+      </c>
+      <c r="AE146">
+        <v>1.47</v>
+      </c>
+      <c r="AF146">
+        <v>2.67</v>
+      </c>
+      <c r="AG146">
+        <v>2.39</v>
+      </c>
+      <c r="AH146">
+        <v>1.51</v>
+      </c>
+      <c r="AI146">
+        <v>2</v>
+      </c>
+      <c r="AJ146">
+        <v>1.73</v>
+      </c>
+      <c r="AK146">
+        <v>1.5</v>
+      </c>
+      <c r="AL146">
+        <v>1.3</v>
+      </c>
+      <c r="AM146">
+        <v>1.4</v>
+      </c>
+      <c r="AN146">
+        <v>1.75</v>
+      </c>
+      <c r="AO146">
+        <v>1</v>
+      </c>
+      <c r="AP146">
+        <v>1.89</v>
+      </c>
+      <c r="AQ146">
+        <v>0.89</v>
+      </c>
+      <c r="AR146">
+        <v>1.08</v>
+      </c>
+      <c r="AS146">
+        <v>1.32</v>
+      </c>
+      <c r="AT146">
+        <v>2.4</v>
+      </c>
+      <c r="AU146">
+        <v>7</v>
+      </c>
+      <c r="AV146">
+        <v>7</v>
+      </c>
+      <c r="AW146">
+        <v>6</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>15</v>
+      </c>
+      <c r="AZ146">
+        <v>12</v>
+      </c>
+      <c r="BA146">
+        <v>4</v>
+      </c>
+      <c r="BB146">
+        <v>4</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>2.08</v>
+      </c>
+      <c r="BE146">
+        <v>6.4</v>
+      </c>
+      <c r="BF146">
+        <v>1.93</v>
+      </c>
+      <c r="BG146">
+        <v>1.34</v>
+      </c>
+      <c r="BH146">
+        <v>2.9</v>
+      </c>
+      <c r="BI146">
+        <v>1.56</v>
+      </c>
+      <c r="BJ146">
+        <v>2.23</v>
+      </c>
+      <c r="BK146">
+        <v>1.98</v>
+      </c>
+      <c r="BL146">
+        <v>1.82</v>
+      </c>
+      <c r="BM146">
+        <v>2.4</v>
+      </c>
+      <c r="BN146">
+        <v>1.5</v>
+      </c>
+      <c r="BO146">
+        <v>3.05</v>
+      </c>
+      <c r="BP146">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7469013</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45660.66666666666</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>71</v>
+      </c>
+      <c r="H147" t="s">
+        <v>84</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>129</v>
+      </c>
+      <c r="P147" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q147">
+        <v>3.75</v>
+      </c>
+      <c r="R147">
+        <v>1.91</v>
+      </c>
+      <c r="S147">
+        <v>3.5</v>
+      </c>
+      <c r="T147">
+        <v>1.57</v>
+      </c>
+      <c r="U147">
+        <v>2.25</v>
+      </c>
+      <c r="V147">
+        <v>3.75</v>
+      </c>
+      <c r="W147">
+        <v>1.25</v>
+      </c>
+      <c r="X147">
+        <v>13</v>
+      </c>
+      <c r="Y147">
+        <v>1.04</v>
+      </c>
+      <c r="Z147">
+        <v>2.85</v>
+      </c>
+      <c r="AA147">
+        <v>2.95</v>
+      </c>
+      <c r="AB147">
+        <v>2.6</v>
+      </c>
+      <c r="AC147">
+        <v>1.12</v>
+      </c>
+      <c r="AD147">
+        <v>6.2</v>
+      </c>
+      <c r="AE147">
+        <v>1.51</v>
+      </c>
+      <c r="AF147">
+        <v>2.37</v>
+      </c>
+      <c r="AG147">
+        <v>2.47</v>
+      </c>
+      <c r="AH147">
+        <v>1.48</v>
+      </c>
+      <c r="AI147">
+        <v>2.2</v>
+      </c>
+      <c r="AJ147">
+        <v>1.62</v>
+      </c>
+      <c r="AK147">
+        <v>1.47</v>
+      </c>
+      <c r="AL147">
+        <v>1.33</v>
+      </c>
+      <c r="AM147">
+        <v>1.4</v>
+      </c>
+      <c r="AN147">
+        <v>1.75</v>
+      </c>
+      <c r="AO147">
+        <v>1</v>
+      </c>
+      <c r="AP147">
+        <v>1.56</v>
+      </c>
+      <c r="AQ147">
+        <v>1.22</v>
+      </c>
+      <c r="AR147">
+        <v>1.16</v>
+      </c>
+      <c r="AS147">
+        <v>1.31</v>
+      </c>
+      <c r="AT147">
+        <v>2.47</v>
+      </c>
+      <c r="AU147">
+        <v>5</v>
+      </c>
+      <c r="AV147">
+        <v>7</v>
+      </c>
+      <c r="AW147">
+        <v>12</v>
+      </c>
+      <c r="AX147">
+        <v>1</v>
+      </c>
+      <c r="AY147">
+        <v>22</v>
+      </c>
+      <c r="AZ147">
+        <v>11</v>
+      </c>
+      <c r="BA147">
+        <v>4</v>
+      </c>
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
+        <v>7</v>
+      </c>
+      <c r="BD147">
+        <v>2.1</v>
+      </c>
+      <c r="BE147">
+        <v>6.1</v>
+      </c>
+      <c r="BF147">
+        <v>1.92</v>
+      </c>
+      <c r="BG147">
+        <v>1.46</v>
+      </c>
+      <c r="BH147">
+        <v>2.5</v>
+      </c>
+      <c r="BI147">
+        <v>1.82</v>
+      </c>
+      <c r="BJ147">
+        <v>1.98</v>
+      </c>
+      <c r="BK147">
+        <v>2.2</v>
+      </c>
+      <c r="BL147">
+        <v>1.58</v>
+      </c>
+      <c r="BM147">
+        <v>2.9</v>
+      </c>
+      <c r="BN147">
+        <v>1.35</v>
+      </c>
+      <c r="BO147">
+        <v>3.8</v>
+      </c>
+      <c r="BP147">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7469015</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45660.66666666666</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>81</v>
+      </c>
+      <c r="H148" t="s">
+        <v>87</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>90</v>
+      </c>
+      <c r="P148" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q148">
+        <v>2.4</v>
+      </c>
+      <c r="R148">
+        <v>2.3</v>
+      </c>
+      <c r="S148">
+        <v>4.33</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>1.8</v>
+      </c>
+      <c r="AA148">
+        <v>3.75</v>
+      </c>
+      <c r="AB148">
+        <v>3.96</v>
+      </c>
+      <c r="AC148">
+        <v>1.03</v>
+      </c>
+      <c r="AD148">
+        <v>13.7</v>
+      </c>
+      <c r="AE148">
+        <v>1.23</v>
+      </c>
+      <c r="AF148">
+        <v>4.1</v>
+      </c>
+      <c r="AG148">
+        <v>1.71</v>
+      </c>
+      <c r="AH148">
+        <v>2.02</v>
+      </c>
+      <c r="AI148">
+        <v>1.67</v>
+      </c>
+      <c r="AJ148">
+        <v>2.1</v>
+      </c>
+      <c r="AK148">
+        <v>1.18</v>
+      </c>
+      <c r="AL148">
+        <v>1.2</v>
+      </c>
+      <c r="AM148">
+        <v>1.95</v>
+      </c>
+      <c r="AN148">
+        <v>1.43</v>
+      </c>
+      <c r="AO148">
+        <v>0.88</v>
+      </c>
+      <c r="AP148">
+        <v>1.25</v>
+      </c>
+      <c r="AQ148">
+        <v>1.11</v>
+      </c>
+      <c r="AR148">
+        <v>1.89</v>
+      </c>
+      <c r="AS148">
+        <v>1.24</v>
+      </c>
+      <c r="AT148">
+        <v>3.13</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>6</v>
+      </c>
+      <c r="AX148">
+        <v>7</v>
+      </c>
+      <c r="AY148">
+        <v>14</v>
+      </c>
+      <c r="AZ148">
+        <v>13</v>
+      </c>
+      <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>5</v>
+      </c>
+      <c r="BC148">
+        <v>10</v>
+      </c>
+      <c r="BD148">
+        <v>1.61</v>
+      </c>
+      <c r="BE148">
+        <v>6.5</v>
+      </c>
+      <c r="BF148">
+        <v>2.55</v>
+      </c>
+      <c r="BG148">
+        <v>1.3</v>
+      </c>
+      <c r="BH148">
+        <v>3.15</v>
+      </c>
+      <c r="BI148">
+        <v>1.52</v>
+      </c>
+      <c r="BJ148">
+        <v>2.33</v>
+      </c>
+      <c r="BK148">
+        <v>1.84</v>
+      </c>
+      <c r="BL148">
+        <v>1.84</v>
+      </c>
+      <c r="BM148">
+        <v>2.3</v>
+      </c>
+      <c r="BN148">
+        <v>1.53</v>
+      </c>
+      <c r="BO148">
+        <v>2.95</v>
+      </c>
+      <c r="BP148">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7469016</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45660.66666666666</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s">
+        <v>79</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>90</v>
+      </c>
+      <c r="P149" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q149">
+        <v>3.1</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>3.75</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.63</v>
+      </c>
+      <c r="V149">
+        <v>3.25</v>
+      </c>
+      <c r="W149">
+        <v>1.33</v>
+      </c>
+      <c r="X149">
+        <v>10</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>2.22</v>
+      </c>
+      <c r="AA149">
+        <v>3.25</v>
+      </c>
+      <c r="AB149">
+        <v>3.16</v>
+      </c>
+      <c r="AC149">
+        <v>1.01</v>
+      </c>
+      <c r="AD149">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE149">
+        <v>1.37</v>
+      </c>
+      <c r="AF149">
+        <v>3.05</v>
+      </c>
+      <c r="AG149">
+        <v>2.12</v>
+      </c>
+      <c r="AH149">
+        <v>1.64</v>
+      </c>
+      <c r="AI149">
+        <v>1.83</v>
+      </c>
+      <c r="AJ149">
+        <v>1.83</v>
+      </c>
+      <c r="AK149">
+        <v>1.36</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.57</v>
+      </c>
+      <c r="AN149">
+        <v>2.13</v>
+      </c>
+      <c r="AO149">
+        <v>0.88</v>
+      </c>
+      <c r="AP149">
+        <v>1.89</v>
+      </c>
+      <c r="AQ149">
+        <v>1.11</v>
+      </c>
+      <c r="AR149">
+        <v>1.68</v>
+      </c>
+      <c r="AS149">
+        <v>1.25</v>
+      </c>
+      <c r="AT149">
+        <v>2.93</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>7</v>
+      </c>
+      <c r="AW149">
+        <v>6</v>
+      </c>
+      <c r="AX149">
+        <v>4</v>
+      </c>
+      <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
+        <v>12</v>
+      </c>
+      <c r="BA149">
+        <v>4</v>
+      </c>
+      <c r="BB149">
+        <v>3</v>
+      </c>
+      <c r="BC149">
+        <v>7</v>
+      </c>
+      <c r="BD149">
+        <v>1.81</v>
+      </c>
+      <c r="BE149">
+        <v>6.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.18</v>
+      </c>
+      <c r="BG149">
+        <v>1.35</v>
+      </c>
+      <c r="BH149">
+        <v>2.9</v>
+      </c>
+      <c r="BI149">
+        <v>1.58</v>
+      </c>
+      <c r="BJ149">
+        <v>2.17</v>
+      </c>
+      <c r="BK149">
+        <v>2</v>
+      </c>
+      <c r="BL149">
+        <v>1.8</v>
+      </c>
+      <c r="BM149">
+        <v>2.48</v>
+      </c>
+      <c r="BN149">
+        <v>1.48</v>
+      </c>
+      <c r="BO149">
+        <v>3.2</v>
+      </c>
+      <c r="BP149">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7469017</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45660.66666666666</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" t="s">
+        <v>70</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>90</v>
+      </c>
+      <c r="P150" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q150">
+        <v>2.88</v>
+      </c>
+      <c r="R150">
+        <v>2.1</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3.25</v>
+      </c>
+      <c r="W150">
+        <v>1.33</v>
+      </c>
+      <c r="X150">
+        <v>9</v>
+      </c>
+      <c r="Y150">
+        <v>1.07</v>
+      </c>
+      <c r="Z150">
+        <v>2.12</v>
+      </c>
+      <c r="AA150">
+        <v>3.35</v>
+      </c>
+      <c r="AB150">
+        <v>3.28</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE150">
+        <v>1.33</v>
+      </c>
+      <c r="AF150">
+        <v>3.25</v>
+      </c>
+      <c r="AG150">
+        <v>1.88</v>
+      </c>
+      <c r="AH150">
+        <v>1.82</v>
+      </c>
+      <c r="AI150">
+        <v>1.83</v>
+      </c>
+      <c r="AJ150">
+        <v>1.83</v>
+      </c>
+      <c r="AK150">
+        <v>1.3</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.68</v>
+      </c>
+      <c r="AN150">
+        <v>1.38</v>
+      </c>
+      <c r="AO150">
+        <v>1</v>
+      </c>
+      <c r="AP150">
+        <v>1.22</v>
+      </c>
+      <c r="AQ150">
+        <v>1.25</v>
+      </c>
+      <c r="AR150">
+        <v>1.35</v>
+      </c>
+      <c r="AS150">
+        <v>1.23</v>
+      </c>
+      <c r="AT150">
+        <v>2.58</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
+        <v>7</v>
+      </c>
+      <c r="AW150">
+        <v>3</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>12</v>
+      </c>
+      <c r="AZ150">
+        <v>13</v>
+      </c>
+      <c r="BA150">
+        <v>4</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>8</v>
+      </c>
+      <c r="BD150">
+        <v>1.74</v>
+      </c>
+      <c r="BE150">
+        <v>6.75</v>
+      </c>
+      <c r="BF150">
+        <v>2.33</v>
+      </c>
+      <c r="BG150">
+        <v>1.28</v>
+      </c>
+      <c r="BH150">
+        <v>3.2</v>
+      </c>
+      <c r="BI150">
+        <v>1.49</v>
+      </c>
+      <c r="BJ150">
+        <v>2.4</v>
+      </c>
+      <c r="BK150">
+        <v>1.88</v>
+      </c>
+      <c r="BL150">
+        <v>1.92</v>
+      </c>
+      <c r="BM150">
+        <v>2.23</v>
+      </c>
+      <c r="BN150">
+        <v>1.56</v>
+      </c>
+      <c r="BO150">
+        <v>2.85</v>
+      </c>
+      <c r="BP150">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7469010</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45660.66666666666</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>85</v>
+      </c>
+      <c r="H151" t="s">
+        <v>77</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>194</v>
+      </c>
+      <c r="P151" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q151">
+        <v>1.62</v>
+      </c>
+      <c r="R151">
+        <v>2.63</v>
+      </c>
+      <c r="S151">
+        <v>12</v>
+      </c>
+      <c r="T151">
+        <v>1.3</v>
+      </c>
+      <c r="U151">
+        <v>3.4</v>
+      </c>
+      <c r="V151">
+        <v>2.5</v>
+      </c>
+      <c r="W151">
+        <v>1.5</v>
+      </c>
+      <c r="X151">
+        <v>6</v>
+      </c>
+      <c r="Y151">
+        <v>1.13</v>
+      </c>
+      <c r="Z151">
+        <v>1.18</v>
+      </c>
+      <c r="AA151">
+        <v>6.35</v>
+      </c>
+      <c r="AB151">
+        <v>14.27</v>
+      </c>
+      <c r="AC151">
+        <v>1</v>
+      </c>
+      <c r="AD151">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE151">
+        <v>1.21</v>
+      </c>
+      <c r="AF151">
+        <v>4.23</v>
+      </c>
+      <c r="AG151">
+        <v>1.55</v>
+      </c>
+      <c r="AH151">
+        <v>2.29</v>
+      </c>
+      <c r="AI151">
+        <v>2.5</v>
+      </c>
+      <c r="AJ151">
+        <v>1.5</v>
+      </c>
+      <c r="AK151">
+        <v>1.03</v>
+      </c>
+      <c r="AL151">
+        <v>1.11</v>
+      </c>
+      <c r="AM151">
+        <v>4.2</v>
+      </c>
+      <c r="AN151">
+        <v>2</v>
+      </c>
+      <c r="AO151">
+        <v>1.14</v>
+      </c>
+      <c r="AP151">
+        <v>1.75</v>
+      </c>
+      <c r="AQ151">
+        <v>1.38</v>
+      </c>
+      <c r="AR151">
+        <v>1.79</v>
+      </c>
+      <c r="AS151">
+        <v>1.07</v>
+      </c>
+      <c r="AT151">
+        <v>2.86</v>
+      </c>
+      <c r="AU151">
+        <v>8</v>
+      </c>
+      <c r="AV151">
+        <v>6</v>
+      </c>
+      <c r="AW151">
+        <v>12</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>27</v>
+      </c>
+      <c r="AZ151">
+        <v>11</v>
+      </c>
+      <c r="BA151">
+        <v>5</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>5</v>
+      </c>
+      <c r="BD151">
+        <v>1.24</v>
+      </c>
+      <c r="BE151">
+        <v>7.5</v>
+      </c>
+      <c r="BF151">
+        <v>4.4</v>
+      </c>
+      <c r="BG151">
+        <v>1.38</v>
+      </c>
+      <c r="BH151">
+        <v>2.8</v>
+      </c>
+      <c r="BI151">
+        <v>1.65</v>
+      </c>
+      <c r="BJ151">
+        <v>2.08</v>
+      </c>
+      <c r="BK151">
+        <v>2</v>
+      </c>
+      <c r="BL151">
+        <v>1.8</v>
+      </c>
+      <c r="BM151">
+        <v>2.55</v>
+      </c>
+      <c r="BN151">
+        <v>1.44</v>
+      </c>
+      <c r="BO151">
+        <v>3.3</v>
+      </c>
+      <c r="BP151">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7469011</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45661.41666666666</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>82</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>90</v>
+      </c>
+      <c r="P152" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q152">
+        <v>2.4</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>5</v>
+      </c>
+      <c r="T152">
+        <v>1.44</v>
+      </c>
+      <c r="U152">
+        <v>2.63</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>9</v>
+      </c>
+      <c r="Y152">
+        <v>1.07</v>
+      </c>
+      <c r="Z152">
+        <v>1.73</v>
+      </c>
+      <c r="AA152">
+        <v>3.4</v>
+      </c>
+      <c r="AB152">
+        <v>4.6</v>
+      </c>
+      <c r="AC152">
+        <v>1.06</v>
+      </c>
+      <c r="AD152">
+        <v>8.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.33</v>
+      </c>
+      <c r="AF152">
+        <v>3.1</v>
+      </c>
+      <c r="AG152">
+        <v>1.94</v>
+      </c>
+      <c r="AH152">
+        <v>1.8</v>
+      </c>
+      <c r="AI152">
+        <v>1.83</v>
+      </c>
+      <c r="AJ152">
+        <v>1.83</v>
+      </c>
+      <c r="AK152">
+        <v>1.15</v>
+      </c>
+      <c r="AL152">
+        <v>1.22</v>
+      </c>
+      <c r="AM152">
+        <v>2</v>
+      </c>
+      <c r="AN152">
+        <v>2.25</v>
+      </c>
+      <c r="AO152">
+        <v>0.63</v>
+      </c>
+      <c r="AP152">
+        <v>2.11</v>
+      </c>
+      <c r="AQ152">
+        <v>0.67</v>
+      </c>
+      <c r="AR152">
+        <v>1.6</v>
+      </c>
+      <c r="AS152">
+        <v>1.39</v>
+      </c>
+      <c r="AT152">
+        <v>2.99</v>
+      </c>
+      <c r="AU152">
+        <v>7</v>
+      </c>
+      <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>9</v>
+      </c>
+      <c r="AX152">
+        <v>8</v>
+      </c>
+      <c r="AY152">
+        <v>23</v>
+      </c>
+      <c r="AZ152">
+        <v>16</v>
+      </c>
+      <c r="BA152">
+        <v>6</v>
+      </c>
+      <c r="BB152">
+        <v>6</v>
+      </c>
+      <c r="BC152">
+        <v>12</v>
+      </c>
+      <c r="BD152">
+        <v>1.57</v>
+      </c>
+      <c r="BE152">
+        <v>6.5</v>
+      </c>
+      <c r="BF152">
+        <v>2.65</v>
+      </c>
+      <c r="BG152">
+        <v>1.38</v>
+      </c>
+      <c r="BH152">
+        <v>2.8</v>
+      </c>
+      <c r="BI152">
+        <v>1.63</v>
+      </c>
+      <c r="BJ152">
+        <v>2.12</v>
+      </c>
+      <c r="BK152">
+        <v>2</v>
+      </c>
+      <c r="BL152">
+        <v>1.71</v>
+      </c>
+      <c r="BM152">
+        <v>2.55</v>
+      </c>
+      <c r="BN152">
+        <v>1.45</v>
+      </c>
+      <c r="BO152">
+        <v>3.3</v>
+      </c>
+      <c r="BP152">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7469014</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45661.41666666666</v>
+      </c>
+      <c r="F153">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153" t="s">
+        <v>95</v>
+      </c>
+      <c r="P153" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q153">
+        <v>2.63</v>
+      </c>
+      <c r="R153">
+        <v>2.2</v>
+      </c>
+      <c r="S153">
+        <v>4</v>
+      </c>
+      <c r="T153">
+        <v>1.4</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>8</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>2.1</v>
+      </c>
+      <c r="AA153">
+        <v>3.3</v>
+      </c>
+      <c r="AB153">
+        <v>3.3</v>
+      </c>
+      <c r="AC153">
+        <v>1.05</v>
+      </c>
+      <c r="AD153">
+        <v>9</v>
+      </c>
+      <c r="AE153">
+        <v>1.3</v>
+      </c>
+      <c r="AF153">
+        <v>3.3</v>
+      </c>
+      <c r="AG153">
+        <v>1.97</v>
+      </c>
+      <c r="AH153">
+        <v>1.87</v>
+      </c>
+      <c r="AI153">
+        <v>1.8</v>
+      </c>
+      <c r="AJ153">
+        <v>1.91</v>
+      </c>
+      <c r="AK153">
+        <v>1.25</v>
+      </c>
+      <c r="AL153">
+        <v>1.22</v>
+      </c>
+      <c r="AM153">
+        <v>1.83</v>
+      </c>
+      <c r="AN153">
+        <v>2</v>
+      </c>
+      <c r="AO153">
+        <v>1</v>
+      </c>
+      <c r="AP153">
+        <v>1.89</v>
+      </c>
+      <c r="AQ153">
+        <v>1</v>
+      </c>
+      <c r="AR153">
+        <v>1.78</v>
+      </c>
+      <c r="AS153">
+        <v>1.23</v>
+      </c>
+      <c r="AT153">
+        <v>3.01</v>
+      </c>
+      <c r="AU153">
+        <v>3</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
+        <v>1</v>
+      </c>
+      <c r="AX153">
+        <v>3</v>
+      </c>
+      <c r="AY153">
+        <v>6</v>
+      </c>
+      <c r="AZ153">
+        <v>12</v>
+      </c>
+      <c r="BA153">
+        <v>3</v>
+      </c>
+      <c r="BB153">
+        <v>2</v>
+      </c>
+      <c r="BC153">
+        <v>5</v>
+      </c>
+      <c r="BD153">
+        <v>1.66</v>
+      </c>
+      <c r="BE153">
+        <v>6.5</v>
+      </c>
+      <c r="BF153">
+        <v>2.5</v>
+      </c>
+      <c r="BG153">
+        <v>1.34</v>
+      </c>
+      <c r="BH153">
+        <v>2.9</v>
+      </c>
+      <c r="BI153">
+        <v>1.58</v>
+      </c>
+      <c r="BJ153">
+        <v>2.2</v>
+      </c>
+      <c r="BK153">
+        <v>1.94</v>
+      </c>
+      <c r="BL153">
+        <v>1.76</v>
+      </c>
+      <c r="BM153">
+        <v>2.45</v>
+      </c>
+      <c r="BN153">
+        <v>1.48</v>
+      </c>
+      <c r="BO153">
+        <v>3.15</v>
+      </c>
+      <c r="BP153">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7469018</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45661.66666666666</v>
+      </c>
+      <c r="F154">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>80</v>
+      </c>
+      <c r="H154" t="s">
+        <v>86</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>195</v>
+      </c>
+      <c r="P154" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q154">
+        <v>4.75</v>
+      </c>
+      <c r="R154">
+        <v>2.2</v>
+      </c>
+      <c r="S154">
+        <v>2.5</v>
+      </c>
+      <c r="T154">
+        <v>1.4</v>
+      </c>
+      <c r="U154">
+        <v>2.75</v>
+      </c>
+      <c r="V154">
+        <v>2.75</v>
+      </c>
+      <c r="W154">
+        <v>1.4</v>
+      </c>
+      <c r="X154">
+        <v>8</v>
+      </c>
+      <c r="Y154">
+        <v>1.08</v>
+      </c>
+      <c r="Z154">
+        <v>4</v>
+      </c>
+      <c r="AA154">
+        <v>3.4</v>
+      </c>
+      <c r="AB154">
+        <v>1.83</v>
+      </c>
+      <c r="AC154">
+        <v>1.05</v>
+      </c>
+      <c r="AD154">
+        <v>9</v>
+      </c>
+      <c r="AE154">
+        <v>1.3</v>
+      </c>
+      <c r="AF154">
+        <v>3.3</v>
+      </c>
+      <c r="AG154">
+        <v>2.05</v>
+      </c>
+      <c r="AH154">
+        <v>1.7</v>
+      </c>
+      <c r="AI154">
+        <v>1.8</v>
+      </c>
+      <c r="AJ154">
+        <v>1.91</v>
+      </c>
+      <c r="AK154">
+        <v>1.95</v>
+      </c>
+      <c r="AL154">
+        <v>1.22</v>
+      </c>
+      <c r="AM154">
+        <v>1.18</v>
+      </c>
+      <c r="AN154">
+        <v>1.57</v>
+      </c>
+      <c r="AO154">
+        <v>1.13</v>
+      </c>
+      <c r="AP154">
+        <v>1.75</v>
+      </c>
+      <c r="AQ154">
+        <v>1</v>
+      </c>
+      <c r="AR154">
+        <v>1.27</v>
+      </c>
+      <c r="AS154">
+        <v>1.47</v>
+      </c>
+      <c r="AT154">
+        <v>2.74</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>6</v>
+      </c>
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>6</v>
+      </c>
+      <c r="AY154">
+        <v>9</v>
+      </c>
+      <c r="AZ154">
+        <v>15</v>
+      </c>
+      <c r="BA154">
+        <v>6</v>
+      </c>
+      <c r="BB154">
+        <v>2</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>2.7</v>
+      </c>
+      <c r="BE154">
+        <v>6.75</v>
+      </c>
+      <c r="BF154">
+        <v>1.54</v>
+      </c>
+      <c r="BG154">
+        <v>1.32</v>
+      </c>
+      <c r="BH154">
+        <v>3.22</v>
+      </c>
+      <c r="BI154">
+        <v>1.56</v>
+      </c>
+      <c r="BJ154">
+        <v>2.33</v>
+      </c>
+      <c r="BK154">
+        <v>1.93</v>
+      </c>
+      <c r="BL154">
+        <v>1.82</v>
+      </c>
+      <c r="BM154">
+        <v>2.47</v>
+      </c>
+      <c r="BN154">
+        <v>1.51</v>
+      </c>
+      <c r="BO154">
+        <v>3.35</v>
+      </c>
+      <c r="BP154">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -32846,7 +32846,7 @@
         <v>9</v>
       </c>
       <c r="AZ154">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA154">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/France Ligue 2_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,15 @@
     <t>['67', '86']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['17', '90+3']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
     <t>['16', '45+2']</t>
   </si>
   <si>
@@ -662,9 +671,6 @@
   </si>
   <si>
     <t>['15', '37', '69']</t>
-  </si>
-  <si>
-    <t>['85']</t>
   </si>
   <si>
     <t>['36']</t>
@@ -806,6 +812,15 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['8', '47', '83', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1426,7 +1441,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>2.4</v>
@@ -1838,7 +1853,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2125,7 +2140,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ5">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2537,7 +2552,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ7">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2662,7 +2677,7 @@
         <v>90</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>3.1</v>
@@ -2946,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3074,7 +3089,7 @@
         <v>94</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3361,7 +3376,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ11">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3564,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3692,7 +3707,7 @@
         <v>95</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>3.1</v>
@@ -3770,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ13">
         <v>1.38</v>
@@ -3976,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>0.5</v>
@@ -4310,7 +4325,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>2.63</v>
@@ -4388,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ16">
         <v>1.38</v>
@@ -4516,7 +4531,7 @@
         <v>99</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>2.3</v>
@@ -5215,7 +5230,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0.67</v>
@@ -5546,7 +5561,7 @@
         <v>103</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2.88</v>
@@ -5627,7 +5642,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ22">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR22">
         <v>1.64</v>
@@ -5958,7 +5973,7 @@
         <v>105</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>2.62</v>
@@ -6164,7 +6179,7 @@
         <v>90</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6242,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ25">
         <v>0.89</v>
@@ -6370,7 +6385,7 @@
         <v>106</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>2.83</v>
@@ -6782,7 +6797,7 @@
         <v>108</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7066,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
         <v>0.13</v>
@@ -7275,7 +7290,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR30">
         <v>1.49</v>
@@ -7684,7 +7699,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.38</v>
@@ -7890,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -8099,7 +8114,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.55</v>
@@ -8224,7 +8239,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3.3</v>
@@ -8302,10 +8317,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ35">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.69</v>
@@ -8430,7 +8445,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>3.1</v>
@@ -8636,7 +8651,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>3.4</v>
@@ -8842,7 +8857,7 @@
         <v>90</v>
       </c>
       <c r="P38" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9048,7 +9063,7 @@
         <v>90</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9126,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ39">
         <v>0.5</v>
@@ -9460,7 +9475,7 @@
         <v>117</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>2.5</v>
@@ -9666,7 +9681,7 @@
         <v>118</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3.25</v>
@@ -9872,7 +9887,7 @@
         <v>90</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>2.75</v>
@@ -10365,7 +10380,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>1.53</v>
@@ -10490,7 +10505,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -10980,10 +10995,10 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ48">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.82</v>
@@ -11395,7 +11410,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR50">
         <v>1.61</v>
@@ -11598,7 +11613,7 @@
         <v>1.33</v>
       </c>
       <c r="AP51">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11932,7 +11947,7 @@
         <v>128</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12138,7 +12153,7 @@
         <v>129</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>2.55</v>
@@ -12219,7 +12234,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ54">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR54">
         <v>1.19</v>
@@ -12344,7 +12359,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>2.55</v>
@@ -12422,7 +12437,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ55">
         <v>1.56</v>
@@ -12756,7 +12771,7 @@
         <v>132</v>
       </c>
       <c r="P57" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12834,7 +12849,7 @@
         <v>0.67</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ57">
         <v>0.67</v>
@@ -12962,7 +12977,7 @@
         <v>133</v>
       </c>
       <c r="P58" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13040,7 +13055,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13168,7 +13183,7 @@
         <v>134</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>2.62</v>
@@ -13374,7 +13389,7 @@
         <v>135</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.88</v>
@@ -13661,7 +13676,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ61">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR61">
         <v>1.29</v>
@@ -13786,7 +13801,7 @@
         <v>137</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>3.6</v>
@@ -13992,7 +14007,7 @@
         <v>138</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14198,7 +14213,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>2.7</v>
@@ -14688,10 +14703,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR66">
         <v>1.59</v>
@@ -14897,7 +14912,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ67">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.61</v>
@@ -15022,7 +15037,7 @@
         <v>143</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>2.88</v>
@@ -15100,7 +15115,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ68">
         <v>0.5</v>
@@ -15228,7 +15243,7 @@
         <v>144</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>2.5</v>
@@ -15434,7 +15449,7 @@
         <v>145</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>3.75</v>
@@ -15721,7 +15736,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ71">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.24</v>
@@ -15846,7 +15861,7 @@
         <v>147</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>2.2</v>
@@ -16052,7 +16067,7 @@
         <v>90</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16130,7 +16145,7 @@
         <v>0.75</v>
       </c>
       <c r="AP73">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ73">
         <v>1.11</v>
@@ -16258,7 +16273,7 @@
         <v>90</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.4</v>
@@ -16464,7 +16479,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>3.5</v>
@@ -16670,7 +16685,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16748,7 +16763,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -17163,7 +17178,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17288,7 +17303,7 @@
         <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -17494,7 +17509,7 @@
         <v>152</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.05</v>
@@ -17700,7 +17715,7 @@
         <v>90</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17984,7 +17999,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ82">
         <v>0.89</v>
@@ -18193,7 +18208,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ83">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR83">
         <v>1.6</v>
@@ -18396,7 +18411,7 @@
         <v>1.4</v>
       </c>
       <c r="AP84">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84">
         <v>1.56</v>
@@ -18524,7 +18539,7 @@
         <v>90</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>3.1</v>
@@ -18602,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ85">
         <v>0.75</v>
@@ -18730,7 +18745,7 @@
         <v>156</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18808,7 +18823,7 @@
         <v>1.4</v>
       </c>
       <c r="AP86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ86">
         <v>1</v>
@@ -19223,7 +19238,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.77</v>
@@ -19348,7 +19363,7 @@
         <v>158</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19554,7 +19569,7 @@
         <v>90</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>2.38</v>
@@ -19635,7 +19650,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ90">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19966,7 +19981,7 @@
         <v>160</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20044,10 +20059,10 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR92">
         <v>1.2</v>
@@ -20584,7 +20599,7 @@
         <v>162</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>1.9</v>
@@ -20790,7 +20805,7 @@
         <v>163</v>
       </c>
       <c r="P96" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21202,7 +21217,7 @@
         <v>90</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21280,7 +21295,7 @@
         <v>0.25</v>
       </c>
       <c r="AP98">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ98">
         <v>0.5</v>
@@ -21898,10 +21913,10 @@
         <v>0.67</v>
       </c>
       <c r="AP101">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ101">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR101">
         <v>1.04</v>
@@ -22232,7 +22247,7 @@
         <v>166</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>4.2</v>
@@ -22438,7 +22453,7 @@
         <v>167</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>2.25</v>
@@ -22722,7 +22737,7 @@
         <v>0.83</v>
       </c>
       <c r="AP105">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ105">
         <v>0.67</v>
@@ -23262,7 +23277,7 @@
         <v>90</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q108">
         <v>4.5</v>
@@ -23752,7 +23767,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ110">
         <v>1.22</v>
@@ -24086,7 +24101,7 @@
         <v>173</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>3.5</v>
@@ -24164,7 +24179,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ112">
         <v>0.89</v>
@@ -24373,7 +24388,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ113">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR113">
         <v>1.1</v>
@@ -24498,7 +24513,7 @@
         <v>90</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2.85</v>
@@ -24579,7 +24594,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ114">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR114">
         <v>1.28</v>
@@ -24782,7 +24797,7 @@
         <v>2.17</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>1.89</v>
@@ -24910,7 +24925,7 @@
         <v>175</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>2.4</v>
@@ -24991,7 +25006,7 @@
         <v>3</v>
       </c>
       <c r="AQ116">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR116">
         <v>1.94</v>
@@ -25322,7 +25337,7 @@
         <v>90</v>
       </c>
       <c r="P118" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25400,7 +25415,7 @@
         <v>1.14</v>
       </c>
       <c r="AP118">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ118">
         <v>1.56</v>
@@ -25940,7 +25955,7 @@
         <v>178</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26430,10 +26445,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ123">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR123">
         <v>1.44</v>
@@ -27463,7 +27478,7 @@
         <v>3</v>
       </c>
       <c r="AQ128">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.83</v>
@@ -27666,10 +27681,10 @@
         <v>1</v>
       </c>
       <c r="AP129">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>0.99</v>
@@ -27872,7 +27887,7 @@
         <v>0.71</v>
       </c>
       <c r="AP130">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ130">
         <v>0.67</v>
@@ -28078,10 +28093,10 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ131">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR131">
         <v>1.33</v>
@@ -28490,7 +28505,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ133">
         <v>0.5</v>
@@ -28618,7 +28633,7 @@
         <v>90</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>3.2</v>
@@ -28824,7 +28839,7 @@
         <v>90</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -29317,7 +29332,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ137">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.66</v>
@@ -29520,7 +29535,7 @@
         <v>0.14</v>
       </c>
       <c r="AP138">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ138">
         <v>0.13</v>
@@ -29854,7 +29869,7 @@
         <v>188</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>2.95</v>
@@ -30060,7 +30075,7 @@
         <v>189</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>2.8</v>
@@ -30756,7 +30771,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>1.38</v>
@@ -30884,7 +30899,7 @@
         <v>192</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>2.75</v>
@@ -31090,7 +31105,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q146">
         <v>3.75</v>
@@ -31296,7 +31311,7 @@
         <v>129</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q147">
         <v>3.75</v>
@@ -31502,7 +31517,7 @@
         <v>90</v>
       </c>
       <c r="P148" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q148">
         <v>2.4</v>
@@ -31580,10 +31595,10 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ148">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AR148">
         <v>1.89</v>
@@ -31708,7 +31723,7 @@
         <v>90</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q149">
         <v>3.1</v>
@@ -31789,7 +31804,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ149">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.68</v>
@@ -31995,7 +32010,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ150">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR150">
         <v>1.35</v>
@@ -32120,7 +32135,7 @@
         <v>194</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>1.62</v>
@@ -32532,7 +32547,7 @@
         <v>95</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q153">
         <v>2.63</v>
@@ -32816,7 +32831,7 @@
         <v>1.13</v>
       </c>
       <c r="AP154">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154">
         <v>1</v>
@@ -32895,6 +32910,1036 @@
       </c>
       <c r="BP154">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7469022</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F155">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" t="s">
+        <v>70</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>90</v>
+      </c>
+      <c r="P155" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q155">
+        <v>4.5</v>
+      </c>
+      <c r="R155">
+        <v>2.05</v>
+      </c>
+      <c r="S155">
+        <v>2.45</v>
+      </c>
+      <c r="T155">
+        <v>1.45</v>
+      </c>
+      <c r="U155">
+        <v>2.55</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>7.8</v>
+      </c>
+      <c r="Y155">
+        <v>1.05</v>
+      </c>
+      <c r="Z155">
+        <v>4.33</v>
+      </c>
+      <c r="AA155">
+        <v>3.4</v>
+      </c>
+      <c r="AB155">
+        <v>1.78</v>
+      </c>
+      <c r="AC155">
+        <v>1.07</v>
+      </c>
+      <c r="AD155">
+        <v>8</v>
+      </c>
+      <c r="AE155">
+        <v>1.38</v>
+      </c>
+      <c r="AF155">
+        <v>3</v>
+      </c>
+      <c r="AG155">
+        <v>2</v>
+      </c>
+      <c r="AH155">
+        <v>1.73</v>
+      </c>
+      <c r="AI155">
+        <v>1.9</v>
+      </c>
+      <c r="AJ155">
+        <v>1.77</v>
+      </c>
+      <c r="AK155">
+        <v>1.93</v>
+      </c>
+      <c r="AL155">
+        <v>1.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.2</v>
+      </c>
+      <c r="AN155">
+        <v>0.11</v>
+      </c>
+      <c r="AO155">
+        <v>1.25</v>
+      </c>
+      <c r="AP155">
+        <v>0.1</v>
+      </c>
+      <c r="AQ155">
+        <v>1.44</v>
+      </c>
+      <c r="AR155">
+        <v>1</v>
+      </c>
+      <c r="AS155">
+        <v>1.25</v>
+      </c>
+      <c r="AT155">
+        <v>2.25</v>
+      </c>
+      <c r="AU155">
+        <v>0</v>
+      </c>
+      <c r="AV155">
+        <v>9</v>
+      </c>
+      <c r="AW155">
+        <v>11</v>
+      </c>
+      <c r="AX155">
+        <v>6</v>
+      </c>
+      <c r="AY155">
+        <v>11</v>
+      </c>
+      <c r="AZ155">
+        <v>15</v>
+      </c>
+      <c r="BA155">
+        <v>4</v>
+      </c>
+      <c r="BB155">
+        <v>6</v>
+      </c>
+      <c r="BC155">
+        <v>10</v>
+      </c>
+      <c r="BD155">
+        <v>2.6</v>
+      </c>
+      <c r="BE155">
+        <v>6.5</v>
+      </c>
+      <c r="BF155">
+        <v>1.58</v>
+      </c>
+      <c r="BG155">
+        <v>1.34</v>
+      </c>
+      <c r="BH155">
+        <v>2.9</v>
+      </c>
+      <c r="BI155">
+        <v>1.58</v>
+      </c>
+      <c r="BJ155">
+        <v>2.2</v>
+      </c>
+      <c r="BK155">
+        <v>1.97</v>
+      </c>
+      <c r="BL155">
+        <v>1.74</v>
+      </c>
+      <c r="BM155">
+        <v>2.48</v>
+      </c>
+      <c r="BN155">
+        <v>1.47</v>
+      </c>
+      <c r="BO155">
+        <v>3.15</v>
+      </c>
+      <c r="BP155">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7469026</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F156">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>82</v>
+      </c>
+      <c r="H156" t="s">
+        <v>72</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>196</v>
+      </c>
+      <c r="P156" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q156">
+        <v>2.8</v>
+      </c>
+      <c r="R156">
+        <v>2.1</v>
+      </c>
+      <c r="S156">
+        <v>3.6</v>
+      </c>
+      <c r="T156">
+        <v>1.4</v>
+      </c>
+      <c r="U156">
+        <v>2.75</v>
+      </c>
+      <c r="V156">
+        <v>2.8</v>
+      </c>
+      <c r="W156">
+        <v>1.39</v>
+      </c>
+      <c r="X156">
+        <v>6.95</v>
+      </c>
+      <c r="Y156">
+        <v>1.07</v>
+      </c>
+      <c r="Z156">
+        <v>2.25</v>
+      </c>
+      <c r="AA156">
+        <v>3.2</v>
+      </c>
+      <c r="AB156">
+        <v>3</v>
+      </c>
+      <c r="AC156">
+        <v>1.06</v>
+      </c>
+      <c r="AD156">
+        <v>8.5</v>
+      </c>
+      <c r="AE156">
+        <v>1.3</v>
+      </c>
+      <c r="AF156">
+        <v>3.3</v>
+      </c>
+      <c r="AG156">
+        <v>1.95</v>
+      </c>
+      <c r="AH156">
+        <v>1.75</v>
+      </c>
+      <c r="AI156">
+        <v>1.72</v>
+      </c>
+      <c r="AJ156">
+        <v>2.05</v>
+      </c>
+      <c r="AK156">
+        <v>1.35</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.66</v>
+      </c>
+      <c r="AN156">
+        <v>2.13</v>
+      </c>
+      <c r="AO156">
+        <v>1</v>
+      </c>
+      <c r="AP156">
+        <v>2</v>
+      </c>
+      <c r="AQ156">
+        <v>1</v>
+      </c>
+      <c r="AR156">
+        <v>1.52</v>
+      </c>
+      <c r="AS156">
+        <v>1.24</v>
+      </c>
+      <c r="AT156">
+        <v>2.76</v>
+      </c>
+      <c r="AU156">
+        <v>5</v>
+      </c>
+      <c r="AV156">
+        <v>5</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>9</v>
+      </c>
+      <c r="AY156">
+        <v>14</v>
+      </c>
+      <c r="AZ156">
+        <v>14</v>
+      </c>
+      <c r="BA156">
+        <v>4</v>
+      </c>
+      <c r="BB156">
+        <v>1</v>
+      </c>
+      <c r="BC156">
+        <v>5</v>
+      </c>
+      <c r="BD156">
+        <v>1.74</v>
+      </c>
+      <c r="BE156">
+        <v>6.4</v>
+      </c>
+      <c r="BF156">
+        <v>2.32</v>
+      </c>
+      <c r="BG156">
+        <v>1.43</v>
+      </c>
+      <c r="BH156">
+        <v>2.6</v>
+      </c>
+      <c r="BI156">
+        <v>1.72</v>
+      </c>
+      <c r="BJ156">
+        <v>1.98</v>
+      </c>
+      <c r="BK156">
+        <v>2.15</v>
+      </c>
+      <c r="BL156">
+        <v>1.61</v>
+      </c>
+      <c r="BM156">
+        <v>2.8</v>
+      </c>
+      <c r="BN156">
+        <v>1.38</v>
+      </c>
+      <c r="BO156">
+        <v>3.65</v>
+      </c>
+      <c r="BP156">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7469020</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F157">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>81</v>
+      </c>
+      <c r="H157" t="s">
+        <v>79</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>197</v>
+      </c>
+      <c r="P157" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q157">
+        <v>2.7</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>3.7</v>
+      </c>
+      <c r="T157">
+        <v>1.38</v>
+      </c>
+      <c r="U157">
+        <v>2.8</v>
+      </c>
+      <c r="V157">
+        <v>2.7</v>
+      </c>
+      <c r="W157">
+        <v>1.4</v>
+      </c>
+      <c r="X157">
+        <v>6.7</v>
+      </c>
+      <c r="Y157">
+        <v>1.07</v>
+      </c>
+      <c r="Z157">
+        <v>2.2</v>
+      </c>
+      <c r="AA157">
+        <v>3.3</v>
+      </c>
+      <c r="AB157">
+        <v>3</v>
+      </c>
+      <c r="AC157">
+        <v>1.05</v>
+      </c>
+      <c r="AD157">
+        <v>9</v>
+      </c>
+      <c r="AE157">
+        <v>1.28</v>
+      </c>
+      <c r="AF157">
+        <v>3.55</v>
+      </c>
+      <c r="AG157">
+        <v>1.91</v>
+      </c>
+      <c r="AH157">
+        <v>1.8</v>
+      </c>
+      <c r="AI157">
+        <v>1.67</v>
+      </c>
+      <c r="AJ157">
+        <v>2.05</v>
+      </c>
+      <c r="AK157">
+        <v>1.33</v>
+      </c>
+      <c r="AL157">
+        <v>1.25</v>
+      </c>
+      <c r="AM157">
+        <v>1.67</v>
+      </c>
+      <c r="AN157">
+        <v>1.25</v>
+      </c>
+      <c r="AO157">
+        <v>1.11</v>
+      </c>
+      <c r="AP157">
+        <v>1.44</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.86</v>
+      </c>
+      <c r="AS157">
+        <v>1.27</v>
+      </c>
+      <c r="AT157">
+        <v>3.13</v>
+      </c>
+      <c r="AU157">
+        <v>6</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>5</v>
+      </c>
+      <c r="AX157">
+        <v>10</v>
+      </c>
+      <c r="AY157">
+        <v>11</v>
+      </c>
+      <c r="AZ157">
+        <v>13</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>4</v>
+      </c>
+      <c r="BC157">
+        <v>7</v>
+      </c>
+      <c r="BD157">
+        <v>1.8</v>
+      </c>
+      <c r="BE157">
+        <v>6.5</v>
+      </c>
+      <c r="BF157">
+        <v>2.2</v>
+      </c>
+      <c r="BG157">
+        <v>1.29</v>
+      </c>
+      <c r="BH157">
+        <v>3.15</v>
+      </c>
+      <c r="BI157">
+        <v>1.5</v>
+      </c>
+      <c r="BJ157">
+        <v>2.33</v>
+      </c>
+      <c r="BK157">
+        <v>1.83</v>
+      </c>
+      <c r="BL157">
+        <v>1.85</v>
+      </c>
+      <c r="BM157">
+        <v>2.3</v>
+      </c>
+      <c r="BN157">
+        <v>1.53</v>
+      </c>
+      <c r="BO157">
+        <v>2.95</v>
+      </c>
+      <c r="BP157">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7469027</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F158">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>80</v>
+      </c>
+      <c r="H158" t="s">
+        <v>87</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>96</v>
+      </c>
+      <c r="P158" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q158">
+        <v>2.55</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>4.2</v>
+      </c>
+      <c r="T158">
+        <v>1.42</v>
+      </c>
+      <c r="U158">
+        <v>2.62</v>
+      </c>
+      <c r="V158">
+        <v>2.95</v>
+      </c>
+      <c r="W158">
+        <v>1.35</v>
+      </c>
+      <c r="X158">
+        <v>8.1</v>
+      </c>
+      <c r="Y158">
+        <v>1.04</v>
+      </c>
+      <c r="Z158">
+        <v>1.91</v>
+      </c>
+      <c r="AA158">
+        <v>3.3</v>
+      </c>
+      <c r="AB158">
+        <v>3.75</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.35</v>
+      </c>
+      <c r="AF158">
+        <v>3.1</v>
+      </c>
+      <c r="AG158">
+        <v>2</v>
+      </c>
+      <c r="AH158">
+        <v>1.73</v>
+      </c>
+      <c r="AI158">
+        <v>1.83</v>
+      </c>
+      <c r="AJ158">
+        <v>1.85</v>
+      </c>
+      <c r="AK158">
+        <v>1.25</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.77</v>
+      </c>
+      <c r="AN158">
+        <v>1.75</v>
+      </c>
+      <c r="AO158">
+        <v>1.11</v>
+      </c>
+      <c r="AP158">
+        <v>1.67</v>
+      </c>
+      <c r="AQ158">
+        <v>1.1</v>
+      </c>
+      <c r="AR158">
+        <v>1.25</v>
+      </c>
+      <c r="AS158">
+        <v>1.25</v>
+      </c>
+      <c r="AT158">
+        <v>2.5</v>
+      </c>
+      <c r="AU158">
+        <v>7</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>3</v>
+      </c>
+      <c r="AX158">
+        <v>5</v>
+      </c>
+      <c r="AY158">
+        <v>10</v>
+      </c>
+      <c r="AZ158">
+        <v>10</v>
+      </c>
+      <c r="BA158">
+        <v>9</v>
+      </c>
+      <c r="BB158">
+        <v>5</v>
+      </c>
+      <c r="BC158">
+        <v>14</v>
+      </c>
+      <c r="BD158">
+        <v>1.68</v>
+      </c>
+      <c r="BE158">
+        <v>6.4</v>
+      </c>
+      <c r="BF158">
+        <v>2.48</v>
+      </c>
+      <c r="BG158">
+        <v>1.35</v>
+      </c>
+      <c r="BH158">
+        <v>2.88</v>
+      </c>
+      <c r="BI158">
+        <v>1.6</v>
+      </c>
+      <c r="BJ158">
+        <v>2.17</v>
+      </c>
+      <c r="BK158">
+        <v>1.97</v>
+      </c>
+      <c r="BL158">
+        <v>1.74</v>
+      </c>
+      <c r="BM158">
+        <v>2.5</v>
+      </c>
+      <c r="BN158">
+        <v>1.46</v>
+      </c>
+      <c r="BO158">
+        <v>3.2</v>
+      </c>
+      <c r="BP158">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7469025</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45667.66666666666</v>
+      </c>
+      <c r="F159">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s">
+        <v>84</v>
+      </c>
+      <c r="H159" t="s">
+        <v>75</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159" t="s">
+        <v>198</v>
+      </c>
+      <c r="P159" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q159">
+        <v>3.3</v>
+      </c>
+      <c r="R159">
+        <v>2.05</v>
+      </c>
+      <c r="S159">
+        <v>3.1</v>
+      </c>
+      <c r="T159">
+        <v>1.43</v>
+      </c>
+      <c r="U159">
+        <v>2.65</v>
+      </c>
+      <c r="V159">
+        <v>2.95</v>
+      </c>
+      <c r="W159">
+        <v>1.35</v>
+      </c>
+      <c r="X159">
+        <v>7.4</v>
+      </c>
+      <c r="Y159">
+        <v>1.06</v>
+      </c>
+      <c r="Z159">
+        <v>2.4</v>
+      </c>
+      <c r="AA159">
+        <v>3.2</v>
+      </c>
+      <c r="AB159">
+        <v>2.75</v>
+      </c>
+      <c r="AC159">
+        <v>1.07</v>
+      </c>
+      <c r="AD159">
+        <v>8</v>
+      </c>
+      <c r="AE159">
+        <v>1.33</v>
+      </c>
+      <c r="AF159">
+        <v>3.1</v>
+      </c>
+      <c r="AG159">
+        <v>2</v>
+      </c>
+      <c r="AH159">
+        <v>1.73</v>
+      </c>
+      <c r="AI159">
+        <v>1.78</v>
+      </c>
+      <c r="AJ159">
+        <v>1.95</v>
+      </c>
+      <c r="AK159">
+        <v>1.5</v>
+      </c>
+      <c r="AL159">
+        <v>1.28</v>
+      </c>
+      <c r="AM159">
+        <v>1.45</v>
+      </c>
+      <c r="AN159">
+        <v>2.38</v>
+      </c>
+      <c r="AO159">
+        <v>1.13</v>
+      </c>
+      <c r="AP159">
+        <v>2.11</v>
+      </c>
+      <c r="AQ159">
+        <v>1.33</v>
+      </c>
+      <c r="AR159">
+        <v>1.45</v>
+      </c>
+      <c r="AS159">
+        <v>1.38</v>
+      </c>
+      <c r="AT159">
+        <v>2.83</v>
+      </c>
+      <c r="AU159">
+        <v>5</v>
+      </c>
+      <c r="AV159">
+        <v>7</v>
+      </c>
+      <c r="AW159">
+        <v>8</v>
+      </c>
+      <c r="AX159">
+        <v>9</v>
+      </c>
+      <c r="AY159">
+        <v>13</v>
+      </c>
+      <c r="AZ159">
+        <v>16</v>
+      </c>
+      <c r="BA159">
+        <v>4</v>
+      </c>
+      <c r="BB159">
+        <v>1</v>
+      </c>
+      <c r="BC159">
+        <v>5</v>
+      </c>
+      <c r="BD159">
+        <v>2.08</v>
+      </c>
+      <c r="BE159">
+        <v>6.4</v>
+      </c>
+      <c r="BF159">
+        <v>1.9</v>
+      </c>
+      <c r="BG159">
+        <v>1.44</v>
+      </c>
+      <c r="BH159">
+        <v>2.55</v>
+      </c>
+      <c r="BI159">
+        <v>1.73</v>
+      </c>
+      <c r="BJ159">
+        <v>1.98</v>
+      </c>
+      <c r="BK159">
+        <v>2.15</v>
+      </c>
+      <c r="BL159">
+        <v>1.61</v>
+      </c>
+      <c r="BM159">
+        <v>2.8</v>
+      </c>
+      <c r="BN159">
+        <v>1.37</v>
+      </c>
+      <c r="BO159">
+        <v>3.7</v>
+      </c>
+      <c r="BP159">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
